--- a/files/Calvert_phyto.xlsx
+++ b/files/Calvert_phyto.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin.belluz\Documents\R\microscopy_OBIS\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA48BD3-9359-4A16-BFDF-5AE5F0405D70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEAB06D-ACA3-4BA5-8EEB-5D2F7DA852ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" xr2:uid="{097FCDEB-8C97-4367-A565-6CEADFA41F06}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" activeTab="4" xr2:uid="{097FCDEB-8C97-4367-A565-6CEADFA41F06}"/>
   </bookViews>
   <sheets>
     <sheet name="QCS01_1" sheetId="1" r:id="rId1"/>
     <sheet name="QCS01_2" sheetId="2" r:id="rId2"/>
     <sheet name="QCS01_3" sheetId="3" r:id="rId3"/>
+    <sheet name="KC10_1" sheetId="4" r:id="rId4"/>
+    <sheet name="KC10_2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="260">
   <si>
     <t>Bacillariophyta</t>
   </si>
@@ -776,6 +778,105 @@
   </si>
   <si>
     <t>species</t>
+  </si>
+  <si>
+    <t>CPHY412</t>
+  </si>
+  <si>
+    <t>CPHY406</t>
+  </si>
+  <si>
+    <t>CPHY420</t>
+  </si>
+  <si>
+    <t>CPHY438</t>
+  </si>
+  <si>
+    <t>CPHY448</t>
+  </si>
+  <si>
+    <t>CPHY454</t>
+  </si>
+  <si>
+    <t>CPHY460</t>
+  </si>
+  <si>
+    <t>CPHY467</t>
+  </si>
+  <si>
+    <t>CPHY510</t>
+  </si>
+  <si>
+    <t>CPHY473</t>
+  </si>
+  <si>
+    <t>CPHY480</t>
+  </si>
+  <si>
+    <t>CPHY483</t>
+  </si>
+  <si>
+    <t>CPHY488</t>
+  </si>
+  <si>
+    <t>CPHY490</t>
+  </si>
+  <si>
+    <t>CPHY494</t>
+  </si>
+  <si>
+    <t>CPHY435</t>
+  </si>
+  <si>
+    <t>CPHY496</t>
+  </si>
+  <si>
+    <t>CPHY500</t>
+  </si>
+  <si>
+    <t>CPHY503</t>
+  </si>
+  <si>
+    <t>CPHY507</t>
+  </si>
+  <si>
+    <t>CPHY509</t>
+  </si>
+  <si>
+    <t>CPHY515</t>
+  </si>
+  <si>
+    <t>CPHY518</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prorocentrum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spp</t>
+    </r>
+  </si>
+  <si>
+    <t>Chatonella/Olisthodiscus</t>
+  </si>
+  <si>
+    <t>CPHY526</t>
+  </si>
+  <si>
+    <t>CPHY529</t>
+  </si>
+  <si>
+    <t>CPHY532</t>
+  </si>
+  <si>
+    <t>Corythodinium spp</t>
   </si>
 </sst>
 </file>
@@ -822,12 +923,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -842,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -850,11 +957,134 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1177,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D26184-1179-4CE4-988D-735858919EF1}">
   <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -4173,7 +4403,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8253,4 +8483,7611 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2B789C-B763-4256-917E-7CA7BD2F6FC5}">
+  <dimension ref="A1:AA210"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD210"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="R1" t="s">
+        <v>244</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="T1" t="s">
+        <v>246</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="G3">
+        <v>54</v>
+      </c>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3">
+        <v>6768</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="3"/>
+      <c r="R5">
+        <v>186</v>
+      </c>
+      <c r="S5">
+        <v>310</v>
+      </c>
+      <c r="W5">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3">
+        <v>5385</v>
+      </c>
+      <c r="J6" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="3">
+        <v>5833</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="W6">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3">
+        <v>3744</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="7">
+        <v>48</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3">
+        <v>162</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <v>288</v>
+      </c>
+      <c r="J10" s="3">
+        <v>144</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="3">
+        <v>148</v>
+      </c>
+      <c r="O10" s="3">
+        <v>40</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="S10">
+        <v>62</v>
+      </c>
+      <c r="V10">
+        <v>144</v>
+      </c>
+      <c r="Z10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3">
+        <v>594</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>3024</v>
+      </c>
+      <c r="J11" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K11" s="3">
+        <v>372</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1440</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="3"/>
+      <c r="R11">
+        <v>248</v>
+      </c>
+      <c r="U11">
+        <v>2448</v>
+      </c>
+      <c r="W11">
+        <v>84903</v>
+      </c>
+      <c r="X11">
+        <v>80000</v>
+      </c>
+      <c r="Y11">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3">
+        <v>80</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <v>216</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="U15">
+        <v>432</v>
+      </c>
+      <c r="V15">
+        <v>144</v>
+      </c>
+      <c r="W15">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3">
+        <v>432</v>
+      </c>
+      <c r="J16" s="3">
+        <v>144</v>
+      </c>
+      <c r="K16" s="3">
+        <v>186</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="3">
+        <v>222</v>
+      </c>
+      <c r="O16" s="3">
+        <v>40</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="V16">
+        <v>144</v>
+      </c>
+      <c r="Z16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3">
+        <v>80</v>
+      </c>
+      <c r="F17" s="3">
+        <v>80</v>
+      </c>
+      <c r="G17" s="3">
+        <v>90576</v>
+      </c>
+      <c r="H17" s="3">
+        <v>21200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>22000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>16416</v>
+      </c>
+      <c r="K17" s="3">
+        <v>4402</v>
+      </c>
+      <c r="L17" s="3">
+        <v>48</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="3">
+        <v>16848</v>
+      </c>
+      <c r="O17" s="3">
+        <v>360</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="3">
+        <v>240</v>
+      </c>
+      <c r="R17">
+        <v>930</v>
+      </c>
+      <c r="S17">
+        <v>1116</v>
+      </c>
+      <c r="T17">
+        <v>656</v>
+      </c>
+      <c r="V17">
+        <v>2736</v>
+      </c>
+      <c r="W17">
+        <v>45406</v>
+      </c>
+      <c r="X17">
+        <v>1554</v>
+      </c>
+      <c r="Z17">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="S18">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3">
+        <v>280</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3">
+        <v>186</v>
+      </c>
+      <c r="L19" s="3">
+        <v>384</v>
+      </c>
+      <c r="M19" s="7">
+        <v>192</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3">
+        <v>1008</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3">
+        <v>432</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3">
+        <v>216</v>
+      </c>
+      <c r="H23" s="3">
+        <v>400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1728</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2304</v>
+      </c>
+      <c r="K23" s="3">
+        <v>744</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23">
+        <v>496</v>
+      </c>
+      <c r="S23">
+        <v>248</v>
+      </c>
+      <c r="W23">
+        <v>2799</v>
+      </c>
+      <c r="Y23">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3">
+        <v>486</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
+        <v>2448</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3">
+        <v>486</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>1872</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4752</v>
+      </c>
+      <c r="K27" s="3">
+        <v>372</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="7">
+        <v>288</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="V27">
+        <v>5760</v>
+      </c>
+      <c r="W27">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I29" s="3">
+        <v>3456</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1872</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="U29">
+        <v>4032</v>
+      </c>
+      <c r="Y29">
+        <v>333</v>
+      </c>
+      <c r="Z29">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="7">
+        <v>288</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="3">
+        <v>40</v>
+      </c>
+      <c r="S30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3">
+        <v>7622</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <v>21744</v>
+      </c>
+      <c r="J31" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K31" s="3">
+        <v>78750</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="7">
+        <v>432</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31">
+        <v>248</v>
+      </c>
+      <c r="U31">
+        <v>14976</v>
+      </c>
+      <c r="V31">
+        <v>1584</v>
+      </c>
+      <c r="W31">
+        <v>40838</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3">
+        <v>80</v>
+      </c>
+      <c r="F32" s="3">
+        <v>80</v>
+      </c>
+      <c r="G32" s="3">
+        <v>108</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1584</v>
+      </c>
+      <c r="J32" s="3">
+        <v>8352</v>
+      </c>
+      <c r="K32" s="3">
+        <v>930</v>
+      </c>
+      <c r="L32" s="3">
+        <v>432</v>
+      </c>
+      <c r="M32" s="7">
+        <v>576</v>
+      </c>
+      <c r="N32" s="3">
+        <v>5476</v>
+      </c>
+      <c r="O32" s="3"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="3">
+        <v>40</v>
+      </c>
+      <c r="S32">
+        <v>372</v>
+      </c>
+      <c r="T32">
+        <v>287</v>
+      </c>
+      <c r="U32">
+        <v>144</v>
+      </c>
+      <c r="V32">
+        <v>144</v>
+      </c>
+      <c r="W32">
+        <v>6220</v>
+      </c>
+      <c r="X32">
+        <v>1332</v>
+      </c>
+      <c r="Z32">
+        <v>200</v>
+      </c>
+      <c r="AA32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="3">
+        <v>124</v>
+      </c>
+      <c r="L35" s="3">
+        <v>48</v>
+      </c>
+      <c r="M35" s="7"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="X35">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3">
+        <v>40</v>
+      </c>
+      <c r="F36" s="3">
+        <v>120</v>
+      </c>
+      <c r="G36" s="3">
+        <v>54</v>
+      </c>
+      <c r="H36" s="3">
+        <v>200</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
+        <v>144</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="7">
+        <v>336</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1628</v>
+      </c>
+      <c r="O36" s="3"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="U36">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3">
+        <v>1750</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3">
+        <v>11667</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3">
+        <v>2692</v>
+      </c>
+      <c r="J37" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3">
+        <v>4375</v>
+      </c>
+      <c r="M37" s="7">
+        <v>5833</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3">
+        <v>2059</v>
+      </c>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="S37">
+        <v>28636</v>
+      </c>
+      <c r="V37">
+        <v>35000</v>
+      </c>
+      <c r="W37">
+        <v>11668</v>
+      </c>
+      <c r="X37">
+        <v>10000</v>
+      </c>
+      <c r="Y37">
+        <v>23333</v>
+      </c>
+      <c r="Z37">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3">
+        <v>216</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3">
+        <v>144</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="3">
+        <v>74</v>
+      </c>
+      <c r="O40" s="3"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3">
+        <v>640</v>
+      </c>
+      <c r="F41" s="3">
+        <v>520</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1404</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3">
+        <v>288</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1584</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1612</v>
+      </c>
+      <c r="L41" s="3">
+        <v>768</v>
+      </c>
+      <c r="M41" s="7">
+        <v>576</v>
+      </c>
+      <c r="N41" s="3">
+        <v>2664</v>
+      </c>
+      <c r="O41" s="3">
+        <v>200</v>
+      </c>
+      <c r="P41" s="3">
+        <v>120</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>120</v>
+      </c>
+      <c r="R41">
+        <v>868</v>
+      </c>
+      <c r="S41">
+        <v>1798</v>
+      </c>
+      <c r="T41">
+        <v>41</v>
+      </c>
+      <c r="U41">
+        <v>288</v>
+      </c>
+      <c r="V41">
+        <v>5616</v>
+      </c>
+      <c r="W41">
+        <v>3421</v>
+      </c>
+      <c r="X41">
+        <v>8658</v>
+      </c>
+      <c r="Y41">
+        <v>1554</v>
+      </c>
+      <c r="Z41">
+        <v>320</v>
+      </c>
+      <c r="AA41">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3">
+        <v>540</v>
+      </c>
+      <c r="H42" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>576</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1008</v>
+      </c>
+      <c r="K42" s="3">
+        <v>620</v>
+      </c>
+      <c r="L42" s="3">
+        <v>96</v>
+      </c>
+      <c r="M42" s="7"/>
+      <c r="N42" s="3">
+        <v>1628</v>
+      </c>
+      <c r="O42" s="3"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="S42">
+        <v>434</v>
+      </c>
+      <c r="V42">
+        <v>1152</v>
+      </c>
+      <c r="W42">
+        <v>933</v>
+      </c>
+      <c r="X42">
+        <v>1221</v>
+      </c>
+      <c r="Y42">
+        <v>555</v>
+      </c>
+      <c r="Z42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1872</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1296</v>
+      </c>
+      <c r="K43" s="3">
+        <v>62</v>
+      </c>
+      <c r="L43" s="3">
+        <v>336</v>
+      </c>
+      <c r="M43" s="7"/>
+      <c r="N43" s="3">
+        <v>370</v>
+      </c>
+      <c r="O43" s="3"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="W43">
+        <v>1244</v>
+      </c>
+      <c r="X43">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="3">
+        <v>96</v>
+      </c>
+      <c r="M44" s="7"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="S44">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="3">
+        <v>40</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="7">
+        <v>144</v>
+      </c>
+      <c r="N45" s="3">
+        <v>74</v>
+      </c>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45">
+        <v>124</v>
+      </c>
+      <c r="S45">
+        <v>62</v>
+      </c>
+      <c r="Z45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3">
+        <v>288</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="7">
+        <v>48</v>
+      </c>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="3">
+        <v>400</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="3">
+        <v>930</v>
+      </c>
+      <c r="L47" s="3">
+        <v>96</v>
+      </c>
+      <c r="M47" s="7">
+        <v>528</v>
+      </c>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="Y47">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="V48">
+        <v>144</v>
+      </c>
+      <c r="Z48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="3">
+        <v>800</v>
+      </c>
+      <c r="I50" s="3">
+        <v>144</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="3">
+        <v>248</v>
+      </c>
+      <c r="L50" s="4"/>
+      <c r="M50" s="7">
+        <v>192</v>
+      </c>
+      <c r="N50" s="3">
+        <v>296</v>
+      </c>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50">
+        <v>1240</v>
+      </c>
+      <c r="V50">
+        <v>11232</v>
+      </c>
+      <c r="W50">
+        <v>12440</v>
+      </c>
+      <c r="X50">
+        <v>999</v>
+      </c>
+      <c r="Y50">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>10368</v>
+      </c>
+      <c r="J52" s="3">
+        <v>17424</v>
+      </c>
+      <c r="K52" s="3">
+        <v>868</v>
+      </c>
+      <c r="L52" s="3">
+        <v>576</v>
+      </c>
+      <c r="M52" s="7">
+        <v>1920</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1702</v>
+      </c>
+      <c r="O52" s="3"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52">
+        <v>248</v>
+      </c>
+      <c r="S52">
+        <v>558</v>
+      </c>
+      <c r="V52">
+        <v>1152</v>
+      </c>
+      <c r="W52">
+        <v>27990</v>
+      </c>
+      <c r="X52">
+        <v>12099</v>
+      </c>
+      <c r="Y52">
+        <v>666</v>
+      </c>
+      <c r="Z52">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3">
+        <v>54</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="S53">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="3">
+        <v>186</v>
+      </c>
+      <c r="L56" s="4"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="S56">
+        <v>62</v>
+      </c>
+      <c r="V56">
+        <v>864</v>
+      </c>
+      <c r="W56">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="3">
+        <v>96</v>
+      </c>
+      <c r="M57" s="7"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="3">
+        <v>648</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="7">
+        <v>336</v>
+      </c>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="W58">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="3">
+        <v>576</v>
+      </c>
+      <c r="J59" s="3">
+        <v>432</v>
+      </c>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="V59">
+        <v>576</v>
+      </c>
+      <c r="W59">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="3">
+        <v>40</v>
+      </c>
+      <c r="G60" s="3">
+        <v>540</v>
+      </c>
+      <c r="H60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3">
+        <v>1152</v>
+      </c>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3">
+        <v>336</v>
+      </c>
+      <c r="M60" s="7">
+        <v>480</v>
+      </c>
+      <c r="N60" s="3">
+        <v>148</v>
+      </c>
+      <c r="O60" s="3">
+        <v>80</v>
+      </c>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="3">
+        <v>40</v>
+      </c>
+      <c r="R60">
+        <v>4960</v>
+      </c>
+      <c r="S60">
+        <v>992</v>
+      </c>
+      <c r="T60">
+        <v>82</v>
+      </c>
+      <c r="U60">
+        <v>12528</v>
+      </c>
+      <c r="V60">
+        <v>1152</v>
+      </c>
+      <c r="W60">
+        <v>311</v>
+      </c>
+      <c r="X60">
+        <v>1998</v>
+      </c>
+      <c r="Y60">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="3">
+        <v>80</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3">
+        <v>2484</v>
+      </c>
+      <c r="H61" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>432</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4176</v>
+      </c>
+      <c r="K61" s="3">
+        <v>62</v>
+      </c>
+      <c r="L61" s="3">
+        <v>480</v>
+      </c>
+      <c r="M61" s="7">
+        <v>384</v>
+      </c>
+      <c r="N61" s="3">
+        <v>740</v>
+      </c>
+      <c r="O61" s="3"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61">
+        <v>4650</v>
+      </c>
+      <c r="S61">
+        <v>2976</v>
+      </c>
+      <c r="T61">
+        <v>861</v>
+      </c>
+      <c r="U61">
+        <v>13824</v>
+      </c>
+      <c r="V61">
+        <v>21400</v>
+      </c>
+      <c r="W61">
+        <v>123000</v>
+      </c>
+      <c r="X61">
+        <v>2997</v>
+      </c>
+      <c r="AA61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="3">
+        <v>270</v>
+      </c>
+      <c r="H62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1152</v>
+      </c>
+      <c r="J62" s="3">
+        <v>8352</v>
+      </c>
+      <c r="K62" s="3">
+        <v>2046</v>
+      </c>
+      <c r="L62" s="3">
+        <v>192</v>
+      </c>
+      <c r="M62" s="7">
+        <v>96</v>
+      </c>
+      <c r="N62" s="3">
+        <v>444</v>
+      </c>
+      <c r="O62" s="3"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="3">
+        <v>40</v>
+      </c>
+      <c r="R62">
+        <v>1736</v>
+      </c>
+      <c r="S62">
+        <v>1798</v>
+      </c>
+      <c r="T62">
+        <v>123</v>
+      </c>
+      <c r="U62">
+        <v>10944</v>
+      </c>
+      <c r="V62">
+        <v>101232</v>
+      </c>
+      <c r="W62">
+        <v>69264</v>
+      </c>
+      <c r="X62">
+        <v>222</v>
+      </c>
+      <c r="Y62">
+        <v>111</v>
+      </c>
+      <c r="Z62">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="3">
+        <v>200</v>
+      </c>
+      <c r="I63" s="3">
+        <v>720</v>
+      </c>
+      <c r="J63" s="3">
+        <v>1728</v>
+      </c>
+      <c r="K63" s="3">
+        <v>51004</v>
+      </c>
+      <c r="L63" s="3">
+        <v>240</v>
+      </c>
+      <c r="M63" s="7">
+        <v>1680</v>
+      </c>
+      <c r="N63" s="3">
+        <v>296</v>
+      </c>
+      <c r="O63" s="3"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="S63">
+        <v>62</v>
+      </c>
+      <c r="V63">
+        <v>1728</v>
+      </c>
+      <c r="W63">
+        <v>37009</v>
+      </c>
+      <c r="X63">
+        <v>10434</v>
+      </c>
+      <c r="Y63">
+        <v>111</v>
+      </c>
+      <c r="Z63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="3">
+        <v>114000</v>
+      </c>
+      <c r="H64" s="3">
+        <v>196000</v>
+      </c>
+      <c r="I64" s="3">
+        <v>129000</v>
+      </c>
+      <c r="J64" s="3">
+        <v>398000</v>
+      </c>
+      <c r="K64" s="3">
+        <v>992</v>
+      </c>
+      <c r="L64" s="3">
+        <v>1152</v>
+      </c>
+      <c r="M64" s="7"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64">
+        <v>37009</v>
+      </c>
+      <c r="S64">
+        <v>34128</v>
+      </c>
+      <c r="T64">
+        <v>13172</v>
+      </c>
+      <c r="U64">
+        <v>9648</v>
+      </c>
+      <c r="V64">
+        <v>141488</v>
+      </c>
+      <c r="W64">
+        <v>72224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="3">
+        <v>1560</v>
+      </c>
+      <c r="F65" s="3">
+        <v>360</v>
+      </c>
+      <c r="G65" s="3">
+        <v>27800</v>
+      </c>
+      <c r="H65" s="3">
+        <v>960000</v>
+      </c>
+      <c r="I65" s="3">
+        <v>318000</v>
+      </c>
+      <c r="J65" s="3">
+        <v>216000</v>
+      </c>
+      <c r="K65" s="3">
+        <v>930</v>
+      </c>
+      <c r="L65" s="3">
+        <v>12876</v>
+      </c>
+      <c r="M65" s="7">
+        <v>3264</v>
+      </c>
+      <c r="N65" s="3">
+        <v>5328</v>
+      </c>
+      <c r="O65" s="3">
+        <v>440</v>
+      </c>
+      <c r="P65" s="3">
+        <v>480</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>2120</v>
+      </c>
+      <c r="R65">
+        <v>10360</v>
+      </c>
+      <c r="S65">
+        <v>31411</v>
+      </c>
+      <c r="T65">
+        <v>3977</v>
+      </c>
+      <c r="U65">
+        <v>138000</v>
+      </c>
+      <c r="V65">
+        <v>76368</v>
+      </c>
+      <c r="W65">
+        <v>8708</v>
+      </c>
+      <c r="X65">
+        <v>10767</v>
+      </c>
+      <c r="Y65">
+        <v>999</v>
+      </c>
+      <c r="Z65">
+        <v>1560</v>
+      </c>
+      <c r="AA65">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="3">
+        <v>108</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="3">
+        <v>40</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I68" s="3">
+        <v>3888</v>
+      </c>
+      <c r="J68" s="3">
+        <v>6768</v>
+      </c>
+      <c r="K68" s="3">
+        <v>310</v>
+      </c>
+      <c r="L68" s="3">
+        <v>624</v>
+      </c>
+      <c r="M68" s="7">
+        <v>48</v>
+      </c>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3">
+        <v>280</v>
+      </c>
+      <c r="P68" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q68" s="4"/>
+      <c r="S68">
+        <v>496</v>
+      </c>
+      <c r="T68">
+        <v>82</v>
+      </c>
+      <c r="U68">
+        <v>288</v>
+      </c>
+      <c r="V68">
+        <v>2304</v>
+      </c>
+      <c r="W68">
+        <v>3421</v>
+      </c>
+      <c r="X68">
+        <v>555</v>
+      </c>
+      <c r="Z68">
+        <v>400</v>
+      </c>
+      <c r="AA68">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70">
+        <v>868</v>
+      </c>
+      <c r="W70">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="3">
+        <v>80</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3">
+        <v>3132</v>
+      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71">
+        <v>12987</v>
+      </c>
+      <c r="S71">
+        <v>1612</v>
+      </c>
+      <c r="T71">
+        <v>2009</v>
+      </c>
+      <c r="U71">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="3">
+        <v>400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1440</v>
+      </c>
+      <c r="J72" s="4"/>
+      <c r="K72" s="3">
+        <v>124</v>
+      </c>
+      <c r="L72" s="3">
+        <v>96</v>
+      </c>
+      <c r="M72" s="7"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="3">
+        <v>280</v>
+      </c>
+      <c r="F73" s="3">
+        <v>80</v>
+      </c>
+      <c r="G73" s="3">
+        <v>3888</v>
+      </c>
+      <c r="H73" s="3">
+        <v>31000</v>
+      </c>
+      <c r="I73" s="3">
+        <v>7920</v>
+      </c>
+      <c r="J73" s="3">
+        <v>9504</v>
+      </c>
+      <c r="K73" s="3">
+        <v>2170</v>
+      </c>
+      <c r="L73" s="3">
+        <v>2112</v>
+      </c>
+      <c r="M73" s="7">
+        <v>288</v>
+      </c>
+      <c r="N73" s="3">
+        <v>444</v>
+      </c>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>160</v>
+      </c>
+      <c r="R73">
+        <v>5580</v>
+      </c>
+      <c r="S73">
+        <v>4278</v>
+      </c>
+      <c r="T73">
+        <v>9167</v>
+      </c>
+      <c r="U73">
+        <v>15552</v>
+      </c>
+      <c r="V73">
+        <v>46650</v>
+      </c>
+      <c r="W73">
+        <v>1244</v>
+      </c>
+      <c r="X73">
+        <v>2775</v>
+      </c>
+      <c r="Y73">
+        <v>333</v>
+      </c>
+      <c r="Z73">
+        <v>280</v>
+      </c>
+      <c r="AA73">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="T74">
+        <v>41</v>
+      </c>
+      <c r="U74">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="3">
+        <v>108</v>
+      </c>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3">
+        <v>432</v>
+      </c>
+      <c r="J75" s="3">
+        <v>144</v>
+      </c>
+      <c r="K75" s="3">
+        <v>620</v>
+      </c>
+      <c r="L75" s="3">
+        <v>336</v>
+      </c>
+      <c r="M75" s="7">
+        <v>240</v>
+      </c>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3">
+        <v>80</v>
+      </c>
+      <c r="P75" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>40</v>
+      </c>
+      <c r="S75">
+        <v>496</v>
+      </c>
+      <c r="T75">
+        <v>164</v>
+      </c>
+      <c r="U75">
+        <v>576</v>
+      </c>
+      <c r="V75">
+        <v>288</v>
+      </c>
+      <c r="W75">
+        <v>311</v>
+      </c>
+      <c r="X75">
+        <v>3330</v>
+      </c>
+      <c r="Y75">
+        <v>222</v>
+      </c>
+      <c r="Z75">
+        <v>160</v>
+      </c>
+      <c r="AA75">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="3">
+        <v>1750</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1750</v>
+      </c>
+      <c r="G76" s="3">
+        <v>3889</v>
+      </c>
+      <c r="H76" s="3">
+        <v>23333</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3">
+        <v>78750</v>
+      </c>
+      <c r="L76" s="3">
+        <v>4375</v>
+      </c>
+      <c r="M76" s="7">
+        <v>5834</v>
+      </c>
+      <c r="N76" s="3">
+        <v>11666</v>
+      </c>
+      <c r="O76" s="3">
+        <v>2059</v>
+      </c>
+      <c r="P76" s="3">
+        <v>5250</v>
+      </c>
+      <c r="Q76" s="3"/>
+      <c r="S76">
+        <v>9546</v>
+      </c>
+      <c r="T76">
+        <v>17500</v>
+      </c>
+      <c r="U76">
+        <v>630018</v>
+      </c>
+      <c r="V76">
+        <v>8750</v>
+      </c>
+      <c r="X76">
+        <v>60000</v>
+      </c>
+      <c r="Y76">
+        <v>23333</v>
+      </c>
+      <c r="AA76">
+        <v>11667</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <v>400</v>
+      </c>
+      <c r="F77">
+        <v>360</v>
+      </c>
+      <c r="G77" s="3">
+        <v>810</v>
+      </c>
+      <c r="H77" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I77" s="3">
+        <v>288</v>
+      </c>
+      <c r="J77" s="3">
+        <v>1152</v>
+      </c>
+      <c r="K77" s="3">
+        <v>1488</v>
+      </c>
+      <c r="L77" s="3">
+        <v>1008</v>
+      </c>
+      <c r="M77" s="7">
+        <v>192</v>
+      </c>
+      <c r="N77" s="3">
+        <v>962</v>
+      </c>
+      <c r="O77" s="3">
+        <v>200</v>
+      </c>
+      <c r="P77">
+        <v>360</v>
+      </c>
+      <c r="Q77">
+        <v>40</v>
+      </c>
+      <c r="R77">
+        <v>992</v>
+      </c>
+      <c r="S77">
+        <v>1612</v>
+      </c>
+      <c r="T77">
+        <v>369</v>
+      </c>
+      <c r="U77">
+        <v>3024</v>
+      </c>
+      <c r="V77">
+        <v>2160</v>
+      </c>
+      <c r="W77">
+        <v>622</v>
+      </c>
+      <c r="X77">
+        <v>4440</v>
+      </c>
+      <c r="Y77">
+        <v>666</v>
+      </c>
+      <c r="Z77">
+        <v>240</v>
+      </c>
+      <c r="AA77">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3">
+        <v>5384</v>
+      </c>
+      <c r="J78" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3">
+        <v>13125</v>
+      </c>
+      <c r="M78" s="7">
+        <v>2917</v>
+      </c>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3">
+        <v>2059</v>
+      </c>
+      <c r="P78" s="3">
+        <v>1750</v>
+      </c>
+      <c r="Q78" s="3"/>
+      <c r="R78">
+        <v>2917</v>
+      </c>
+      <c r="S78">
+        <v>6364</v>
+      </c>
+      <c r="T78">
+        <v>26250</v>
+      </c>
+      <c r="U78">
+        <v>11667</v>
+      </c>
+      <c r="V78">
+        <v>26250</v>
+      </c>
+      <c r="W78">
+        <v>5834</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="M79" s="8"/>
+      <c r="N79">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ref="E80:AA80" si="0">SUM(E3:E79)</f>
+        <v>17600</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="0"/>
+        <v>3470</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="0"/>
+        <v>272132</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="0"/>
+        <v>1295333</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="0"/>
+        <v>552157</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="0"/>
+        <v>781208</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="0"/>
+        <v>229088</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="0"/>
+        <v>45743</v>
+      </c>
+      <c r="M80" s="8">
+        <f>SUM(M9:M79)</f>
+        <v>27160</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="0"/>
+        <v>57139</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="0"/>
+        <v>7897</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="0"/>
+        <v>8120</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="0"/>
+        <v>2880</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="0"/>
+        <v>88197</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="0"/>
+        <v>129801</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="0"/>
+        <v>74781</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="0"/>
+        <v>872997</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="0"/>
+        <v>496162</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="0"/>
+        <v>578201</v>
+      </c>
+      <c r="X80">
+        <f>SUM(X11:X79)</f>
+        <v>223492</v>
+      </c>
+      <c r="Y80">
+        <f>SUM(Y11:Y79)</f>
+        <v>53881</v>
+      </c>
+      <c r="Z80">
+        <f>SUM(Z10:Z79)</f>
+        <v>10273</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="0"/>
+        <v>14327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M81" s="8"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="M82" s="8"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3">
+        <v>3889</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3">
+        <v>35000</v>
+      </c>
+      <c r="L84" s="3">
+        <v>17500</v>
+      </c>
+      <c r="M84" s="7">
+        <v>8751</v>
+      </c>
+      <c r="N84" s="3">
+        <v>5833</v>
+      </c>
+      <c r="O84" s="3">
+        <v>12354</v>
+      </c>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="U84">
+        <v>11667</v>
+      </c>
+      <c r="W84">
+        <v>29170</v>
+      </c>
+      <c r="X84">
+        <v>5000</v>
+      </c>
+      <c r="Y84">
+        <v>46668</v>
+      </c>
+      <c r="Z84">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="3">
+        <v>4375</v>
+      </c>
+      <c r="M85" s="7">
+        <v>2917</v>
+      </c>
+      <c r="N85" s="3">
+        <v>5833</v>
+      </c>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="S85">
+        <v>6364</v>
+      </c>
+      <c r="U85">
+        <v>11667</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="3">
+        <v>40831</v>
+      </c>
+      <c r="I86" s="4"/>
+      <c r="J86" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K86" s="3">
+        <v>35000</v>
+      </c>
+      <c r="L86" s="3"/>
+      <c r="M86" s="7">
+        <v>5834</v>
+      </c>
+      <c r="N86" s="3">
+        <v>11666</v>
+      </c>
+      <c r="O86" s="3"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86">
+        <v>2917</v>
+      </c>
+      <c r="S86">
+        <v>3182</v>
+      </c>
+      <c r="T86">
+        <v>35000</v>
+      </c>
+      <c r="U86">
+        <v>11667</v>
+      </c>
+      <c r="Y86">
+        <v>35001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="3">
+        <v>1750</v>
+      </c>
+      <c r="F87" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="3">
+        <v>2692</v>
+      </c>
+      <c r="J87" s="4"/>
+      <c r="K87" s="3">
+        <v>8750</v>
+      </c>
+      <c r="L87" s="3">
+        <v>26250</v>
+      </c>
+      <c r="M87" s="7"/>
+      <c r="N87" s="3">
+        <v>11666</v>
+      </c>
+      <c r="O87" s="3">
+        <v>10295</v>
+      </c>
+      <c r="P87" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q87" s="4"/>
+      <c r="R87">
+        <v>20419</v>
+      </c>
+      <c r="S87">
+        <v>3182</v>
+      </c>
+      <c r="T87" s="3">
+        <v>43750</v>
+      </c>
+      <c r="U87" s="3">
+        <v>11667</v>
+      </c>
+      <c r="V87" s="3">
+        <v>35000</v>
+      </c>
+      <c r="Y87">
+        <v>93336</v>
+      </c>
+      <c r="Z87">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="3">
+        <v>8750</v>
+      </c>
+      <c r="L88" s="4"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="S88">
+        <v>6364</v>
+      </c>
+      <c r="T88">
+        <v>17500</v>
+      </c>
+      <c r="V88">
+        <v>17500</v>
+      </c>
+      <c r="X88">
+        <v>15000</v>
+      </c>
+      <c r="Y88">
+        <v>11667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="T89">
+        <v>8750</v>
+      </c>
+      <c r="V89">
+        <v>8750</v>
+      </c>
+      <c r="Y89">
+        <v>11667</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="E90">
+        <v>22750</v>
+      </c>
+      <c r="F90">
+        <v>28000</v>
+      </c>
+      <c r="G90">
+        <v>23334</v>
+      </c>
+      <c r="H90">
+        <v>52497</v>
+      </c>
+      <c r="I90">
+        <v>67300</v>
+      </c>
+      <c r="J90">
+        <v>15000</v>
+      </c>
+      <c r="K90" s="3">
+        <v>175000</v>
+      </c>
+      <c r="L90">
+        <v>96250</v>
+      </c>
+      <c r="M90" s="8">
+        <v>67091</v>
+      </c>
+      <c r="N90" s="3">
+        <v>104994</v>
+      </c>
+      <c r="O90">
+        <v>43239</v>
+      </c>
+      <c r="P90">
+        <v>21000</v>
+      </c>
+      <c r="Q90">
+        <v>3500</v>
+      </c>
+      <c r="R90">
+        <v>61257</v>
+      </c>
+      <c r="S90">
+        <v>63640</v>
+      </c>
+      <c r="T90">
+        <v>192500</v>
+      </c>
+      <c r="U90">
+        <v>186672</v>
+      </c>
+      <c r="V90">
+        <v>297500</v>
+      </c>
+      <c r="W90">
+        <v>49589</v>
+      </c>
+      <c r="X90">
+        <v>115000</v>
+      </c>
+      <c r="Y90">
+        <v>245007</v>
+      </c>
+      <c r="Z90">
+        <v>58340</v>
+      </c>
+      <c r="AA90">
+        <v>25663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M91" s="8"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="M92" s="8"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="M93" s="8"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="G94">
+        <v>3889</v>
+      </c>
+      <c r="M94" s="8"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="J95">
+        <v>12000</v>
+      </c>
+      <c r="K95">
+        <v>17500</v>
+      </c>
+      <c r="L95">
+        <v>4375</v>
+      </c>
+      <c r="M95" s="8"/>
+      <c r="N95">
+        <v>17499</v>
+      </c>
+      <c r="R95">
+        <v>20419</v>
+      </c>
+      <c r="U95">
+        <v>11667</v>
+      </c>
+      <c r="Z95">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="F96">
+        <v>3000</v>
+      </c>
+      <c r="J96">
+        <v>3000</v>
+      </c>
+      <c r="M96" s="8"/>
+      <c r="P96">
+        <v>1750</v>
+      </c>
+      <c r="Q96">
+        <v>80</v>
+      </c>
+      <c r="R96">
+        <v>43755</v>
+      </c>
+      <c r="S96">
+        <v>15910</v>
+      </c>
+      <c r="V96">
+        <v>8750</v>
+      </c>
+      <c r="X96">
+        <v>10000</v>
+      </c>
+      <c r="Z96">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+      <c r="E97">
+        <v>3500</v>
+      </c>
+      <c r="F97">
+        <v>3000</v>
+      </c>
+      <c r="G97">
+        <v>62224</v>
+      </c>
+      <c r="H97">
+        <v>40831</v>
+      </c>
+      <c r="I97">
+        <v>16152</v>
+      </c>
+      <c r="J97">
+        <v>30000</v>
+      </c>
+      <c r="K97">
+        <v>8750</v>
+      </c>
+      <c r="L97">
+        <v>48125</v>
+      </c>
+      <c r="M97" s="8">
+        <v>40838</v>
+      </c>
+      <c r="N97">
+        <v>145825</v>
+      </c>
+      <c r="O97">
+        <v>6177</v>
+      </c>
+      <c r="P97">
+        <v>7000</v>
+      </c>
+      <c r="Q97">
+        <v>5250</v>
+      </c>
+      <c r="S97">
+        <v>22274</v>
+      </c>
+      <c r="T97">
+        <v>8750</v>
+      </c>
+      <c r="U97">
+        <v>58335</v>
+      </c>
+      <c r="V97">
+        <v>306250</v>
+      </c>
+      <c r="W97">
+        <v>32087</v>
+      </c>
+      <c r="X97">
+        <v>60000</v>
+      </c>
+      <c r="Y97">
+        <v>58335</v>
+      </c>
+      <c r="Z97">
+        <v>20419</v>
+      </c>
+      <c r="AA97">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M98" s="8"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="M99" s="8"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="3">
+        <v>17499</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2692</v>
+      </c>
+      <c r="J100" s="4"/>
+      <c r="K100" s="3">
+        <v>17500</v>
+      </c>
+      <c r="L100" s="3">
+        <v>4375</v>
+      </c>
+      <c r="M100" s="7"/>
+      <c r="N100" s="3">
+        <v>11666</v>
+      </c>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="V100">
+        <v>17500</v>
+      </c>
+      <c r="X100">
+        <v>15000</v>
+      </c>
+      <c r="Y100">
+        <v>11667</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="3">
+        <v>40</v>
+      </c>
+      <c r="G101" s="4"/>
+      <c r="H101" s="3">
+        <v>11666</v>
+      </c>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="3">
+        <v>26250</v>
+      </c>
+      <c r="L101" s="3">
+        <v>8750</v>
+      </c>
+      <c r="M101" s="7">
+        <v>5834</v>
+      </c>
+      <c r="N101" s="3">
+        <v>5833</v>
+      </c>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="S101">
+        <v>3182</v>
+      </c>
+      <c r="T101">
+        <v>8750</v>
+      </c>
+      <c r="U101">
+        <v>11667</v>
+      </c>
+      <c r="V101">
+        <v>17500</v>
+      </c>
+      <c r="W101">
+        <v>32087</v>
+      </c>
+      <c r="X101">
+        <v>15000</v>
+      </c>
+      <c r="Y101">
+        <v>11667</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="3">
+        <v>7778</v>
+      </c>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="U102">
+        <v>11667</v>
+      </c>
+      <c r="Z102">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>87</v>
+      </c>
+      <c r="M103" s="8"/>
+      <c r="R103">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M104" s="8"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="M105" s="8"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>98</v>
+      </c>
+      <c r="G106">
+        <v>108</v>
+      </c>
+      <c r="H106">
+        <v>200</v>
+      </c>
+      <c r="I106">
+        <v>144</v>
+      </c>
+      <c r="K106">
+        <v>186</v>
+      </c>
+      <c r="M106" s="8"/>
+      <c r="N106">
+        <v>74</v>
+      </c>
+      <c r="O106">
+        <v>120</v>
+      </c>
+      <c r="X106">
+        <v>222</v>
+      </c>
+      <c r="Y106">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" s="4"/>
+      <c r="E107">
+        <v>40</v>
+      </c>
+      <c r="F107">
+        <v>800</v>
+      </c>
+      <c r="G107">
+        <v>810</v>
+      </c>
+      <c r="H107">
+        <v>200</v>
+      </c>
+      <c r="I107">
+        <v>576</v>
+      </c>
+      <c r="J107">
+        <v>288</v>
+      </c>
+      <c r="K107">
+        <v>186</v>
+      </c>
+      <c r="L107">
+        <v>288</v>
+      </c>
+      <c r="M107" s="8">
+        <v>1056</v>
+      </c>
+      <c r="N107">
+        <v>74</v>
+      </c>
+      <c r="O107">
+        <v>3200</v>
+      </c>
+      <c r="P107">
+        <v>200</v>
+      </c>
+      <c r="R107">
+        <v>1550</v>
+      </c>
+      <c r="S107">
+        <v>744</v>
+      </c>
+      <c r="T107">
+        <v>123</v>
+      </c>
+      <c r="V107">
+        <v>144</v>
+      </c>
+      <c r="X107">
+        <v>222</v>
+      </c>
+      <c r="Y107">
+        <v>222</v>
+      </c>
+      <c r="Z107">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>100</v>
+      </c>
+      <c r="E108">
+        <v>80</v>
+      </c>
+      <c r="F108">
+        <v>120</v>
+      </c>
+      <c r="G108">
+        <v>540</v>
+      </c>
+      <c r="H108">
+        <v>1200</v>
+      </c>
+      <c r="I108">
+        <v>144</v>
+      </c>
+      <c r="J108">
+        <v>288</v>
+      </c>
+      <c r="K108">
+        <v>806</v>
+      </c>
+      <c r="L108">
+        <v>576</v>
+      </c>
+      <c r="M108" s="8">
+        <v>240</v>
+      </c>
+      <c r="N108">
+        <v>740</v>
+      </c>
+      <c r="O108">
+        <v>320</v>
+      </c>
+      <c r="P108">
+        <v>80</v>
+      </c>
+      <c r="Q108">
+        <v>120</v>
+      </c>
+      <c r="R108">
+        <v>1550</v>
+      </c>
+      <c r="S108">
+        <v>620</v>
+      </c>
+      <c r="T108">
+        <v>287</v>
+      </c>
+      <c r="U108">
+        <v>864</v>
+      </c>
+      <c r="V108">
+        <v>288</v>
+      </c>
+      <c r="W108">
+        <v>2488</v>
+      </c>
+      <c r="X108">
+        <v>222</v>
+      </c>
+      <c r="Y108">
+        <v>3552</v>
+      </c>
+      <c r="Z108">
+        <v>720</v>
+      </c>
+      <c r="AA108">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>101</v>
+      </c>
+      <c r="H109">
+        <v>200</v>
+      </c>
+      <c r="I109">
+        <v>288</v>
+      </c>
+      <c r="K109">
+        <v>62</v>
+      </c>
+      <c r="M109" s="8"/>
+      <c r="N109">
+        <v>148</v>
+      </c>
+      <c r="O109">
+        <v>120</v>
+      </c>
+      <c r="Z109">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>102</v>
+      </c>
+      <c r="E110">
+        <v>120</v>
+      </c>
+      <c r="F110">
+        <v>680</v>
+      </c>
+      <c r="G110">
+        <v>594</v>
+      </c>
+      <c r="H110">
+        <v>1000</v>
+      </c>
+      <c r="I110">
+        <v>576</v>
+      </c>
+      <c r="J110">
+        <v>288</v>
+      </c>
+      <c r="K110">
+        <v>8140</v>
+      </c>
+      <c r="L110">
+        <v>1392</v>
+      </c>
+      <c r="M110" s="8">
+        <v>1344</v>
+      </c>
+      <c r="N110">
+        <v>3404</v>
+      </c>
+      <c r="O110">
+        <v>1960</v>
+      </c>
+      <c r="P110">
+        <v>280</v>
+      </c>
+      <c r="Q110">
+        <v>120</v>
+      </c>
+      <c r="R110">
+        <v>2976</v>
+      </c>
+      <c r="S110">
+        <v>806</v>
+      </c>
+      <c r="T110">
+        <v>615</v>
+      </c>
+      <c r="U110">
+        <v>6768</v>
+      </c>
+      <c r="V110">
+        <v>720</v>
+      </c>
+      <c r="W110">
+        <v>933</v>
+      </c>
+      <c r="X110">
+        <v>3108</v>
+      </c>
+      <c r="Y110">
+        <v>4329</v>
+      </c>
+      <c r="Z110">
+        <v>1680</v>
+      </c>
+      <c r="AA110">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>103</v>
+      </c>
+      <c r="E111">
+        <v>40</v>
+      </c>
+      <c r="F111">
+        <v>40</v>
+      </c>
+      <c r="H111">
+        <v>1600</v>
+      </c>
+      <c r="I111">
+        <v>1152</v>
+      </c>
+      <c r="L111">
+        <v>288</v>
+      </c>
+      <c r="M111" s="8"/>
+      <c r="N111">
+        <v>148</v>
+      </c>
+      <c r="P111">
+        <v>80</v>
+      </c>
+      <c r="S111">
+        <v>434</v>
+      </c>
+      <c r="T111">
+        <v>41</v>
+      </c>
+      <c r="U111">
+        <v>288</v>
+      </c>
+      <c r="V111">
+        <v>432</v>
+      </c>
+      <c r="W111">
+        <v>311</v>
+      </c>
+      <c r="X111">
+        <v>111</v>
+      </c>
+      <c r="Y111">
+        <v>111</v>
+      </c>
+      <c r="Z111">
+        <v>80</v>
+      </c>
+      <c r="AA111">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M112" s="8"/>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="4"/>
+      <c r="M113" s="8"/>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="E114">
+        <v>7000</v>
+      </c>
+      <c r="F114">
+        <v>61250</v>
+      </c>
+      <c r="G114">
+        <v>54446</v>
+      </c>
+      <c r="H114">
+        <v>93328</v>
+      </c>
+      <c r="I114">
+        <v>29612</v>
+      </c>
+      <c r="J114">
+        <v>3000</v>
+      </c>
+      <c r="K114">
+        <v>612500</v>
+      </c>
+      <c r="L114">
+        <v>170625</v>
+      </c>
+      <c r="M114" s="8">
+        <v>67091</v>
+      </c>
+      <c r="N114">
+        <v>186656</v>
+      </c>
+      <c r="O114">
+        <v>82360</v>
+      </c>
+      <c r="P114">
+        <v>47250</v>
+      </c>
+      <c r="Q114">
+        <v>8750</v>
+      </c>
+      <c r="R114">
+        <v>262530</v>
+      </c>
+      <c r="S114">
+        <v>35002</v>
+      </c>
+      <c r="T114">
+        <v>420000</v>
+      </c>
+      <c r="U114">
+        <v>175005</v>
+      </c>
+      <c r="V114">
+        <v>201250</v>
+      </c>
+      <c r="W114">
+        <v>8751</v>
+      </c>
+      <c r="X114">
+        <v>170000</v>
+      </c>
+      <c r="Y114">
+        <v>280008</v>
+      </c>
+      <c r="Z114">
+        <v>84593</v>
+      </c>
+      <c r="AA114">
+        <v>79322</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="H115">
+        <v>5833</v>
+      </c>
+      <c r="I115">
+        <v>2692</v>
+      </c>
+      <c r="J115">
+        <v>3000</v>
+      </c>
+      <c r="M115" s="8"/>
+      <c r="O115">
+        <v>2059</v>
+      </c>
+      <c r="T115">
+        <v>17500</v>
+      </c>
+      <c r="AA115">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="H116">
+        <v>5833</v>
+      </c>
+      <c r="M116" s="8">
+        <v>2917</v>
+      </c>
+      <c r="T116">
+        <v>8750</v>
+      </c>
+      <c r="U116">
+        <v>58335</v>
+      </c>
+      <c r="AA116">
+        <v>9332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="E117">
+        <v>80</v>
+      </c>
+      <c r="F117">
+        <v>33250</v>
+      </c>
+      <c r="G117">
+        <v>19445</v>
+      </c>
+      <c r="H117">
+        <v>116660</v>
+      </c>
+      <c r="I117">
+        <v>16152</v>
+      </c>
+      <c r="K117">
+        <v>367500</v>
+      </c>
+      <c r="L117">
+        <v>74375</v>
+      </c>
+      <c r="M117" s="8">
+        <v>72925</v>
+      </c>
+      <c r="N117">
+        <v>52497</v>
+      </c>
+      <c r="O117">
+        <v>53534</v>
+      </c>
+      <c r="P117">
+        <v>22750</v>
+      </c>
+      <c r="R117">
+        <v>70000</v>
+      </c>
+      <c r="S117">
+        <v>35002</v>
+      </c>
+      <c r="T117">
+        <v>78750</v>
+      </c>
+      <c r="U117">
+        <v>443346</v>
+      </c>
+      <c r="V117">
+        <v>78750</v>
+      </c>
+      <c r="W117">
+        <v>14585</v>
+      </c>
+      <c r="X117">
+        <v>155000</v>
+      </c>
+      <c r="Y117">
+        <v>280008</v>
+      </c>
+      <c r="Z117">
+        <v>11668</v>
+      </c>
+      <c r="AA117">
+        <v>18664</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="M118" s="8"/>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="M119" s="8"/>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="M120" s="8"/>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="4"/>
+      <c r="M121" s="8"/>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="3">
+        <v>23332</v>
+      </c>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="3">
+        <v>8750</v>
+      </c>
+      <c r="L122" s="4"/>
+      <c r="M122" s="7">
+        <v>48</v>
+      </c>
+      <c r="N122" s="3">
+        <v>11666</v>
+      </c>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="U122">
+        <v>576</v>
+      </c>
+      <c r="W122">
+        <v>5834</v>
+      </c>
+      <c r="X122">
+        <v>222</v>
+      </c>
+      <c r="Z122">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="L123">
+        <v>96</v>
+      </c>
+      <c r="M123" s="8">
+        <v>48</v>
+      </c>
+      <c r="N123">
+        <v>74</v>
+      </c>
+      <c r="X123">
+        <v>111</v>
+      </c>
+      <c r="Y123">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="M124" s="8"/>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="F125">
+        <v>240</v>
+      </c>
+      <c r="H125">
+        <v>800</v>
+      </c>
+      <c r="I125">
+        <v>1008</v>
+      </c>
+      <c r="J125">
+        <v>144</v>
+      </c>
+      <c r="K125">
+        <v>186</v>
+      </c>
+      <c r="L125">
+        <v>1056</v>
+      </c>
+      <c r="M125" s="8">
+        <v>288</v>
+      </c>
+      <c r="N125">
+        <v>296</v>
+      </c>
+      <c r="O125">
+        <v>200</v>
+      </c>
+      <c r="P125">
+        <v>40</v>
+      </c>
+      <c r="Q125">
+        <v>40</v>
+      </c>
+      <c r="R125">
+        <v>62</v>
+      </c>
+      <c r="S125">
+        <v>62</v>
+      </c>
+      <c r="T125">
+        <v>205</v>
+      </c>
+      <c r="X125">
+        <v>222</v>
+      </c>
+      <c r="Y125">
+        <v>2442</v>
+      </c>
+      <c r="Z125">
+        <v>120</v>
+      </c>
+      <c r="AA125">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B126" s="4"/>
+      <c r="G126">
+        <v>54</v>
+      </c>
+      <c r="H126">
+        <v>400</v>
+      </c>
+      <c r="I126">
+        <v>144</v>
+      </c>
+      <c r="K126">
+        <v>310</v>
+      </c>
+      <c r="L126">
+        <v>336</v>
+      </c>
+      <c r="M126" s="8">
+        <v>624</v>
+      </c>
+      <c r="N126">
+        <v>148</v>
+      </c>
+      <c r="P126">
+        <v>40</v>
+      </c>
+      <c r="S126">
+        <v>372</v>
+      </c>
+      <c r="V126">
+        <v>144</v>
+      </c>
+      <c r="X126">
+        <v>2220</v>
+      </c>
+      <c r="Y126">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="S127">
+        <v>3182</v>
+      </c>
+      <c r="V127">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+      <c r="S128">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M129" s="8"/>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="4"/>
+      <c r="M130" s="8"/>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="L131">
+        <v>48</v>
+      </c>
+      <c r="M131" s="8">
+        <v>48</v>
+      </c>
+      <c r="Y131">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="M132" s="8"/>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="I133">
+        <v>144</v>
+      </c>
+      <c r="M133" s="8"/>
+      <c r="Z133">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="I134">
+        <v>432</v>
+      </c>
+      <c r="J134">
+        <v>432</v>
+      </c>
+      <c r="L134">
+        <v>144</v>
+      </c>
+      <c r="M134" s="8"/>
+      <c r="O134">
+        <v>120</v>
+      </c>
+      <c r="P134">
+        <v>40</v>
+      </c>
+      <c r="X134">
+        <v>111</v>
+      </c>
+      <c r="Y134">
+        <v>333</v>
+      </c>
+      <c r="Z134">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="L135">
+        <v>48</v>
+      </c>
+      <c r="M135" s="8"/>
+      <c r="W135">
+        <v>311</v>
+      </c>
+      <c r="Y135">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="I136">
+        <v>144</v>
+      </c>
+      <c r="L136">
+        <v>48</v>
+      </c>
+      <c r="M136" s="8"/>
+      <c r="P136">
+        <v>40</v>
+      </c>
+      <c r="W136">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="I137">
+        <v>288</v>
+      </c>
+      <c r="K137">
+        <v>62</v>
+      </c>
+      <c r="L137">
+        <v>48</v>
+      </c>
+      <c r="M137" s="8"/>
+      <c r="S137">
+        <v>124</v>
+      </c>
+      <c r="W137">
+        <v>622</v>
+      </c>
+      <c r="Y137">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="J138">
+        <v>144</v>
+      </c>
+      <c r="M138" s="8"/>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="I139">
+        <v>144</v>
+      </c>
+      <c r="M139" s="8"/>
+      <c r="X139">
+        <v>111</v>
+      </c>
+      <c r="Z139">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="I140">
+        <v>144</v>
+      </c>
+      <c r="M140" s="8"/>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="J141">
+        <v>144</v>
+      </c>
+      <c r="M141" s="8"/>
+      <c r="O141">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="K142">
+        <v>62</v>
+      </c>
+      <c r="L142">
+        <v>48</v>
+      </c>
+      <c r="M142" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="E143">
+        <v>40</v>
+      </c>
+      <c r="F143">
+        <v>200</v>
+      </c>
+      <c r="G143">
+        <v>324</v>
+      </c>
+      <c r="H143">
+        <v>800</v>
+      </c>
+      <c r="I143">
+        <v>864</v>
+      </c>
+      <c r="K143">
+        <v>186</v>
+      </c>
+      <c r="L143">
+        <v>816</v>
+      </c>
+      <c r="M143" s="8">
+        <v>336</v>
+      </c>
+      <c r="N143">
+        <v>1480</v>
+      </c>
+      <c r="O143">
+        <v>160</v>
+      </c>
+      <c r="P143">
+        <v>120</v>
+      </c>
+      <c r="R143">
+        <v>372</v>
+      </c>
+      <c r="S143">
+        <v>868</v>
+      </c>
+      <c r="U143">
+        <v>864</v>
+      </c>
+      <c r="V143">
+        <v>432</v>
+      </c>
+      <c r="X143">
+        <v>555</v>
+      </c>
+      <c r="Y143">
+        <v>3552</v>
+      </c>
+      <c r="Z143">
+        <v>600</v>
+      </c>
+      <c r="AA143">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="F144">
+        <v>160</v>
+      </c>
+      <c r="G144">
+        <v>270</v>
+      </c>
+      <c r="H144">
+        <v>1200</v>
+      </c>
+      <c r="J144">
+        <v>288</v>
+      </c>
+      <c r="K144">
+        <v>248</v>
+      </c>
+      <c r="L144">
+        <v>768</v>
+      </c>
+      <c r="M144" s="8">
+        <v>96</v>
+      </c>
+      <c r="N144">
+        <v>444</v>
+      </c>
+      <c r="O144">
+        <v>200</v>
+      </c>
+      <c r="Q144">
+        <v>40</v>
+      </c>
+      <c r="R144">
+        <v>806</v>
+      </c>
+      <c r="S144">
+        <v>124</v>
+      </c>
+      <c r="T144">
+        <v>41</v>
+      </c>
+      <c r="U144">
+        <v>288</v>
+      </c>
+      <c r="W144">
+        <v>311</v>
+      </c>
+      <c r="X144">
+        <v>222</v>
+      </c>
+      <c r="Z144">
+        <v>120</v>
+      </c>
+      <c r="AA144">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="I145">
+        <v>144</v>
+      </c>
+      <c r="L145">
+        <v>48</v>
+      </c>
+      <c r="M145" s="8"/>
+      <c r="O145">
+        <v>40</v>
+      </c>
+      <c r="S145">
+        <v>124</v>
+      </c>
+      <c r="V145">
+        <v>288</v>
+      </c>
+      <c r="W145">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A146" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="F146">
+        <v>40</v>
+      </c>
+      <c r="G146">
+        <v>162</v>
+      </c>
+      <c r="I146">
+        <v>144</v>
+      </c>
+      <c r="J146">
+        <v>432</v>
+      </c>
+      <c r="K146">
+        <v>372</v>
+      </c>
+      <c r="L146">
+        <v>144</v>
+      </c>
+      <c r="M146" s="8">
+        <v>96</v>
+      </c>
+      <c r="N146">
+        <v>74</v>
+      </c>
+      <c r="O146">
+        <v>40</v>
+      </c>
+      <c r="S146">
+        <v>62</v>
+      </c>
+      <c r="T146">
+        <v>82</v>
+      </c>
+      <c r="V146">
+        <v>432</v>
+      </c>
+      <c r="W146">
+        <v>1244</v>
+      </c>
+      <c r="X146">
+        <v>222</v>
+      </c>
+      <c r="Y146">
+        <v>2109</v>
+      </c>
+      <c r="Z146">
+        <v>2917</v>
+      </c>
+      <c r="AA146">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A147" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="M147" s="8"/>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="G148">
+        <v>54</v>
+      </c>
+      <c r="M148" s="8"/>
+      <c r="Y148">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A149" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="K149">
+        <v>62</v>
+      </c>
+      <c r="M149" s="8"/>
+      <c r="Y149">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A150" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="M150" s="8"/>
+      <c r="O150">
+        <v>400</v>
+      </c>
+      <c r="Y150">
+        <v>222</v>
+      </c>
+      <c r="Z150">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A151" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="M151" s="8">
+        <v>2304</v>
+      </c>
+      <c r="X151">
+        <v>888</v>
+      </c>
+      <c r="Y151">
+        <v>1998</v>
+      </c>
+      <c r="Z151">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A152" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="M152" s="8"/>
+      <c r="Y152">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A153" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="M153" s="8"/>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A154" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="M154" s="8"/>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A155" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="M155" s="8"/>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A156" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="H156">
+        <v>400</v>
+      </c>
+      <c r="I156">
+        <v>288</v>
+      </c>
+      <c r="J156">
+        <v>432</v>
+      </c>
+      <c r="K156">
+        <v>310</v>
+      </c>
+      <c r="L156">
+        <v>576</v>
+      </c>
+      <c r="M156" s="8"/>
+      <c r="S156">
+        <v>62</v>
+      </c>
+      <c r="U156">
+        <v>144</v>
+      </c>
+      <c r="V156">
+        <v>144</v>
+      </c>
+      <c r="Y156">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A157" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="H157">
+        <v>600</v>
+      </c>
+      <c r="I157">
+        <v>576</v>
+      </c>
+      <c r="K157">
+        <v>62</v>
+      </c>
+      <c r="L157">
+        <v>48</v>
+      </c>
+      <c r="M157" s="8"/>
+      <c r="N157">
+        <v>74</v>
+      </c>
+      <c r="S157">
+        <v>248</v>
+      </c>
+      <c r="W157">
+        <v>622</v>
+      </c>
+      <c r="Y157">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A158" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="J158">
+        <v>144</v>
+      </c>
+      <c r="M158" s="8"/>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A159" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="H159">
+        <v>400</v>
+      </c>
+      <c r="I159">
+        <v>576</v>
+      </c>
+      <c r="K159">
+        <v>310</v>
+      </c>
+      <c r="L159">
+        <v>48</v>
+      </c>
+      <c r="M159" s="8"/>
+      <c r="N159">
+        <v>74</v>
+      </c>
+      <c r="S159">
+        <v>434</v>
+      </c>
+      <c r="T159">
+        <v>41</v>
+      </c>
+      <c r="V159">
+        <v>1008</v>
+      </c>
+      <c r="W159">
+        <v>311</v>
+      </c>
+      <c r="Y159">
+        <v>333</v>
+      </c>
+      <c r="Z159">
+        <v>80</v>
+      </c>
+      <c r="AA159">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A160" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="G160">
+        <v>216</v>
+      </c>
+      <c r="H160">
+        <v>1000</v>
+      </c>
+      <c r="I160">
+        <v>288</v>
+      </c>
+      <c r="J160">
+        <v>144</v>
+      </c>
+      <c r="K160">
+        <v>248</v>
+      </c>
+      <c r="M160" s="8"/>
+      <c r="N160">
+        <v>74</v>
+      </c>
+      <c r="O160">
+        <v>40</v>
+      </c>
+      <c r="P160">
+        <v>1750</v>
+      </c>
+      <c r="S160">
+        <v>372</v>
+      </c>
+      <c r="Y160">
+        <v>666</v>
+      </c>
+      <c r="AA160">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A161" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B161" s="4"/>
+      <c r="H161">
+        <v>400</v>
+      </c>
+      <c r="K161">
+        <v>248</v>
+      </c>
+      <c r="L161">
+        <v>144</v>
+      </c>
+      <c r="M161" s="8"/>
+      <c r="S161">
+        <v>124</v>
+      </c>
+      <c r="U161">
+        <v>144</v>
+      </c>
+      <c r="V161">
+        <v>576</v>
+      </c>
+      <c r="W161">
+        <v>1866</v>
+      </c>
+      <c r="X161">
+        <v>222</v>
+      </c>
+      <c r="Y161">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>87</v>
+      </c>
+      <c r="G162">
+        <v>378</v>
+      </c>
+      <c r="H162">
+        <v>400</v>
+      </c>
+      <c r="I162">
+        <v>432</v>
+      </c>
+      <c r="J162">
+        <v>144</v>
+      </c>
+      <c r="K162">
+        <v>62</v>
+      </c>
+      <c r="L162">
+        <v>96</v>
+      </c>
+      <c r="M162" s="8">
+        <v>240</v>
+      </c>
+      <c r="O162">
+        <v>80</v>
+      </c>
+      <c r="S162">
+        <v>62</v>
+      </c>
+      <c r="T162">
+        <v>41</v>
+      </c>
+      <c r="U162">
+        <v>1296</v>
+      </c>
+      <c r="V162">
+        <v>144</v>
+      </c>
+      <c r="W162">
+        <v>311</v>
+      </c>
+      <c r="X162">
+        <v>222</v>
+      </c>
+      <c r="Y162">
+        <v>1887</v>
+      </c>
+      <c r="Z162">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>152</v>
+      </c>
+      <c r="F163">
+        <v>10500</v>
+      </c>
+      <c r="G163">
+        <v>7778</v>
+      </c>
+      <c r="H163">
+        <v>29165</v>
+      </c>
+      <c r="I163">
+        <v>10768</v>
+      </c>
+      <c r="J163">
+        <v>6000</v>
+      </c>
+      <c r="K163">
+        <v>43750</v>
+      </c>
+      <c r="L163">
+        <v>43750</v>
+      </c>
+      <c r="M163" s="8">
+        <v>14585</v>
+      </c>
+      <c r="N163">
+        <v>23332</v>
+      </c>
+      <c r="O163">
+        <v>4118</v>
+      </c>
+      <c r="P163">
+        <v>5250</v>
+      </c>
+      <c r="R163">
+        <v>2917</v>
+      </c>
+      <c r="S163">
+        <v>31820</v>
+      </c>
+      <c r="V163">
+        <v>17500</v>
+      </c>
+      <c r="W163">
+        <v>20419</v>
+      </c>
+      <c r="X163">
+        <v>30000</v>
+      </c>
+      <c r="Y163">
+        <v>23334</v>
+      </c>
+      <c r="Z163">
+        <v>5833</v>
+      </c>
+      <c r="AA163">
+        <v>6999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M164" s="8"/>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M165" s="8"/>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E166">
+        <v>40</v>
+      </c>
+      <c r="G166">
+        <v>756</v>
+      </c>
+      <c r="H166">
+        <v>200</v>
+      </c>
+      <c r="I166">
+        <v>576</v>
+      </c>
+      <c r="K166">
+        <v>124</v>
+      </c>
+      <c r="L166">
+        <v>1008</v>
+      </c>
+      <c r="M166" s="8">
+        <v>144</v>
+      </c>
+      <c r="O166">
+        <v>40</v>
+      </c>
+      <c r="P166">
+        <v>80</v>
+      </c>
+      <c r="R166">
+        <v>124</v>
+      </c>
+      <c r="S166">
+        <v>62</v>
+      </c>
+      <c r="T166">
+        <v>2870</v>
+      </c>
+      <c r="U166">
+        <v>288</v>
+      </c>
+      <c r="W166">
+        <v>311</v>
+      </c>
+      <c r="X166">
+        <v>333</v>
+      </c>
+      <c r="Y166">
+        <v>777</v>
+      </c>
+      <c r="Z166">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M167" s="8"/>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" s="4"/>
+      <c r="M168" s="8"/>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A169" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="I169">
+        <v>144</v>
+      </c>
+      <c r="M169" s="8"/>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B170" s="4"/>
+      <c r="H170">
+        <v>2800</v>
+      </c>
+      <c r="K170">
+        <v>496</v>
+      </c>
+      <c r="L170">
+        <v>1056</v>
+      </c>
+      <c r="M170" s="8">
+        <v>2917</v>
+      </c>
+      <c r="N170">
+        <v>888</v>
+      </c>
+      <c r="O170">
+        <v>40</v>
+      </c>
+      <c r="S170">
+        <v>124</v>
+      </c>
+      <c r="T170">
+        <v>820</v>
+      </c>
+      <c r="U170">
+        <v>2736</v>
+      </c>
+      <c r="V170">
+        <v>144</v>
+      </c>
+      <c r="X170">
+        <v>2442</v>
+      </c>
+      <c r="Y170">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M171" s="8"/>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="4"/>
+      <c r="M172" s="8"/>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A173" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="M173" s="8"/>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A174" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="G174">
+        <v>7778</v>
+      </c>
+      <c r="H174">
+        <v>11666</v>
+      </c>
+      <c r="I174">
+        <v>13460</v>
+      </c>
+      <c r="M174" s="8"/>
+      <c r="N174">
+        <v>11666</v>
+      </c>
+      <c r="S174">
+        <v>6364</v>
+      </c>
+      <c r="T174">
+        <v>8750</v>
+      </c>
+      <c r="U174">
+        <v>35001</v>
+      </c>
+      <c r="Z174">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A175" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="E175">
+        <v>40</v>
+      </c>
+      <c r="M175" s="8"/>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A176" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="M176" s="8"/>
+      <c r="S176">
+        <v>3182</v>
+      </c>
+      <c r="W176">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A177" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="E177">
+        <v>1750</v>
+      </c>
+      <c r="M177" s="8"/>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A178" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="E178">
+        <v>40</v>
+      </c>
+      <c r="I178">
+        <v>2692</v>
+      </c>
+      <c r="J178">
+        <v>3000</v>
+      </c>
+      <c r="K178">
+        <v>17500</v>
+      </c>
+      <c r="M178" s="8"/>
+      <c r="N178">
+        <v>5833</v>
+      </c>
+      <c r="O178">
+        <v>4118</v>
+      </c>
+      <c r="T178">
+        <v>8750</v>
+      </c>
+      <c r="Y178">
+        <v>11667</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B179" s="3"/>
+      <c r="H179">
+        <v>11666</v>
+      </c>
+      <c r="I179">
+        <v>10768</v>
+      </c>
+      <c r="J179">
+        <v>3000</v>
+      </c>
+      <c r="K179">
+        <v>26250</v>
+      </c>
+      <c r="M179" s="8"/>
+      <c r="N179">
+        <v>5833</v>
+      </c>
+      <c r="O179">
+        <v>2059</v>
+      </c>
+      <c r="P179">
+        <v>1750</v>
+      </c>
+      <c r="S179">
+        <v>3182</v>
+      </c>
+      <c r="U179">
+        <v>35001</v>
+      </c>
+      <c r="Z179">
+        <v>5833</v>
+      </c>
+      <c r="AA179">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M180" s="8"/>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M181" s="8"/>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M182" s="8"/>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>166</v>
+      </c>
+      <c r="I183">
+        <v>144</v>
+      </c>
+      <c r="M183" s="8"/>
+      <c r="W183">
+        <v>311</v>
+      </c>
+      <c r="Z183">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>167</v>
+      </c>
+      <c r="M184" s="8"/>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>168</v>
+      </c>
+      <c r="L185">
+        <v>48</v>
+      </c>
+      <c r="M185" s="8"/>
+      <c r="P185">
+        <v>40</v>
+      </c>
+      <c r="R185">
+        <v>62</v>
+      </c>
+      <c r="W185">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>169</v>
+      </c>
+      <c r="H186">
+        <v>200</v>
+      </c>
+      <c r="I186">
+        <v>144</v>
+      </c>
+      <c r="K186">
+        <v>124</v>
+      </c>
+      <c r="M186" s="8"/>
+      <c r="P186">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>170</v>
+      </c>
+      <c r="E187">
+        <v>80</v>
+      </c>
+      <c r="G187">
+        <v>216</v>
+      </c>
+      <c r="H187">
+        <v>200</v>
+      </c>
+      <c r="I187">
+        <v>576</v>
+      </c>
+      <c r="J187">
+        <v>144</v>
+      </c>
+      <c r="K187">
+        <v>62</v>
+      </c>
+      <c r="L187">
+        <v>336</v>
+      </c>
+      <c r="M187" s="8">
+        <v>144</v>
+      </c>
+      <c r="N187">
+        <v>222</v>
+      </c>
+      <c r="O187">
+        <v>160</v>
+      </c>
+      <c r="P187">
+        <v>40</v>
+      </c>
+      <c r="R187">
+        <v>124</v>
+      </c>
+      <c r="S187">
+        <v>620</v>
+      </c>
+      <c r="T187">
+        <v>492</v>
+      </c>
+      <c r="U187">
+        <v>144</v>
+      </c>
+      <c r="W187">
+        <v>1244</v>
+      </c>
+      <c r="X187">
+        <v>111</v>
+      </c>
+      <c r="Y187">
+        <v>222</v>
+      </c>
+      <c r="Z187">
+        <v>40</v>
+      </c>
+      <c r="AA187">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>171</v>
+      </c>
+      <c r="G188">
+        <v>432</v>
+      </c>
+      <c r="M188" s="8"/>
+      <c r="R188">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M189" s="8"/>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M190" s="8"/>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>173</v>
+      </c>
+      <c r="M191" s="8"/>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>174</v>
+      </c>
+      <c r="L192">
+        <v>48</v>
+      </c>
+      <c r="M192" s="8"/>
+      <c r="O192">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M193" s="8"/>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C194" s="4"/>
+      <c r="M194" s="8"/>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A195" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
+      <c r="K195" s="4"/>
+      <c r="L195" s="4"/>
+      <c r="M195" s="9"/>
+      <c r="N195" s="4"/>
+      <c r="O195" s="4"/>
+      <c r="P195" s="4"/>
+      <c r="Q195" s="4"/>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A196" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="3">
+        <v>68250</v>
+      </c>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3">
+        <v>2448</v>
+      </c>
+      <c r="J196" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K196" s="3">
+        <v>43750</v>
+      </c>
+      <c r="L196" s="3"/>
+      <c r="M196" s="7"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3">
+        <v>2059</v>
+      </c>
+      <c r="P196" s="4"/>
+      <c r="Q196" s="4"/>
+      <c r="U196">
+        <v>210006</v>
+      </c>
+      <c r="V196">
+        <v>8750</v>
+      </c>
+      <c r="Y196">
+        <v>11667</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A197" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="3">
+        <v>1750</v>
+      </c>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3">
+        <v>50557</v>
+      </c>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3">
+        <v>140000</v>
+      </c>
+      <c r="M197" s="7"/>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="4"/>
+      <c r="Q197" s="4"/>
+      <c r="U197">
+        <v>14688</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M198" s="8"/>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B199" s="2"/>
+      <c r="C199" s="4"/>
+      <c r="M199" s="8"/>
+      <c r="Y199">
+        <v>361677</v>
+      </c>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B200" s="3"/>
+      <c r="C200" s="4"/>
+      <c r="M200" s="8"/>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A201" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B201" s="4"/>
+      <c r="M201" s="8">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B202" s="3"/>
+      <c r="M202" s="8"/>
+      <c r="AA202">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M203" s="8"/>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>181</v>
+      </c>
+      <c r="E204">
+        <v>73500</v>
+      </c>
+      <c r="F204">
+        <v>196000</v>
+      </c>
+      <c r="G204">
+        <v>369475</v>
+      </c>
+      <c r="H204">
+        <v>355813</v>
+      </c>
+      <c r="I204">
+        <v>236896</v>
+      </c>
+      <c r="J204">
+        <v>165000</v>
+      </c>
+      <c r="K204">
+        <v>455000</v>
+      </c>
+      <c r="L204">
+        <v>380625</v>
+      </c>
+      <c r="M204" s="8">
+        <v>317953</v>
+      </c>
+      <c r="N204">
+        <v>431642</v>
+      </c>
+      <c r="O204">
+        <v>137953</v>
+      </c>
+      <c r="P204">
+        <v>204750</v>
+      </c>
+      <c r="Q204">
+        <v>56000</v>
+      </c>
+      <c r="R204">
+        <v>274198</v>
+      </c>
+      <c r="S204">
+        <v>187738</v>
+      </c>
+      <c r="T204">
+        <v>945000</v>
+      </c>
+      <c r="U204">
+        <v>256674</v>
+      </c>
+      <c r="V204">
+        <v>787500</v>
+      </c>
+      <c r="W204">
+        <v>262530</v>
+      </c>
+      <c r="X204">
+        <v>520000</v>
+      </c>
+      <c r="Y204">
+        <v>723354</v>
+      </c>
+      <c r="Z204">
+        <v>259613</v>
+      </c>
+      <c r="AA204">
+        <v>314955</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M205" s="8"/>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>182</v>
+      </c>
+      <c r="F206">
+        <v>3000</v>
+      </c>
+      <c r="J206">
+        <v>3000</v>
+      </c>
+      <c r="M206" s="8"/>
+      <c r="O206">
+        <v>2059</v>
+      </c>
+      <c r="P206">
+        <v>29750</v>
+      </c>
+      <c r="Q206">
+        <v>10500</v>
+      </c>
+      <c r="S206">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M207" s="8"/>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>183</v>
+      </c>
+      <c r="F208">
+        <v>200</v>
+      </c>
+      <c r="M208" s="8">
+        <v>96</v>
+      </c>
+      <c r="N208">
+        <v>148</v>
+      </c>
+      <c r="O208">
+        <v>200</v>
+      </c>
+      <c r="R208">
+        <v>186</v>
+      </c>
+      <c r="S208">
+        <v>62</v>
+      </c>
+      <c r="X208">
+        <v>333</v>
+      </c>
+      <c r="Y208">
+        <v>222</v>
+      </c>
+      <c r="Z208">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M209" s="8"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>184</v>
+      </c>
+      <c r="M210" s="8"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827260BF-C149-49A1-BC8C-BEAD1D8F5F83}">
+  <dimension ref="A1:G217"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>2880</v>
+      </c>
+      <c r="G5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>17500</v>
+      </c>
+      <c r="F6">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10">
+        <v>6531</v>
+      </c>
+      <c r="F10">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>11196</v>
+      </c>
+      <c r="F12">
+        <v>31200</v>
+      </c>
+      <c r="G12">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>1244</v>
+      </c>
+      <c r="G17">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>622</v>
+      </c>
+      <c r="F18">
+        <v>21456</v>
+      </c>
+      <c r="G18">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>1555</v>
+      </c>
+      <c r="F20">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24">
+        <v>6336</v>
+      </c>
+      <c r="G24">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>1152</v>
+      </c>
+      <c r="G28">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>622</v>
+      </c>
+      <c r="F30">
+        <v>720</v>
+      </c>
+      <c r="G30">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32">
+        <v>2177</v>
+      </c>
+      <c r="F32">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>3110</v>
+      </c>
+      <c r="F33">
+        <v>864</v>
+      </c>
+      <c r="G33">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <v>5833</v>
+      </c>
+      <c r="F38">
+        <v>26250</v>
+      </c>
+      <c r="G38">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42">
+        <v>933</v>
+      </c>
+      <c r="F42">
+        <v>3456</v>
+      </c>
+      <c r="G42">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>2799</v>
+      </c>
+      <c r="F43">
+        <v>432</v>
+      </c>
+      <c r="G43">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52">
+        <v>9019</v>
+      </c>
+      <c r="F52">
+        <v>288</v>
+      </c>
+      <c r="G52">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55">
+        <v>3732</v>
+      </c>
+      <c r="F55">
+        <v>1872</v>
+      </c>
+      <c r="G55">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63">
+        <v>311</v>
+      </c>
+      <c r="F63">
+        <v>5472</v>
+      </c>
+      <c r="G63">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64">
+        <v>1555</v>
+      </c>
+      <c r="F64">
+        <v>20160</v>
+      </c>
+      <c r="G64">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65">
+        <v>5287</v>
+      </c>
+      <c r="F65">
+        <v>3744</v>
+      </c>
+      <c r="G65">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66">
+        <v>864</v>
+      </c>
+      <c r="G66">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68">
+        <v>133792</v>
+      </c>
+      <c r="F68">
+        <v>390000</v>
+      </c>
+      <c r="G68">
+        <v>169312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69">
+        <v>2020000</v>
+      </c>
+      <c r="F69">
+        <v>272000</v>
+      </c>
+      <c r="G69">
+        <v>191000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73">
+        <v>8397</v>
+      </c>
+      <c r="F73">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75">
+        <v>1152</v>
+      </c>
+      <c r="G75">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77">
+        <v>1555</v>
+      </c>
+      <c r="F77">
+        <v>1872</v>
+      </c>
+      <c r="G77">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78">
+        <v>4665</v>
+      </c>
+      <c r="F78">
+        <v>24400</v>
+      </c>
+      <c r="G78">
+        <v>11303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E80">
+        <v>1866</v>
+      </c>
+      <c r="F80">
+        <v>864</v>
+      </c>
+      <c r="G80">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81">
+        <v>11666</v>
+      </c>
+      <c r="F81">
+        <v>43750</v>
+      </c>
+      <c r="G81">
+        <v>30625</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82">
+        <v>1244</v>
+      </c>
+      <c r="F82">
+        <v>2016</v>
+      </c>
+      <c r="G82">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83">
+        <v>11666</v>
+      </c>
+      <c r="F83">
+        <v>35000</v>
+      </c>
+      <c r="G83">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85">
+        <f>SUM(E3:E84)</f>
+        <v>2270743</v>
+      </c>
+      <c r="F85">
+        <f>SUM(F3:F84)</f>
+        <v>931926</v>
+      </c>
+      <c r="G85">
+        <f>SUM(G3:G84)</f>
+        <v>437704</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G89">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>83</v>
+      </c>
+      <c r="E91">
+        <v>5833</v>
+      </c>
+      <c r="F91">
+        <v>8750</v>
+      </c>
+      <c r="G91">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92">
+        <v>11666</v>
+      </c>
+      <c r="F92">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>86</v>
+      </c>
+      <c r="E94">
+        <v>5833</v>
+      </c>
+      <c r="G94">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>87</v>
+      </c>
+      <c r="E95">
+        <v>75829</v>
+      </c>
+      <c r="F95">
+        <v>192500</v>
+      </c>
+      <c r="G95">
+        <v>100625</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100">
+        <v>17500</v>
+      </c>
+      <c r="G100">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>92</v>
+      </c>
+      <c r="F101">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>87</v>
+      </c>
+      <c r="E102">
+        <v>29165</v>
+      </c>
+      <c r="F102">
+        <v>402500</v>
+      </c>
+      <c r="G102">
+        <v>21875</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>94</v>
+      </c>
+      <c r="G105">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>205</v>
+      </c>
+      <c r="F106">
+        <v>8750</v>
+      </c>
+      <c r="G106">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E111">
+        <v>622</v>
+      </c>
+      <c r="F111">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>99</v>
+      </c>
+      <c r="E112">
+        <v>311</v>
+      </c>
+      <c r="F112">
+        <v>1296</v>
+      </c>
+      <c r="G112">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>100</v>
+      </c>
+      <c r="E113">
+        <v>1555</v>
+      </c>
+      <c r="F113">
+        <v>1008</v>
+      </c>
+      <c r="G113">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>102</v>
+      </c>
+      <c r="E115">
+        <v>1866</v>
+      </c>
+      <c r="F115">
+        <v>1296</v>
+      </c>
+      <c r="G115">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>103</v>
+      </c>
+      <c r="E116">
+        <v>311</v>
+      </c>
+      <c r="F116">
+        <v>144</v>
+      </c>
+      <c r="G116">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>105</v>
+      </c>
+      <c r="E119">
+        <v>507471</v>
+      </c>
+      <c r="F119">
+        <v>131250</v>
+      </c>
+      <c r="G119">
+        <v>214375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>106</v>
+      </c>
+      <c r="G120">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>107</v>
+      </c>
+      <c r="G121">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>108</v>
+      </c>
+      <c r="E122">
+        <v>373312</v>
+      </c>
+      <c r="F122">
+        <v>122500</v>
+      </c>
+      <c r="G122">
+        <v>196875</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>111</v>
+      </c>
+      <c r="G127">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>114</v>
+      </c>
+      <c r="E130">
+        <v>2488</v>
+      </c>
+      <c r="F130">
+        <v>288</v>
+      </c>
+      <c r="G130">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>115</v>
+      </c>
+      <c r="F131">
+        <v>144</v>
+      </c>
+      <c r="G131">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>123</v>
+      </c>
+      <c r="G140">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>208</v>
+      </c>
+      <c r="G144">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>259</v>
+      </c>
+      <c r="E145">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>127</v>
+      </c>
+      <c r="E146">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>132</v>
+      </c>
+      <c r="E151">
+        <v>311</v>
+      </c>
+      <c r="F151">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>133</v>
+      </c>
+      <c r="E152">
+        <v>1244</v>
+      </c>
+      <c r="F152">
+        <v>576</v>
+      </c>
+      <c r="G152">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>134</v>
+      </c>
+      <c r="E153">
+        <v>1866</v>
+      </c>
+      <c r="F153">
+        <v>144</v>
+      </c>
+      <c r="G153">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>136</v>
+      </c>
+      <c r="F155">
+        <v>26250</v>
+      </c>
+      <c r="G155">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>146</v>
+      </c>
+      <c r="G165">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>147</v>
+      </c>
+      <c r="F166">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>149</v>
+      </c>
+      <c r="E168">
+        <v>622</v>
+      </c>
+      <c r="F168">
+        <v>288</v>
+      </c>
+      <c r="G168">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>150</v>
+      </c>
+      <c r="F169">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>151</v>
+      </c>
+      <c r="F170">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>87</v>
+      </c>
+      <c r="E171">
+        <v>2488</v>
+      </c>
+      <c r="F171">
+        <v>1008</v>
+      </c>
+      <c r="G171">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>152</v>
+      </c>
+      <c r="E172">
+        <v>34998</v>
+      </c>
+      <c r="F172">
+        <v>26250</v>
+      </c>
+      <c r="G172">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>154</v>
+      </c>
+      <c r="E175">
+        <v>3732</v>
+      </c>
+      <c r="F175">
+        <v>1440</v>
+      </c>
+      <c r="G175">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>87</v>
+      </c>
+      <c r="F179">
+        <v>17500</v>
+      </c>
+      <c r="G179">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>162</v>
+      </c>
+      <c r="G186">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>87</v>
+      </c>
+      <c r="F188">
+        <v>8750</v>
+      </c>
+      <c r="G188">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>166</v>
+      </c>
+      <c r="G192">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>170</v>
+      </c>
+      <c r="E196">
+        <v>622</v>
+      </c>
+      <c r="F196">
+        <v>576</v>
+      </c>
+      <c r="G196">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>177</v>
+      </c>
+      <c r="C205" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>177</v>
+      </c>
+      <c r="F206">
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>181</v>
+      </c>
+      <c r="E211">
+        <v>163324</v>
+      </c>
+      <c r="F211">
+        <v>770000</v>
+      </c>
+      <c r="G211">
+        <v>227500</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>183</v>
+      </c>
+      <c r="E215">
+        <v>311</v>
+      </c>
+      <c r="F215">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/files/Calvert_phyto.xlsx
+++ b/files/Calvert_phyto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin.belluz\Documents\R\microscopy_OBIS\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEAB06D-ACA3-4BA5-8EEB-5D2F7DA852ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235A145E-3DE9-4A5A-858B-B400B6E5FE63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" activeTab="4" xr2:uid="{097FCDEB-8C97-4367-A565-6CEADFA41F06}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" activeTab="3" xr2:uid="{097FCDEB-8C97-4367-A565-6CEADFA41F06}"/>
   </bookViews>
   <sheets>
     <sheet name="QCS01_1" sheetId="1" r:id="rId1"/>
@@ -8489,8 +8489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2B789C-B763-4256-917E-7CA7BD2F6FC5}">
   <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD210"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200:XFD200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14272,9 +14272,6 @@
       <c r="B199" s="2"/>
       <c r="C199" s="4"/>
       <c r="M199" s="8"/>
-      <c r="Y199">
-        <v>361677</v>
-      </c>
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
@@ -14283,6 +14280,9 @@
       <c r="B200" s="3"/>
       <c r="C200" s="4"/>
       <c r="M200" s="8"/>
+      <c r="Y200">
+        <v>361677</v>
+      </c>
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
@@ -14496,7 +14496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827260BF-C149-49A1-BC8C-BEAD1D8F5F83}">
   <dimension ref="A1:G217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>

--- a/files/Calvert_phyto.xlsx
+++ b/files/Calvert_phyto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin.belluz\Documents\R\microscopy_OBIS\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4984673E-C6B0-4BFD-9FD9-D9302A615594}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DE9DCB-F1FA-4EB4-B744-BAD42505454B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" activeTab="8" xr2:uid="{097FCDEB-8C97-4367-A565-6CEADFA41F06}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" activeTab="6" xr2:uid="{097FCDEB-8C97-4367-A565-6CEADFA41F06}"/>
   </bookViews>
   <sheets>
     <sheet name="QCS01_1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="295">
   <si>
     <t>Bacillariophyta</t>
   </si>
@@ -886,15 +886,6 @@
     <t>Bacteriastrum delicatulum</t>
   </si>
   <si>
-    <t>Hakai Institution Protistan Plankton</t>
-  </si>
-  <si>
-    <t>Cells/L</t>
-  </si>
-  <si>
-    <t>5 m</t>
-  </si>
-  <si>
     <t>Great zooplankton</t>
   </si>
   <si>
@@ -913,16 +904,10 @@
     <t>Ceratium furca</t>
   </si>
   <si>
-    <t>Stn KC 10</t>
-  </si>
-  <si>
     <t>Great food</t>
   </si>
   <si>
     <t>for copepoda</t>
-  </si>
-  <si>
-    <t>Stn KC10</t>
   </si>
   <si>
     <t>Should be</t>
@@ -991,9 +976,6 @@
     <t>CPHY536</t>
   </si>
   <si>
-    <t>CPHY537</t>
-  </si>
-  <si>
     <t>CPHY542</t>
   </si>
   <si>
@@ -1001,6 +983,9 @@
   </si>
   <si>
     <t>CPHY547</t>
+  </si>
+  <si>
+    <t>CPHY539</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1087,7 +1072,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -8884,20 +8868,20 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -10039,11 +10023,11 @@
       <c r="G87" s="12"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
@@ -10159,10 +10143,10 @@
       <c r="G97" s="12"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B98" s="14"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
@@ -10242,10 +10226,10 @@
       <c r="G104" s="12"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B105" s="14"/>
+      <c r="B105" s="13"/>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
@@ -10306,7 +10290,7 @@
       <c r="G110" s="12"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B111" s="12"/>
@@ -10414,10 +10398,10 @@
       <c r="G118" s="12"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B119" s="14"/>
+      <c r="B119" s="13"/>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
@@ -10504,10 +10488,10 @@
       <c r="G126" s="12"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B127" s="14"/>
+      <c r="B127" s="13"/>
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
@@ -10626,10 +10610,10 @@
       <c r="G136" s="12"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B137" s="14"/>
+      <c r="B137" s="13"/>
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
@@ -11116,7 +11100,7 @@
       <c r="G174" s="12"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="14" t="s">
+      <c r="A175" s="13" t="s">
         <v>153</v>
       </c>
       <c r="B175" s="12"/>
@@ -11147,10 +11131,10 @@
       <c r="G177" s="12"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="14" t="s">
+      <c r="A178" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B178" s="14"/>
+      <c r="B178" s="13"/>
       <c r="C178" s="12"/>
       <c r="D178" s="12"/>
       <c r="E178" s="12"/>
@@ -11189,10 +11173,10 @@
       <c r="G181" s="12"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="14" t="s">
+      <c r="A182" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B182" s="14"/>
+      <c r="B182" s="13"/>
       <c r="C182" s="12"/>
       <c r="D182" s="12"/>
       <c r="E182" s="12"/>
@@ -11295,7 +11279,7 @@
       <c r="G191" s="12"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="14" t="s">
+      <c r="A192" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B192" s="12"/>
@@ -11400,7 +11384,7 @@
       <c r="G200" s="12"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="14" t="s">
+      <c r="A201" s="13" t="s">
         <v>172</v>
       </c>
       <c r="B201" s="12"/>
@@ -11436,11 +11420,11 @@
       <c r="G204" s="12"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="14" t="s">
+      <c r="A205" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B205" s="14"/>
-      <c r="C205" s="14"/>
+      <c r="B205" s="13"/>
+      <c r="C205" s="13"/>
       <c r="D205" s="12"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
@@ -11491,10 +11475,10 @@
       <c r="G209" s="12"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="14" t="s">
+      <c r="A210" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B210" s="14"/>
+      <c r="B210" s="13"/>
       <c r="C210" s="12"/>
       <c r="D210" s="12"/>
       <c r="E210" s="12"/>
@@ -11573,10 +11557,10 @@
       <c r="C219" s="12"/>
       <c r="D219" s="12"/>
       <c r="E219" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G219" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -11585,15 +11569,15 @@
       <c r="C220" s="12"/>
       <c r="D220" s="12"/>
       <c r="E220" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G220" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G221" s="12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -17637,7 +17621,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="I2" s="14"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -18437,7 +18421,7 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="I87" s="14"/>
+      <c r="I87" s="13"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -18531,7 +18515,7 @@
         <v>88</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="I97" s="14"/>
+      <c r="I97" s="13"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
@@ -18589,7 +18573,7 @@
         <v>93</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="I104" s="14"/>
+      <c r="I104" s="13"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
@@ -18631,7 +18615,7 @@
       <c r="A110" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I110" s="14"/>
+      <c r="I110" s="13"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
@@ -18719,7 +18703,7 @@
         <v>104</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="I118" s="14"/>
+      <c r="I118" s="13"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
@@ -18786,7 +18770,7 @@
         <v>110</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="I126" s="14"/>
+      <c r="I126" s="13"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
@@ -18862,7 +18846,7 @@
         <v>119</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="I136" s="14"/>
+      <c r="I136" s="13"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
@@ -19183,7 +19167,7 @@
       <c r="G175">
         <v>1513</v>
       </c>
-      <c r="I175" s="14"/>
+      <c r="I175" s="13"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I176" s="12"/>
@@ -19199,7 +19183,7 @@
       <c r="A178" t="s">
         <v>156</v>
       </c>
-      <c r="I178" s="14"/>
+      <c r="I178" s="13"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
@@ -19227,7 +19211,7 @@
       <c r="A182" t="s">
         <v>158</v>
       </c>
-      <c r="I182" s="14"/>
+      <c r="I182" s="13"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
@@ -19287,7 +19271,7 @@
       <c r="A191" t="s">
         <v>165</v>
       </c>
-      <c r="I191" s="14"/>
+      <c r="I191" s="13"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
@@ -19467,147 +19451,129 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670708D3-8086-459A-8CCF-F66DE9B4A94E}">
-  <dimension ref="A1:L227"/>
+  <dimension ref="A1:L221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+        <v>230</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>273</v>
-      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12">
+        <v>40</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>262</v>
+        <v>2</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="13">
-        <v>44316</v>
-      </c>
-      <c r="F4" s="13">
-        <v>44351</v>
-      </c>
-      <c r="G4" s="13">
-        <v>44207</v>
-      </c>
-      <c r="H4" s="13">
-        <v>44237</v>
-      </c>
-      <c r="I4" s="13">
-        <v>44269</v>
-      </c>
-      <c r="J4" s="13">
-        <v>44296</v>
-      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>263</v>
-      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12">
+        <v>3500</v>
+      </c>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="14"/>
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -19616,27 +19582,28 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12">
+        <v>144</v>
+      </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="12">
-        <v>40</v>
-      </c>
+      <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>2</v>
+        <v>201</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -19651,44 +19618,54 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>720</v>
+      </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="J11" s="12">
+        <v>666</v>
+      </c>
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="12">
+        <v>121952</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1200</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12">
-        <v>3500</v>
+        <v>7881</v>
       </c>
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="12">
+        <v>432</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -19698,7 +19675,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -19713,14 +19690,12 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="12">
-        <v>144</v>
-      </c>
+      <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -19730,7 +19705,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -19745,54 +19720,54 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12">
-        <v>720</v>
-      </c>
+      <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="12">
+        <v>40</v>
+      </c>
+      <c r="H17" s="12">
+        <v>200</v>
+      </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="12">
-        <v>666</v>
-      </c>
+      <c r="J17" s="12"/>
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12">
-        <v>121952</v>
+        <v>29400</v>
       </c>
       <c r="F18" s="12">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="12">
+        <v>80</v>
+      </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12">
-        <v>7881</v>
+        <v>60334</v>
       </c>
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="12">
-        <v>432</v>
-      </c>
+      <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -19802,22 +19777,26 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="12">
+        <v>200</v>
+      </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="J20" s="12">
+        <v>1110</v>
+      </c>
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -19827,12 +19806,14 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="J21" s="12">
+        <v>3108</v>
+      </c>
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -19847,49 +19828,43 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="12">
-        <v>40</v>
-      </c>
-      <c r="H23" s="12">
-        <v>200</v>
-      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="J23" s="12">
+        <v>666</v>
+      </c>
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12">
-        <v>29400</v>
-      </c>
-      <c r="F24" s="12">
-        <v>2000</v>
-      </c>
+        <v>4464</v>
+      </c>
+      <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="12">
-        <v>80</v>
-      </c>
+      <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12">
-        <v>60334</v>
+        <v>777</v>
       </c>
       <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -19904,58 +19879,60 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="12">
-        <v>200</v>
-      </c>
+      <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="12">
-        <v>1110</v>
-      </c>
+      <c r="J26" s="12"/>
       <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="12">
+        <v>28800</v>
+      </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12">
-        <v>3108</v>
+        <v>1554</v>
       </c>
       <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="12">
+        <v>3168</v>
+      </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="J28" s="12">
+        <v>2664</v>
+      </c>
       <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -19965,33 +19942,29 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="12">
-        <v>666</v>
-      </c>
+      <c r="J29" s="12"/>
       <c r="L29" s="12"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="12">
-        <v>4464</v>
-      </c>
+      <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12">
-        <v>777</v>
+        <v>666</v>
       </c>
       <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -20006,65 +19979,71 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="E32" s="12">
+        <v>79920</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1400</v>
+      </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
+      <c r="J32" s="12">
+        <v>2331</v>
+      </c>
       <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12">
-        <v>28800</v>
-      </c>
-      <c r="F33" s="12"/>
+        <v>16416</v>
+      </c>
+      <c r="F33" s="12">
+        <v>200</v>
+      </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12">
-        <v>1554</v>
+        <v>1332</v>
       </c>
       <c r="L33" s="12"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="12">
-        <v>3168</v>
-      </c>
+      <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="12">
-        <v>2664</v>
-      </c>
+      <c r="J34" s="12"/>
       <c r="L34" s="12"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="12">
+        <v>720</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -20074,24 +20053,30 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="12">
+        <v>600</v>
+      </c>
       <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
+      <c r="H36" s="12">
+        <v>520</v>
+      </c>
+      <c r="I36" s="12">
+        <v>280</v>
+      </c>
       <c r="J36" s="12">
-        <v>666</v>
+        <v>555</v>
       </c>
       <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -20099,56 +20084,62 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="H37" s="12">
+        <v>40</v>
+      </c>
+      <c r="I37" s="12">
+        <v>120</v>
+      </c>
+      <c r="J37" s="12">
+        <v>111</v>
+      </c>
       <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12">
-        <v>79920</v>
+        <v>43750</v>
       </c>
       <c r="F38" s="12">
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="H38" s="12">
+        <v>1750</v>
+      </c>
+      <c r="I38" s="12">
+        <v>5833</v>
+      </c>
       <c r="J38" s="12">
-        <v>2331</v>
+        <v>14000</v>
       </c>
       <c r="L38" s="12"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="12">
-        <v>16416</v>
-      </c>
-      <c r="F39" s="12">
-        <v>200</v>
-      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12">
-        <v>1332</v>
-      </c>
+      <c r="I39" s="12">
+        <v>40</v>
+      </c>
+      <c r="J39" s="12"/>
       <c r="L39" s="12"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -20163,117 +20154,123 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="12">
-        <v>720</v>
-      </c>
+      <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
+      <c r="J41" s="12">
+        <v>111</v>
+      </c>
       <c r="L41" s="12"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="E42" s="12">
+        <v>3600</v>
+      </c>
       <c r="F42" s="12">
-        <v>600</v>
-      </c>
-      <c r="G42" s="12"/>
+        <v>2000</v>
+      </c>
+      <c r="G42" s="12">
+        <v>280</v>
+      </c>
       <c r="H42" s="12">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="I42" s="12">
-        <v>280</v>
+        <v>440</v>
       </c>
       <c r="J42" s="12">
-        <v>555</v>
+        <v>2220</v>
       </c>
       <c r="L42" s="12"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="E43" s="12">
+        <v>144</v>
+      </c>
+      <c r="F43" s="12">
+        <v>600</v>
+      </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12">
         <v>40</v>
       </c>
-      <c r="I43" s="12">
-        <v>120</v>
-      </c>
+      <c r="I43" s="12"/>
       <c r="J43" s="12">
-        <v>111</v>
+        <v>333</v>
       </c>
       <c r="L43" s="12"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12">
-        <v>43750</v>
+        <v>864</v>
       </c>
       <c r="F44" s="12">
-        <v>5000</v>
+        <v>2400</v>
       </c>
       <c r="G44" s="12"/>
-      <c r="H44" s="12">
-        <v>1750</v>
-      </c>
-      <c r="I44" s="12">
-        <v>5833</v>
-      </c>
-      <c r="J44" s="12">
-        <v>14000</v>
-      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
       <c r="L44" s="12"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="E45" s="12">
+        <v>144</v>
+      </c>
+      <c r="F45" s="12">
+        <v>1000</v>
+      </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
-      <c r="I45" s="12">
-        <v>40</v>
-      </c>
-      <c r="J45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12">
+        <v>111</v>
+      </c>
       <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="G46" s="12">
+        <v>40</v>
+      </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
@@ -20281,7 +20278,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -20291,74 +20288,48 @@
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
-      <c r="J47" s="12">
-        <v>111</v>
-      </c>
+      <c r="J47" s="12"/>
       <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
-      <c r="E48" s="12">
-        <v>3600</v>
-      </c>
-      <c r="F48" s="12">
-        <v>2000</v>
-      </c>
-      <c r="G48" s="12">
-        <v>280</v>
-      </c>
-      <c r="H48" s="12">
-        <v>320</v>
-      </c>
-      <c r="I48" s="12">
-        <v>440</v>
-      </c>
-      <c r="J48" s="12">
-        <v>2220</v>
-      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
       <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="12">
-        <v>144</v>
-      </c>
-      <c r="F49" s="12">
-        <v>600</v>
-      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="12">
-        <v>40</v>
-      </c>
+      <c r="H49" s="12"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="12">
-        <v>333</v>
-      </c>
+      <c r="J49" s="12"/>
       <c r="L49" s="12"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
-      <c r="E50" s="12">
-        <v>864</v>
-      </c>
-      <c r="F50" s="12">
-        <v>2400</v>
-      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -20367,37 +20338,33 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="12">
-        <v>144</v>
-      </c>
-      <c r="F51" s="12">
-        <v>1000</v>
-      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="12">
-        <v>111</v>
-      </c>
+      <c r="J51" s="12"/>
       <c r="L51" s="12"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12">
-        <v>40</v>
-      </c>
+      <c r="E52" s="12">
+        <v>2016</v>
+      </c>
+      <c r="F52" s="12">
+        <v>800</v>
+      </c>
+      <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
@@ -20405,7 +20372,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -20420,7 +20387,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -20435,13 +20402,15 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="F55" s="12">
+        <v>3600</v>
+      </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -20450,7 +20419,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -20465,7 +20434,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -20480,17 +20449,13 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
-      <c r="E58" s="12">
-        <v>2016</v>
-      </c>
-      <c r="F58" s="12">
-        <v>800</v>
-      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
@@ -20499,7 +20464,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -20514,7 +20479,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -20529,16 +20494,16 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="12">
-        <v>3600</v>
-      </c>
-      <c r="G61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12">
+        <v>720</v>
+      </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
@@ -20546,7 +20511,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -20555,49 +20520,73 @@
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
+      <c r="I62" s="12">
+        <v>40</v>
+      </c>
+      <c r="J62" s="12">
+        <v>111</v>
+      </c>
       <c r="L62" s="12"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
+      <c r="E63" s="12">
+        <v>5904</v>
+      </c>
+      <c r="F63" s="12">
+        <v>5000</v>
+      </c>
       <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
+      <c r="H63" s="12">
+        <v>80</v>
+      </c>
+      <c r="I63" s="12">
+        <v>640</v>
+      </c>
       <c r="J63" s="12"/>
       <c r="L63" s="12"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="E64" s="12">
+        <v>7344</v>
+      </c>
+      <c r="F64" s="12">
+        <v>2800</v>
+      </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
+      <c r="I64" s="12">
+        <v>200</v>
+      </c>
+      <c r="J64" s="12">
+        <v>666</v>
+      </c>
       <c r="L64" s="12"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
+      <c r="E65" s="12">
+        <v>2304</v>
+      </c>
+      <c r="F65" s="12">
+        <v>2600</v>
+      </c>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
@@ -20606,7 +20595,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -20615,22 +20604,24 @@
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
+      <c r="I66" s="12">
+        <v>40</v>
+      </c>
       <c r="J66" s="12"/>
       <c r="L66" s="12"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
+      <c r="C67" s="12" t="s">
+        <v>211</v>
+      </c>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
-      <c r="G67" s="12">
-        <v>720</v>
-      </c>
+      <c r="G67" s="12"/>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
@@ -20638,82 +20629,82 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+      <c r="E68" s="12">
+        <v>190000</v>
+      </c>
+      <c r="F68" s="12">
+        <v>268000</v>
+      </c>
       <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="H68" s="12">
+        <v>400</v>
+      </c>
       <c r="I68" s="12">
-        <v>40</v>
+        <v>6200</v>
       </c>
       <c r="J68" s="12">
-        <v>111</v>
+        <v>121360</v>
       </c>
       <c r="L68" s="12"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12">
-        <v>5904</v>
+        <v>306000</v>
       </c>
       <c r="F69" s="12">
-        <v>5000</v>
-      </c>
-      <c r="G69" s="12"/>
+        <v>512000</v>
+      </c>
+      <c r="G69" s="12">
+        <v>280</v>
+      </c>
       <c r="H69" s="12">
-        <v>80</v>
+        <v>4040</v>
       </c>
       <c r="I69" s="12">
-        <v>640</v>
-      </c>
-      <c r="J69" s="12"/>
+        <v>5940</v>
+      </c>
+      <c r="J69" s="12">
+        <v>162000</v>
+      </c>
       <c r="L69" s="12"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
-      <c r="E70" s="12">
-        <v>7344</v>
-      </c>
-      <c r="F70" s="12">
-        <v>2800</v>
-      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12">
-        <v>200</v>
-      </c>
-      <c r="J70" s="12">
-        <v>666</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="J70" s="12"/>
       <c r="L70" s="12"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
-      <c r="E71" s="12">
-        <v>2304</v>
-      </c>
-      <c r="F71" s="12">
-        <v>2600</v>
-      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
@@ -20722,169 +20713,169 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
+      <c r="E72" s="12">
+        <v>432</v>
+      </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
-      <c r="I72" s="12">
-        <v>40</v>
-      </c>
+      <c r="I72" s="12"/>
       <c r="J72" s="12"/>
       <c r="L72" s="12"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B73" s="12"/>
-      <c r="C73" s="12" t="s">
-        <v>211</v>
-      </c>
+      <c r="C73" s="12"/>
       <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
+      <c r="E73" s="12">
+        <v>1872</v>
+      </c>
+      <c r="F73" s="12">
+        <v>800</v>
+      </c>
+      <c r="G73" s="12">
+        <v>120</v>
+      </c>
+      <c r="H73" s="12">
+        <v>320</v>
+      </c>
+      <c r="I73" s="12">
+        <v>600</v>
+      </c>
+      <c r="J73" s="12">
+        <v>1332</v>
+      </c>
       <c r="L73" s="12"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="12">
-        <v>190000</v>
-      </c>
-      <c r="F74" s="12">
-        <v>268000</v>
-      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
       <c r="G74" s="12"/>
-      <c r="H74" s="12">
-        <v>400</v>
-      </c>
-      <c r="I74" s="12">
-        <v>6200</v>
-      </c>
-      <c r="J74" s="12">
-        <v>121360</v>
-      </c>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
       <c r="L74" s="12"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12">
-        <v>306000</v>
-      </c>
-      <c r="F75" s="12">
-        <v>512000</v>
-      </c>
-      <c r="G75" s="12">
+        <v>59200</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12">
         <v>280</v>
       </c>
-      <c r="H75" s="12">
-        <v>4040</v>
-      </c>
-      <c r="I75" s="12">
-        <v>5940</v>
-      </c>
+      <c r="I75" s="12"/>
       <c r="J75" s="12">
-        <v>162000</v>
+        <v>37000</v>
       </c>
       <c r="L75" s="12"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
+      <c r="E76" s="12">
+        <v>32033</v>
+      </c>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
-      <c r="I76" s="12">
-        <v>80</v>
-      </c>
-      <c r="J76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12">
+        <v>59200</v>
+      </c>
       <c r="L76" s="12"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
+      <c r="E77" s="12">
+        <v>24600</v>
+      </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
+      <c r="J77" s="12">
+        <v>666</v>
+      </c>
       <c r="L77" s="12"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12">
-        <v>432</v>
-      </c>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
+        <v>20800</v>
+      </c>
+      <c r="F78" s="12">
+        <v>8000</v>
+      </c>
+      <c r="G78" s="12">
+        <v>440</v>
+      </c>
+      <c r="H78" s="12">
+        <v>1080</v>
+      </c>
+      <c r="I78" s="12">
+        <v>680</v>
+      </c>
+      <c r="J78" s="12">
+        <v>28600</v>
+      </c>
       <c r="L78" s="12"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12">
-        <v>1872</v>
-      </c>
-      <c r="F79" s="12">
-        <v>800</v>
-      </c>
-      <c r="G79" s="12">
-        <v>120</v>
-      </c>
-      <c r="H79" s="12">
-        <v>320</v>
-      </c>
-      <c r="I79" s="12">
-        <v>600</v>
-      </c>
-      <c r="J79" s="12">
-        <v>1332</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
       <c r="L79" s="12"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -20892,186 +20883,180 @@
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
+      <c r="H80" s="12">
+        <v>40</v>
+      </c>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
       <c r="L80" s="12"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12">
-        <v>59200</v>
-      </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12">
-        <v>280</v>
-      </c>
-      <c r="I81" s="12"/>
+        <v>20419</v>
+      </c>
+      <c r="F81" s="12">
+        <v>25000</v>
+      </c>
+      <c r="G81" s="12">
+        <v>3500</v>
+      </c>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12">
+        <v>2917</v>
+      </c>
       <c r="J81" s="12">
-        <v>37000</v>
+        <v>52500</v>
       </c>
       <c r="L81" s="12"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12">
-        <v>32033</v>
-      </c>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
+        <v>1296</v>
+      </c>
+      <c r="F82" s="12">
+        <v>6000</v>
+      </c>
+      <c r="G82" s="12">
+        <v>440</v>
+      </c>
+      <c r="H82" s="12">
+        <v>760</v>
+      </c>
+      <c r="I82" s="12">
+        <v>880</v>
+      </c>
       <c r="J82" s="12">
-        <v>59200</v>
+        <v>1443</v>
       </c>
       <c r="L82" s="12"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12">
-        <v>24600</v>
-      </c>
-      <c r="F83" s="12"/>
+        <v>5834</v>
+      </c>
+      <c r="F83" s="12">
+        <v>10000</v>
+      </c>
       <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
+      <c r="H83" s="12">
+        <v>1750</v>
+      </c>
       <c r="I83" s="12"/>
-      <c r="J83" s="12">
-        <v>666</v>
-      </c>
+      <c r="J83" s="12"/>
       <c r="L83" s="12"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
-      <c r="E84" s="12">
-        <v>20800</v>
-      </c>
-      <c r="F84" s="12">
-        <v>8000</v>
-      </c>
-      <c r="G84" s="12">
-        <v>440</v>
-      </c>
-      <c r="H84" s="12">
-        <v>1080</v>
-      </c>
-      <c r="I84" s="12">
-        <v>680</v>
-      </c>
-      <c r="J84" s="12">
-        <v>28600</v>
-      </c>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
       <c r="L84" s="12"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12">
-        <v>144</v>
-      </c>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
+        <f t="shared" ref="E85:J85" si="0">SUM(E3:E84)</f>
+        <v>1014836</v>
+      </c>
+      <c r="F85" s="12">
+        <f t="shared" si="0"/>
+        <v>861200</v>
+      </c>
+      <c r="G85" s="12">
+        <f t="shared" si="0"/>
+        <v>5860</v>
+      </c>
+      <c r="H85" s="12">
+        <f t="shared" si="0"/>
+        <v>11700</v>
+      </c>
+      <c r="I85" s="12">
+        <f t="shared" si="0"/>
+        <v>24970</v>
+      </c>
+      <c r="J85" s="12">
+        <f t="shared" si="0"/>
+        <v>568908</v>
+      </c>
       <c r="L85" s="12"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
-      <c r="H86" s="12">
-        <v>40</v>
-      </c>
+      <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
       <c r="L86" s="12"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
+      <c r="A87" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
       <c r="D87" s="12"/>
-      <c r="E87" s="12">
-        <v>20419</v>
-      </c>
-      <c r="F87" s="12">
-        <v>25000</v>
-      </c>
-      <c r="G87" s="12">
-        <v>3500</v>
-      </c>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
       <c r="H87" s="12"/>
-      <c r="I87" s="12">
-        <v>2917</v>
-      </c>
-      <c r="J87" s="12">
-        <v>52500</v>
-      </c>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
       <c r="L87" s="12"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
-      <c r="E88" s="12">
-        <v>1296</v>
-      </c>
-      <c r="F88" s="12">
-        <v>6000</v>
-      </c>
-      <c r="G88" s="12">
-        <v>440</v>
-      </c>
-      <c r="H88" s="12">
-        <v>760</v>
-      </c>
-      <c r="I88" s="12">
-        <v>880</v>
-      </c>
-      <c r="J88" s="12">
-        <v>1443</v>
-      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
       <c r="L88" s="12"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -21080,9 +21065,11 @@
         <v>5834</v>
       </c>
       <c r="F89" s="12">
-        <v>10000</v>
-      </c>
-      <c r="G89" s="12"/>
+        <v>5000</v>
+      </c>
+      <c r="G89" s="12">
+        <v>80</v>
+      </c>
       <c r="H89" s="12">
         <v>1750</v>
       </c>
@@ -21092,14 +21079,16 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
+      <c r="G90" s="12">
+        <v>40</v>
+      </c>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
@@ -21107,56 +21096,56 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
       <c r="E91" s="12">
-        <f t="shared" ref="E91:J91" si="0">SUM(E9:E90)</f>
-        <v>1014836</v>
-      </c>
-      <c r="F91" s="12">
-        <f t="shared" si="0"/>
-        <v>861200</v>
-      </c>
-      <c r="G91" s="12">
-        <f t="shared" si="0"/>
-        <v>5860</v>
-      </c>
-      <c r="H91" s="12">
-        <f t="shared" si="0"/>
-        <v>11700</v>
-      </c>
+        <v>5834</v>
+      </c>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
       <c r="I91" s="12">
-        <f t="shared" si="0"/>
-        <v>24970</v>
-      </c>
-      <c r="J91" s="12">
-        <f t="shared" si="0"/>
-        <v>568908</v>
-      </c>
+        <v>2917</v>
+      </c>
+      <c r="J91" s="12"/>
       <c r="L91" s="12"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="12"/>
+      <c r="A92" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
+      <c r="E92" s="12">
+        <v>5834</v>
+      </c>
+      <c r="F92" s="12">
+        <v>20000</v>
+      </c>
+      <c r="G92" s="12">
+        <v>3500</v>
+      </c>
+      <c r="H92" s="12">
+        <v>8750</v>
+      </c>
+      <c r="I92" s="12">
+        <v>11668</v>
+      </c>
+      <c r="J92" s="12">
+        <v>14000</v>
+      </c>
       <c r="L92" s="12"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
+      <c r="A93" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
@@ -21168,7 +21157,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -21183,93 +21172,77 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12">
-        <v>5834</v>
+        <v>55423</v>
       </c>
       <c r="F95" s="12">
-        <v>5000</v>
+        <v>110000</v>
       </c>
       <c r="G95" s="12">
-        <v>80</v>
+        <v>28000</v>
       </c>
       <c r="H95" s="12">
-        <v>1750</v>
-      </c>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
+        <v>77000</v>
+      </c>
+      <c r="I95" s="12">
+        <v>128348</v>
+      </c>
+      <c r="J95" s="12">
+        <v>42000</v>
+      </c>
       <c r="L95" s="12"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
-      <c r="G96" s="12">
-        <v>40</v>
-      </c>
+      <c r="G96" s="12"/>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
       <c r="L96" s="12"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B97" s="12"/>
+      <c r="A97" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="13"/>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
-      <c r="E97" s="12">
-        <v>5834</v>
-      </c>
+      <c r="E97" s="12"/>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
-      <c r="I97" s="12">
-        <v>2917</v>
-      </c>
+      <c r="I97" s="12"/>
       <c r="J97" s="12"/>
       <c r="L97" s="12"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
-      <c r="E98" s="12">
-        <v>5834</v>
-      </c>
-      <c r="F98" s="12">
-        <v>20000</v>
-      </c>
-      <c r="G98" s="12">
-        <v>3500</v>
-      </c>
-      <c r="H98" s="12">
-        <v>8750</v>
-      </c>
-      <c r="I98" s="12">
-        <v>11668</v>
-      </c>
-      <c r="J98" s="12">
-        <v>14000</v>
-      </c>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
       <c r="L98" s="12"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -21279,69 +21252,79 @@
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
+      <c r="J99" s="12">
+        <v>10500</v>
+      </c>
       <c r="L99" s="12"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
+      <c r="F100" s="12">
+        <v>5000</v>
+      </c>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
+      <c r="I100" s="12">
+        <v>2917</v>
+      </c>
+      <c r="J100" s="12">
+        <v>14000</v>
+      </c>
       <c r="L100" s="12"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
-      <c r="E101" s="12">
-        <v>55423</v>
-      </c>
+      <c r="E101" s="12"/>
       <c r="F101" s="12">
-        <v>110000</v>
-      </c>
-      <c r="G101" s="12">
-        <v>28000</v>
-      </c>
-      <c r="H101" s="12">
-        <v>77000</v>
-      </c>
-      <c r="I101" s="12">
-        <v>128348</v>
-      </c>
-      <c r="J101" s="12">
-        <v>42000</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
       <c r="L101" s="12"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="12"/>
+      <c r="A102" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
+      <c r="E102" s="12">
+        <v>55423</v>
+      </c>
+      <c r="F102" s="12">
+        <v>55000</v>
+      </c>
+      <c r="G102" s="12">
+        <v>3500</v>
+      </c>
+      <c r="H102" s="12">
+        <v>1750</v>
+      </c>
+      <c r="I102" s="12">
+        <v>40838</v>
+      </c>
+      <c r="J102" s="12">
+        <v>70000</v>
+      </c>
       <c r="L102" s="12"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B103" s="14"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
@@ -21353,10 +21336,10 @@
       <c r="L103" s="12"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B104" s="12"/>
+      <c r="A104" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" s="13"/>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
@@ -21369,7 +21352,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -21380,45 +21363,39 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
       <c r="J105" s="12">
-        <v>10500</v>
+        <v>3500</v>
       </c>
       <c r="L105" s="12"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
-      <c r="F106" s="12">
-        <v>5000</v>
-      </c>
+      <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
-      <c r="I106" s="12">
-        <v>2917</v>
-      </c>
-      <c r="J106" s="12">
-        <v>14000</v>
-      </c>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
       <c r="L106" s="12"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
-      <c r="F107" s="12">
-        <v>5000</v>
-      </c>
+      <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
+      <c r="I107" s="12">
+        <v>2917</v>
+      </c>
       <c r="J107" s="12"/>
       <c r="L107" s="12"/>
     </row>
@@ -21429,24 +21406,12 @@
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
-      <c r="E108" s="12">
-        <v>55423</v>
-      </c>
-      <c r="F108" s="12">
-        <v>55000</v>
-      </c>
-      <c r="G108" s="12">
-        <v>3500</v>
-      </c>
-      <c r="H108" s="12">
-        <v>1750</v>
-      </c>
-      <c r="I108" s="12">
-        <v>40838</v>
-      </c>
-      <c r="J108" s="12">
-        <v>70000</v>
-      </c>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
       <c r="L108" s="12"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -21463,10 +21428,10 @@
       <c r="L109" s="12"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B110" s="14"/>
+      <c r="A110" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B110" s="12"/>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
@@ -21479,7 +21444,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -21488,47 +21453,69 @@
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12">
-        <v>3500</v>
-      </c>
+      <c r="I111" s="12">
+        <v>40</v>
+      </c>
+      <c r="J111" s="12"/>
       <c r="L111" s="12"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="12" t="s">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
+      <c r="E112" s="12">
+        <v>144</v>
+      </c>
+      <c r="F112" s="12">
+        <v>1600</v>
+      </c>
+      <c r="G112" s="12">
+        <v>80</v>
+      </c>
+      <c r="H112" s="12">
+        <v>280</v>
+      </c>
+      <c r="I112" s="12">
+        <v>2200</v>
+      </c>
+      <c r="J112" s="12">
+        <v>333</v>
+      </c>
       <c r="L112" s="12"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
+      <c r="E113" s="12">
+        <v>288</v>
+      </c>
+      <c r="F113" s="12">
+        <v>3200</v>
+      </c>
+      <c r="G113" s="12">
+        <v>40</v>
+      </c>
+      <c r="H113" s="12">
+        <v>360</v>
+      </c>
       <c r="I113" s="12">
-        <v>2917</v>
-      </c>
-      <c r="J113" s="12"/>
+        <v>1320</v>
+      </c>
+      <c r="J113" s="12">
+        <v>888</v>
+      </c>
       <c r="L113" s="12"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -21542,37 +21529,53 @@
       <c r="L114" s="12"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="12"/>
+      <c r="A115" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
+      <c r="E115" s="12">
+        <v>432</v>
+      </c>
+      <c r="F115" s="12">
+        <v>6000</v>
+      </c>
+      <c r="G115" s="12">
+        <v>320</v>
+      </c>
+      <c r="H115" s="12">
+        <v>800</v>
+      </c>
+      <c r="I115" s="12">
+        <v>2720</v>
+      </c>
+      <c r="J115" s="12">
+        <v>1887</v>
+      </c>
       <c r="L115" s="12"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="14" t="s">
-        <v>97</v>
+      <c r="A116" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
+      <c r="E116" s="12">
+        <v>432</v>
+      </c>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
+      <c r="I116" s="12">
+        <v>40</v>
+      </c>
       <c r="J116" s="12"/>
       <c r="L116" s="12"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" s="12" t="s">
-        <v>98</v>
-      </c>
+      <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
@@ -21580,76 +21583,64 @@
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
-      <c r="I117" s="12">
-        <v>40</v>
-      </c>
+      <c r="I117" s="12"/>
       <c r="J117" s="12"/>
       <c r="L117" s="12"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B118" s="12"/>
+      <c r="A118" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B118" s="13"/>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
-      <c r="E118" s="12">
-        <v>144</v>
-      </c>
-      <c r="F118" s="12">
-        <v>1600</v>
-      </c>
-      <c r="G118" s="12">
-        <v>80</v>
-      </c>
-      <c r="H118" s="12">
-        <v>280</v>
-      </c>
-      <c r="I118" s="12">
-        <v>2200</v>
-      </c>
-      <c r="J118" s="12">
-        <v>333</v>
-      </c>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
       <c r="L118" s="12"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12">
-        <v>288</v>
+        <v>17502</v>
       </c>
       <c r="F119" s="12">
-        <v>3200</v>
+        <v>90000</v>
       </c>
       <c r="G119" s="12">
-        <v>40</v>
+        <v>14000</v>
       </c>
       <c r="H119" s="12">
-        <v>360</v>
+        <v>28000</v>
       </c>
       <c r="I119" s="12">
-        <v>1320</v>
+        <v>102095</v>
       </c>
       <c r="J119" s="12">
-        <v>888</v>
+        <v>91000</v>
       </c>
       <c r="L119" s="12"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
+      <c r="G120" s="12">
+        <v>1750</v>
+      </c>
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
       <c r="J120" s="12"/>
@@ -21657,48 +21648,44 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="12" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
-      <c r="E121" s="12">
-        <v>432</v>
-      </c>
-      <c r="F121" s="12">
-        <v>6000</v>
-      </c>
-      <c r="G121" s="12">
-        <v>320</v>
-      </c>
-      <c r="H121" s="12">
-        <v>800</v>
-      </c>
-      <c r="I121" s="12">
-        <v>2720</v>
-      </c>
-      <c r="J121" s="12">
-        <v>1887</v>
-      </c>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
       <c r="L121" s="12"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12">
-        <v>432</v>
-      </c>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
+        <v>32087</v>
+      </c>
+      <c r="F122" s="12">
+        <v>175000</v>
+      </c>
+      <c r="G122" s="12">
+        <v>7000</v>
+      </c>
+      <c r="H122" s="12">
+        <v>24500</v>
+      </c>
       <c r="I122" s="12">
-        <v>40</v>
-      </c>
-      <c r="J122" s="12"/>
+        <v>61257</v>
+      </c>
+      <c r="J122" s="12">
+        <v>52500</v>
+      </c>
       <c r="L122" s="12"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -21715,10 +21702,10 @@
       <c r="L123" s="12"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B124" s="14"/>
+      <c r="A124" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" s="12"/>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
@@ -21730,44 +21717,28 @@
       <c r="L124" s="12"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="12" t="s">
-        <v>105</v>
-      </c>
+      <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
-      <c r="E125" s="12">
-        <v>17502</v>
-      </c>
-      <c r="F125" s="12">
-        <v>90000</v>
-      </c>
-      <c r="G125" s="12">
-        <v>14000</v>
-      </c>
-      <c r="H125" s="12">
-        <v>28000</v>
-      </c>
-      <c r="I125" s="12">
-        <v>102095</v>
-      </c>
-      <c r="J125" s="12">
-        <v>91000</v>
-      </c>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
       <c r="L125" s="12"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B126" s="12"/>
+      <c r="A126" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" s="13"/>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
-      <c r="G126" s="12">
-        <v>1750</v>
-      </c>
+      <c r="G126" s="12"/>
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
@@ -21775,7 +21746,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -21784,39 +21755,33 @@
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
+      <c r="I127" s="12">
+        <v>80</v>
+      </c>
+      <c r="J127" s="12">
+        <v>111</v>
+      </c>
       <c r="L127" s="12"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
-      <c r="E128" s="12">
-        <v>32087</v>
-      </c>
-      <c r="F128" s="12">
-        <v>175000</v>
-      </c>
-      <c r="G128" s="12">
-        <v>7000</v>
-      </c>
-      <c r="H128" s="12">
-        <v>24500</v>
-      </c>
-      <c r="I128" s="12">
-        <v>61257</v>
-      </c>
-      <c r="J128" s="12">
-        <v>52500</v>
-      </c>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
       <c r="L128" s="12"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="12"/>
+      <c r="A129" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
@@ -21830,50 +21795,68 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
+      <c r="E130" s="12">
+        <v>144</v>
+      </c>
+      <c r="F130" s="12">
+        <v>1800</v>
+      </c>
+      <c r="G130" s="12">
+        <v>80</v>
+      </c>
+      <c r="H130" s="12">
+        <v>80</v>
+      </c>
+      <c r="I130" s="12">
+        <v>360</v>
+      </c>
       <c r="J130" s="12"/>
       <c r="L130" s="12"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="12"/>
+      <c r="A131" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
+      <c r="H131" s="12">
+        <v>40</v>
+      </c>
       <c r="I131" s="12"/>
       <c r="J131" s="12"/>
       <c r="L131" s="12"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B132" s="14"/>
+      <c r="A132" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B132" s="12"/>
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
+      <c r="E132" s="12">
+        <v>2917</v>
+      </c>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
+      <c r="J132" s="12">
+        <v>3500</v>
+      </c>
       <c r="L132" s="12"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -21882,17 +21865,13 @@
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
-      <c r="I133" s="12">
-        <v>80</v>
-      </c>
-      <c r="J133" s="12">
-        <v>111</v>
-      </c>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
       <c r="L133" s="12"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="12" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -21906,9 +21885,7 @@
       <c r="L134" s="12"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A135" s="12" t="s">
-        <v>113</v>
-      </c>
+      <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
@@ -21921,33 +21898,23 @@
       <c r="L135" s="12"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A136" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B136" s="12"/>
+      <c r="A136" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B136" s="13"/>
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
-      <c r="E136" s="12">
-        <v>144</v>
-      </c>
-      <c r="F136" s="12">
-        <v>1800</v>
-      </c>
-      <c r="G136" s="12">
-        <v>80</v>
-      </c>
-      <c r="H136" s="12">
-        <v>80</v>
-      </c>
-      <c r="I136" s="12">
-        <v>360</v>
-      </c>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
       <c r="J136" s="12"/>
       <c r="L136" s="12"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -21955,35 +21922,29 @@
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
-      <c r="H137" s="12">
-        <v>40</v>
-      </c>
+      <c r="H137" s="12"/>
       <c r="I137" s="12"/>
       <c r="J137" s="12"/>
       <c r="L137" s="12"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
-      <c r="E138" s="12">
-        <v>2917</v>
-      </c>
+      <c r="E138" s="12"/>
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
-      <c r="J138" s="12">
-        <v>3500</v>
-      </c>
+      <c r="J138" s="12"/>
       <c r="L138" s="12"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -21998,13 +21959,17 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
+      <c r="E140" s="12">
+        <v>144</v>
+      </c>
+      <c r="F140" s="12">
+        <v>200</v>
+      </c>
       <c r="G140" s="12"/>
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
@@ -22012,12 +21977,16 @@
       <c r="L140" s="12"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="12"/>
+      <c r="A141" s="12" t="s">
+        <v>266</v>
+      </c>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
+      <c r="F141" s="12">
+        <v>200</v>
+      </c>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
@@ -22025,10 +21994,10 @@
       <c r="L141" s="12"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B142" s="14"/>
+      <c r="A142" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B142" s="12"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
@@ -22041,7 +22010,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -22056,7 +22025,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -22071,7 +22040,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -22086,17 +22055,13 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
-        <v>123</v>
+        <v>259</v>
       </c>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
-      <c r="E146" s="12">
-        <v>144</v>
-      </c>
-      <c r="F146" s="12">
-        <v>200</v>
-      </c>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
@@ -22105,7 +22070,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
-        <v>269</v>
+        <v>127</v>
       </c>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -22117,12 +22082,14 @@
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
-      <c r="J147" s="12"/>
+      <c r="J147" s="12">
+        <v>111</v>
+      </c>
       <c r="L147" s="12"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -22137,7 +22104,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -22152,7 +22119,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="12" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -22167,7 +22134,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="12" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -22182,13 +22149,15 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="12" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
+      <c r="F152" s="12">
+        <v>1200</v>
+      </c>
       <c r="G152" s="12"/>
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
@@ -22197,41 +22166,61 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
+      <c r="E153" s="12">
+        <v>288</v>
+      </c>
       <c r="F153" s="12">
-        <v>200</v>
-      </c>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
+        <v>2400</v>
+      </c>
+      <c r="G153" s="12">
+        <v>40</v>
+      </c>
+      <c r="H153" s="12">
+        <v>120</v>
+      </c>
+      <c r="I153" s="12">
+        <v>680</v>
+      </c>
       <c r="J153" s="12">
-        <v>111</v>
+        <v>1332</v>
       </c>
       <c r="L153" s="12"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
-      <c r="J154" s="12"/>
+      <c r="E154" s="12">
+        <v>144</v>
+      </c>
+      <c r="F154" s="12">
+        <v>3000</v>
+      </c>
+      <c r="G154" s="12">
+        <v>120</v>
+      </c>
+      <c r="H154" s="12">
+        <v>40</v>
+      </c>
+      <c r="I154" s="12">
+        <v>320</v>
+      </c>
+      <c r="J154" s="12">
+        <v>1332</v>
+      </c>
       <c r="L154" s="12"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="12" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -22246,22 +22235,34 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
-      <c r="J156" s="12"/>
+      <c r="E156" s="12">
+        <v>8751</v>
+      </c>
+      <c r="F156" s="12">
+        <v>20000</v>
+      </c>
+      <c r="G156" s="12">
+        <v>80</v>
+      </c>
+      <c r="H156" s="12">
+        <v>120</v>
+      </c>
+      <c r="I156" s="12">
+        <v>760</v>
+      </c>
+      <c r="J156" s="12">
+        <v>1665</v>
+      </c>
       <c r="L156" s="12"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="12" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -22276,15 +22277,13 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="12" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
-      <c r="F158" s="12">
-        <v>1200</v>
-      </c>
+      <c r="F158" s="12"/>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
@@ -22293,61 +22292,37 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
-      <c r="E159" s="12">
-        <v>288</v>
-      </c>
-      <c r="F159" s="12">
-        <v>2400</v>
-      </c>
-      <c r="G159" s="12">
-        <v>40</v>
-      </c>
-      <c r="H159" s="12">
-        <v>120</v>
-      </c>
-      <c r="I159" s="12">
-        <v>680</v>
-      </c>
-      <c r="J159" s="12">
-        <v>1332</v>
-      </c>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
       <c r="L159" s="12"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
       <c r="D160" s="12"/>
-      <c r="E160" s="12">
-        <v>144</v>
-      </c>
-      <c r="F160" s="12">
-        <v>3000</v>
-      </c>
-      <c r="G160" s="12">
-        <v>120</v>
-      </c>
-      <c r="H160" s="12">
-        <v>40</v>
-      </c>
-      <c r="I160" s="12">
-        <v>320</v>
-      </c>
-      <c r="J160" s="12">
-        <v>1332</v>
-      </c>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
       <c r="L160" s="12"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="12" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -22362,34 +22337,22 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
       <c r="D162" s="12"/>
-      <c r="E162" s="12">
-        <v>8751</v>
-      </c>
-      <c r="F162" s="12">
-        <v>20000</v>
-      </c>
-      <c r="G162" s="12">
-        <v>80</v>
-      </c>
-      <c r="H162" s="12">
-        <v>120</v>
-      </c>
-      <c r="I162" s="12">
-        <v>760</v>
-      </c>
-      <c r="J162" s="12">
-        <v>1665</v>
-      </c>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
       <c r="L162" s="12"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -22404,7 +22367,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="12" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -22419,7 +22382,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -22434,13 +22397,15 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="12" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
-      <c r="F166" s="12"/>
+      <c r="F166" s="12">
+        <v>800</v>
+      </c>
       <c r="G166" s="12"/>
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
@@ -22449,27 +22414,35 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
       <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12"/>
+      <c r="E167" s="12">
+        <v>432</v>
+      </c>
+      <c r="F167" s="12">
+        <v>200</v>
+      </c>
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
-      <c r="I167" s="12"/>
+      <c r="I167" s="12">
+        <v>40</v>
+      </c>
       <c r="J167" s="12"/>
       <c r="L167" s="12"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="12" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
       <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
+      <c r="E168" s="12">
+        <v>144</v>
+      </c>
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
       <c r="H168" s="12"/>
@@ -22479,22 +22452,28 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
       <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="12"/>
+      <c r="E169" s="12">
+        <v>476</v>
+      </c>
+      <c r="F169" s="12">
+        <v>200</v>
+      </c>
       <c r="G169" s="12"/>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
-      <c r="J169" s="12"/>
+      <c r="J169" s="12">
+        <v>111</v>
+      </c>
       <c r="L169" s="12"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -22503,13 +22482,15 @@
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
       <c r="H170" s="12"/>
-      <c r="I170" s="12"/>
+      <c r="I170" s="12">
+        <v>80</v>
+      </c>
       <c r="J170" s="12"/>
       <c r="L170" s="12"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -22524,52 +22505,64 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
-      <c r="E172" s="12"/>
+      <c r="E172" s="12">
+        <v>720</v>
+      </c>
       <c r="F172" s="12">
-        <v>800</v>
-      </c>
-      <c r="G172" s="12"/>
-      <c r="H172" s="12"/>
-      <c r="I172" s="12"/>
-      <c r="J172" s="12"/>
+        <v>3800</v>
+      </c>
+      <c r="G172" s="12">
+        <v>40</v>
+      </c>
+      <c r="H172" s="12">
+        <v>80</v>
+      </c>
+      <c r="I172" s="12">
+        <v>240</v>
+      </c>
+      <c r="J172" s="12">
+        <v>333</v>
+      </c>
       <c r="L172" s="12"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
       <c r="D173" s="12"/>
       <c r="E173" s="12">
-        <v>432</v>
+        <v>14585</v>
       </c>
       <c r="F173" s="12">
-        <v>200</v>
-      </c>
-      <c r="G173" s="12"/>
-      <c r="H173" s="12"/>
+        <v>5000</v>
+      </c>
+      <c r="G173" s="12">
+        <v>1750</v>
+      </c>
+      <c r="H173" s="12">
+        <v>8750</v>
+      </c>
       <c r="I173" s="12">
-        <v>40</v>
-      </c>
-      <c r="J173" s="12"/>
+        <v>2917</v>
+      </c>
+      <c r="J173" s="12">
+        <v>7000</v>
+      </c>
       <c r="L173" s="12"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A174" s="12" t="s">
-        <v>148</v>
-      </c>
+      <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
       <c r="D174" s="12"/>
-      <c r="E174" s="12">
-        <v>144</v>
-      </c>
+      <c r="E174" s="12"/>
       <c r="F174" s="12"/>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
@@ -22578,47 +22571,45 @@
       <c r="L174" s="12"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A175" s="12" t="s">
-        <v>149</v>
+      <c r="A175" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
       <c r="D175" s="12"/>
-      <c r="E175" s="12">
-        <v>476</v>
-      </c>
-      <c r="F175" s="12">
-        <v>200</v>
-      </c>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
-      <c r="J175" s="12">
-        <v>111</v>
-      </c>
+      <c r="J175" s="12"/>
       <c r="L175" s="12"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
       <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="12"/>
+      <c r="E176" s="12">
+        <v>288</v>
+      </c>
+      <c r="F176" s="12">
+        <v>11600</v>
+      </c>
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
       <c r="I176" s="12">
-        <v>80</v>
-      </c>
-      <c r="J176" s="12"/>
+        <v>1000</v>
+      </c>
+      <c r="J176" s="12">
+        <v>111</v>
+      </c>
       <c r="L176" s="12"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A177" s="12" t="s">
-        <v>151</v>
-      </c>
+      <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
       <c r="D177" s="12"/>
@@ -22631,76 +22622,62 @@
       <c r="L177" s="12"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A178" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B178" s="12"/>
+      <c r="A178" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B178" s="13"/>
       <c r="C178" s="12"/>
       <c r="D178" s="12"/>
-      <c r="E178" s="12">
-        <v>720</v>
-      </c>
-      <c r="F178" s="12">
-        <v>3800</v>
-      </c>
-      <c r="G178" s="12">
-        <v>40</v>
-      </c>
-      <c r="H178" s="12">
-        <v>80</v>
-      </c>
-      <c r="I178" s="12">
-        <v>240</v>
-      </c>
-      <c r="J178" s="12">
-        <v>333</v>
-      </c>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
       <c r="L178" s="12"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
       <c r="D179" s="12"/>
-      <c r="E179" s="12">
-        <v>14585</v>
-      </c>
-      <c r="F179" s="12">
-        <v>5000</v>
-      </c>
-      <c r="G179" s="12">
-        <v>1750</v>
-      </c>
-      <c r="H179" s="12">
-        <v>8750</v>
-      </c>
-      <c r="I179" s="12">
-        <v>2917</v>
-      </c>
-      <c r="J179" s="12">
-        <v>7000</v>
-      </c>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
       <c r="L179" s="12"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A180" s="12"/>
+      <c r="A180" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
       <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
+      <c r="E180" s="12">
+        <v>144</v>
+      </c>
+      <c r="F180" s="12">
+        <v>800</v>
+      </c>
       <c r="G180" s="12"/>
-      <c r="H180" s="12"/>
-      <c r="I180" s="12"/>
-      <c r="J180" s="12"/>
+      <c r="H180" s="12">
+        <v>80</v>
+      </c>
+      <c r="I180" s="12">
+        <v>2917</v>
+      </c>
+      <c r="J180" s="12">
+        <v>333</v>
+      </c>
       <c r="L180" s="12"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A181" s="14" t="s">
-        <v>153</v>
-      </c>
+      <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
       <c r="D181" s="12"/>
@@ -22713,30 +22690,24 @@
       <c r="L181" s="12"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A182" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B182" s="12"/>
+      <c r="A182" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B182" s="13"/>
       <c r="C182" s="12"/>
       <c r="D182" s="12"/>
-      <c r="E182" s="12">
-        <v>288</v>
-      </c>
-      <c r="F182" s="12">
-        <v>11600</v>
-      </c>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
-      <c r="I182" s="12">
-        <v>1000</v>
-      </c>
-      <c r="J182" s="12">
-        <v>111</v>
-      </c>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
       <c r="L182" s="12"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A183" s="12"/>
+      <c r="A183" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
       <c r="D183" s="12"/>
@@ -22749,15 +22720,17 @@
       <c r="L183" s="12"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A184" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B184" s="14"/>
+      <c r="A184" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B184" s="12"/>
       <c r="C184" s="12"/>
       <c r="D184" s="12"/>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
-      <c r="G184" s="12"/>
+      <c r="G184" s="12">
+        <v>3500</v>
+      </c>
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
@@ -22765,7 +22738,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -22780,31 +22753,23 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
       <c r="D186" s="12"/>
-      <c r="E186" s="12">
-        <v>144</v>
-      </c>
-      <c r="F186" s="12">
-        <v>800</v>
-      </c>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
       <c r="G186" s="12"/>
-      <c r="H186" s="12">
-        <v>80</v>
-      </c>
-      <c r="I186" s="12">
-        <v>2917</v>
-      </c>
-      <c r="J186" s="12">
-        <v>333</v>
-      </c>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
       <c r="L186" s="12"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A187" s="12"/>
+      <c r="A187" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
       <c r="D187" s="12"/>
@@ -22817,15 +22782,17 @@
       <c r="L187" s="12"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A188" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B188" s="14"/>
+      <c r="A188" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B188" s="12"/>
       <c r="C188" s="12"/>
       <c r="D188" s="12"/>
       <c r="E188" s="12"/>
       <c r="F188" s="12"/>
-      <c r="G188" s="12"/>
+      <c r="G188" s="12">
+        <v>1750</v>
+      </c>
       <c r="H188" s="12"/>
       <c r="I188" s="12"/>
       <c r="J188" s="12"/>
@@ -22833,7 +22800,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -22847,25 +22814,21 @@
       <c r="L189" s="12"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A190" s="12" t="s">
-        <v>159</v>
-      </c>
+      <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
       <c r="D190" s="12"/>
       <c r="E190" s="12"/>
       <c r="F190" s="12"/>
-      <c r="G190" s="12">
-        <v>3500</v>
-      </c>
+      <c r="G190" s="12"/>
       <c r="H190" s="12"/>
       <c r="I190" s="12"/>
       <c r="J190" s="12"/>
       <c r="L190" s="12"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A191" s="12" t="s">
-        <v>160</v>
+      <c r="A191" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -22880,7 +22843,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -22895,7 +22858,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -22905,21 +22868,21 @@
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
       <c r="I193" s="12"/>
-      <c r="J193" s="12"/>
+      <c r="J193" s="12">
+        <v>111</v>
+      </c>
       <c r="L193" s="12"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
       <c r="D194" s="12"/>
       <c r="E194" s="12"/>
       <c r="F194" s="12"/>
-      <c r="G194" s="12">
-        <v>1750</v>
-      </c>
+      <c r="G194" s="12"/>
       <c r="H194" s="12"/>
       <c r="I194" s="12"/>
       <c r="J194" s="12"/>
@@ -22927,13 +22890,15 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
       <c r="D195" s="12"/>
       <c r="E195" s="12"/>
-      <c r="F195" s="12"/>
+      <c r="F195" s="12">
+        <v>200</v>
+      </c>
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
@@ -22941,52 +22906,74 @@
       <c r="L195" s="12"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A196" s="12"/>
+      <c r="A196" s="12" t="s">
+        <v>169</v>
+      </c>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
       <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
+      <c r="E196" s="12">
+        <v>144</v>
+      </c>
       <c r="F196" s="12"/>
       <c r="G196" s="12"/>
       <c r="H196" s="12"/>
       <c r="I196" s="12"/>
-      <c r="J196" s="12"/>
+      <c r="J196" s="12">
+        <v>111</v>
+      </c>
       <c r="L196" s="12"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A197" s="14" t="s">
-        <v>164</v>
+      <c r="A197" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
       <c r="D197" s="12"/>
-      <c r="E197" s="12"/>
-      <c r="F197" s="12"/>
-      <c r="G197" s="12"/>
-      <c r="H197" s="12"/>
-      <c r="I197" s="12"/>
-      <c r="J197" s="12"/>
+      <c r="E197" s="12">
+        <v>432</v>
+      </c>
+      <c r="F197" s="12">
+        <v>800</v>
+      </c>
+      <c r="G197" s="12">
+        <v>80</v>
+      </c>
+      <c r="H197" s="12">
+        <v>120</v>
+      </c>
+      <c r="I197" s="12">
+        <v>80</v>
+      </c>
+      <c r="J197" s="12">
+        <v>555</v>
+      </c>
       <c r="L197" s="12"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
       <c r="D198" s="12"/>
-      <c r="E198" s="12"/>
+      <c r="E198" s="12">
+        <v>144</v>
+      </c>
       <c r="F198" s="12"/>
       <c r="G198" s="12"/>
       <c r="H198" s="12"/>
-      <c r="I198" s="12"/>
-      <c r="J198" s="12"/>
+      <c r="I198" s="12">
+        <v>120</v>
+      </c>
+      <c r="J198" s="12">
+        <v>1110</v>
+      </c>
       <c r="L198" s="12"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A199" s="12" t="s">
-        <v>166</v>
-      </c>
+      <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
       <c r="D199" s="12"/>
@@ -22995,14 +22982,12 @@
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
-      <c r="J199" s="12">
-        <v>111</v>
-      </c>
+      <c r="J199" s="12"/>
       <c r="L199" s="12"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -23017,14 +23002,14 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="12" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
       <c r="D201" s="12"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G201" s="12"/>
       <c r="H201" s="12"/>
@@ -23034,73 +23019,51 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
       <c r="D202" s="12"/>
-      <c r="E202" s="12">
-        <v>144</v>
-      </c>
+      <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
-      <c r="J202" s="12">
-        <v>111</v>
-      </c>
+      <c r="J202" s="12"/>
       <c r="L202" s="12"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A203" s="12" t="s">
-        <v>170</v>
-      </c>
+      <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
       <c r="D203" s="12"/>
-      <c r="E203" s="12">
-        <v>432</v>
-      </c>
-      <c r="F203" s="12">
-        <v>800</v>
-      </c>
-      <c r="G203" s="12">
-        <v>80</v>
-      </c>
-      <c r="H203" s="12">
-        <v>120</v>
-      </c>
-      <c r="I203" s="12">
-        <v>80</v>
-      </c>
-      <c r="J203" s="12">
-        <v>555</v>
-      </c>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+      <c r="J203" s="12"/>
       <c r="L203" s="12"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="12" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
       <c r="D204" s="12"/>
-      <c r="E204" s="12">
-        <v>144</v>
-      </c>
+      <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
       <c r="H204" s="12"/>
-      <c r="I204" s="12">
-        <v>120</v>
-      </c>
-      <c r="J204" s="12">
-        <v>1110</v>
-      </c>
+      <c r="I204" s="12"/>
+      <c r="J204" s="12"/>
       <c r="L204" s="12"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A205" s="12"/>
+      <c r="A205" s="12" t="s">
+        <v>176</v>
+      </c>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
       <c r="D205" s="12"/>
@@ -23114,40 +23077,44 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="12" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B206" s="12"/>
-      <c r="C206" s="12"/>
+      <c r="C206" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="D206" s="12"/>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
-      <c r="J206" s="12"/>
+      <c r="J206" s="12">
+        <v>3500</v>
+      </c>
       <c r="L206" s="12"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
-      <c r="F207" s="12">
-        <v>800</v>
-      </c>
+      <c r="F207" s="12"/>
       <c r="G207" s="12"/>
       <c r="H207" s="12"/>
-      <c r="I207" s="12"/>
-      <c r="J207" s="12"/>
+      <c r="I207" s="12">
+        <v>3400</v>
+      </c>
+      <c r="J207" s="12">
+        <v>39888</v>
+      </c>
       <c r="L207" s="12"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A208" s="12" t="s">
-        <v>174</v>
-      </c>
+      <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
       <c r="D208" s="12"/>
@@ -23160,7 +23127,9 @@
       <c r="L208" s="12"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A209" s="12"/>
+      <c r="A209" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
       <c r="D209" s="12"/>
@@ -23174,7 +23143,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="12" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -23188,9 +23157,7 @@
       <c r="L210" s="12"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A211" s="12" t="s">
-        <v>176</v>
-      </c>
+      <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
       <c r="D211" s="12"/>
@@ -23204,27 +23171,33 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B212" s="12"/>
-      <c r="C212" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="C212" s="12"/>
       <c r="D212" s="12"/>
-      <c r="E212" s="12"/>
-      <c r="F212" s="12"/>
-      <c r="G212" s="12"/>
-      <c r="H212" s="12"/>
-      <c r="I212" s="12"/>
+      <c r="E212" s="12">
+        <v>131265</v>
+      </c>
+      <c r="F212" s="12">
+        <v>320000</v>
+      </c>
+      <c r="G212" s="12">
+        <v>68250</v>
+      </c>
+      <c r="H212" s="12">
+        <v>297500</v>
+      </c>
+      <c r="I212" s="12">
+        <v>411297</v>
+      </c>
       <c r="J212" s="12">
-        <v>3500</v>
+        <v>343000</v>
       </c>
       <c r="L212" s="12"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A213" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
       <c r="D213" s="12"/>
@@ -23232,16 +23205,14 @@
       <c r="F213" s="12"/>
       <c r="G213" s="12"/>
       <c r="H213" s="12"/>
-      <c r="I213" s="12">
-        <v>3400</v>
-      </c>
-      <c r="J213" s="12">
-        <v>39888</v>
-      </c>
+      <c r="I213" s="12"/>
+      <c r="J213" s="12"/>
       <c r="L213" s="12"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A214" s="12"/>
+      <c r="A214" s="12" t="s">
+        <v>182</v>
+      </c>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
       <c r="D214" s="12"/>
@@ -23254,9 +23225,7 @@
       <c r="L214" s="12"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A215" s="12" t="s">
-        <v>179</v>
-      </c>
+      <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
       <c r="D215" s="12"/>
@@ -23270,15 +23239,19 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
       <c r="D216" s="12"/>
       <c r="E216" s="12"/>
       <c r="F216" s="12"/>
-      <c r="G216" s="12"/>
-      <c r="H216" s="12"/>
+      <c r="G216" s="12">
+        <v>40</v>
+      </c>
+      <c r="H216" s="12">
+        <v>40</v>
+      </c>
       <c r="I216" s="12"/>
       <c r="J216" s="12"/>
       <c r="L216" s="12"/>
@@ -23298,28 +23271,20 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
       <c r="D218" s="12"/>
-      <c r="E218" s="12">
-        <v>131265</v>
-      </c>
-      <c r="F218" s="12">
-        <v>320000</v>
-      </c>
-      <c r="G218" s="12">
-        <v>68250</v>
-      </c>
-      <c r="H218" s="12">
-        <v>297500</v>
-      </c>
-      <c r="I218" s="12">
-        <v>411297</v>
-      </c>
-      <c r="J218" s="12">
-        <v>343000</v>
+      <c r="E218" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
+      <c r="J218" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="L218" s="12"/>
     </row>
@@ -23328,117 +23293,25 @@
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
       <c r="D219" s="12"/>
-      <c r="E219" s="12"/>
+      <c r="E219" s="12" t="s">
+        <v>268</v>
+      </c>
       <c r="F219" s="12"/>
-      <c r="G219" s="12"/>
-      <c r="H219" s="12"/>
       <c r="I219" s="12"/>
-      <c r="J219" s="12"/>
-      <c r="L219" s="12"/>
+      <c r="J219" s="12" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A220" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B220" s="12"/>
-      <c r="C220" s="12"/>
-      <c r="D220" s="12"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="12"/>
-      <c r="G220" s="12"/>
-      <c r="H220" s="12"/>
       <c r="I220" s="12"/>
-      <c r="J220" s="12"/>
-      <c r="L220" s="12"/>
+      <c r="J220" s="12" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A221" s="12"/>
-      <c r="B221" s="12"/>
-      <c r="C221" s="12"/>
-      <c r="D221" s="12"/>
-      <c r="E221" s="12"/>
-      <c r="F221" s="12"/>
-      <c r="G221" s="12"/>
-      <c r="H221" s="12"/>
       <c r="I221" s="12"/>
-      <c r="J221" s="12"/>
-      <c r="L221" s="12"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A222" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B222" s="12"/>
-      <c r="C222" s="12"/>
-      <c r="D222" s="12"/>
-      <c r="E222" s="12"/>
-      <c r="F222" s="12"/>
-      <c r="G222" s="12">
-        <v>40</v>
-      </c>
-      <c r="H222" s="12">
-        <v>40</v>
-      </c>
-      <c r="I222" s="12"/>
-      <c r="J222" s="12"/>
-      <c r="L222" s="12"/>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A223" s="12"/>
-      <c r="B223" s="12"/>
-      <c r="C223" s="12"/>
-      <c r="D223" s="12"/>
-      <c r="E223" s="12"/>
-      <c r="F223" s="12"/>
-      <c r="G223" s="12"/>
-      <c r="H223" s="12"/>
-      <c r="I223" s="12"/>
-      <c r="J223" s="12"/>
-      <c r="L223" s="12"/>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A224" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B224" s="12"/>
-      <c r="C224" s="12"/>
-      <c r="D224" s="12"/>
-      <c r="E224" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="F224" s="12"/>
-      <c r="G224" s="12"/>
-      <c r="H224" s="12"/>
-      <c r="I224" s="12"/>
-      <c r="J224" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="L224" s="12"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A225" s="12"/>
-      <c r="B225" s="12"/>
-      <c r="C225" s="12"/>
-      <c r="D225" s="12"/>
-      <c r="E225" s="12" t="s">
+      <c r="J221" s="12" t="s">
         <v>272</v>
-      </c>
-      <c r="F225" s="12"/>
-      <c r="I225" s="12"/>
-      <c r="J225" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I226" s="12"/>
-      <c r="J226" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I227" s="12"/>
-      <c r="J227" s="12" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -23451,7 +23324,7 @@
   <dimension ref="A1:O224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23464,31 +23337,31 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>296</v>
-      </c>
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="K2" s="14"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -24813,17 +24686,17 @@
       <c r="O86" s="12"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
-      <c r="K87" s="14"/>
+      <c r="K87" s="13"/>
       <c r="O87" s="12"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -24971,17 +24844,17 @@
       <c r="O96" s="12"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="14"/>
+      <c r="B97" s="13"/>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
-      <c r="K97" s="14"/>
+      <c r="K97" s="13"/>
       <c r="O97" s="12"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
@@ -25075,17 +24948,17 @@
       <c r="O103" s="12"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B104" s="14"/>
+      <c r="B104" s="13"/>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
-      <c r="K104" s="14"/>
+      <c r="K104" s="13"/>
       <c r="O104" s="12"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -25163,7 +25036,7 @@
       <c r="O109" s="12"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B110" s="12"/>
@@ -25173,7 +25046,7 @@
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
-      <c r="K110" s="14"/>
+      <c r="K110" s="13"/>
       <c r="O110" s="12"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -25305,17 +25178,17 @@
       <c r="O117" s="12"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B118" s="14"/>
+      <c r="B118" s="13"/>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
-      <c r="K118" s="14"/>
+      <c r="K118" s="13"/>
       <c r="O118" s="12"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
@@ -25421,7 +25294,7 @@
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
-      <c r="K124" s="14"/>
+      <c r="K124" s="13"/>
       <c r="O124" s="12"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
@@ -25437,17 +25310,17 @@
       <c r="O125" s="12"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B126" s="14"/>
+      <c r="B126" s="13"/>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
-      <c r="K126" s="14"/>
+      <c r="K126" s="13"/>
       <c r="O126" s="12"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
@@ -25589,17 +25462,17 @@
       <c r="O135" s="12"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B136" s="14"/>
+      <c r="B136" s="13"/>
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
-      <c r="K136" s="14"/>
+      <c r="K136" s="13"/>
       <c r="O136" s="12"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
@@ -25716,7 +25589,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -25966,7 +25839,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G160" s="12">
         <v>7068</v>
@@ -26202,7 +26075,7 @@
       <c r="O174" s="12"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A175" s="14" t="s">
+      <c r="A175" s="13" t="s">
         <v>153</v>
       </c>
       <c r="B175" s="12"/>
@@ -26212,7 +26085,7 @@
       <c r="F175" s="12"/>
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
-      <c r="K175" s="14"/>
+      <c r="K175" s="13"/>
       <c r="O175" s="12"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
@@ -26248,17 +26121,17 @@
       <c r="O177" s="12"/>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A178" s="14" t="s">
+      <c r="A178" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B178" s="14"/>
+      <c r="B178" s="13"/>
       <c r="C178" s="12"/>
       <c r="D178" s="12"/>
       <c r="E178" s="12"/>
       <c r="F178" s="12"/>
       <c r="G178" s="12"/>
       <c r="H178" s="12"/>
-      <c r="K178" s="14"/>
+      <c r="K178" s="13"/>
       <c r="O178" s="12"/>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.3">
@@ -26310,17 +26183,17 @@
       <c r="O181" s="12"/>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A182" s="14" t="s">
+      <c r="A182" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B182" s="14"/>
+      <c r="B182" s="13"/>
       <c r="C182" s="12"/>
       <c r="D182" s="12"/>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
-      <c r="K182" s="14"/>
+      <c r="K182" s="13"/>
       <c r="O182" s="12"/>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.3">
@@ -26446,11 +26319,11 @@
       <c r="F191" s="12"/>
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
-      <c r="K191" s="14"/>
+      <c r="K191" s="13"/>
       <c r="O191" s="12"/>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A192" s="14" t="s">
+      <c r="A192" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B192" s="12"/>
@@ -26584,11 +26457,11 @@
       <c r="F200" s="12"/>
       <c r="G200" s="12"/>
       <c r="H200" s="12"/>
-      <c r="K200" s="14"/>
+      <c r="K200" s="13"/>
       <c r="O200" s="12"/>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A201" s="14" t="s">
+      <c r="A201" s="13" t="s">
         <v>172</v>
       </c>
       <c r="B201" s="12"/>
@@ -26638,15 +26511,15 @@
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
       <c r="H204" s="12"/>
-      <c r="K204" s="14"/>
+      <c r="K204" s="13"/>
       <c r="O204" s="12"/>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A205" s="14" t="s">
+      <c r="A205" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B205" s="14"/>
-      <c r="C205" s="14"/>
+      <c r="B205" s="13"/>
+      <c r="C205" s="13"/>
       <c r="D205" s="12"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
@@ -26708,14 +26581,14 @@
       <c r="F209" s="12"/>
       <c r="G209" s="12"/>
       <c r="H209" s="12"/>
-      <c r="K209" s="14"/>
+      <c r="K209" s="13"/>
       <c r="O209" s="12"/>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A210" s="14" t="s">
+      <c r="A210" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B210" s="14"/>
+      <c r="B210" s="13"/>
       <c r="C210" s="12"/>
       <c r="D210" s="12"/>
       <c r="E210" s="12"/>
@@ -26851,7 +26724,7 @@
       <c r="E219" s="12"/>
       <c r="F219" s="12"/>
       <c r="G219" s="12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H219" s="12"/>
       <c r="O219" s="12"/>
@@ -26864,7 +26737,7 @@
       <c r="E220" s="12"/>
       <c r="F220" s="12"/>
       <c r="G220" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H220" s="12"/>
       <c r="O220" s="12"/>
@@ -26876,8 +26749,8 @@
       <c r="D221" s="12"/>
       <c r="E221" s="12"/>
       <c r="F221" s="12"/>
-      <c r="G221" s="15" t="s">
-        <v>281</v>
+      <c r="G221" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="H221" s="12"/>
       <c r="O221" s="12"/>
@@ -26890,14 +26763,14 @@
       <c r="E222" s="12"/>
       <c r="F222" s="12"/>
       <c r="G222" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H222" s="12"/>
       <c r="O222" s="12"/>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G223" s="12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H223" s="12"/>
       <c r="O223" s="12"/>
@@ -26914,7 +26787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D398308-B2AA-4475-9367-F03994D11E57}">
   <dimension ref="A1:G218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -26928,20 +26801,20 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -27982,11 +27855,11 @@
       <c r="G86" s="12"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
@@ -28104,10 +27977,10 @@
       <c r="G96" s="12"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="14"/>
+      <c r="B97" s="13"/>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
@@ -28185,10 +28058,10 @@
       <c r="G103" s="12"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B104" s="14"/>
+      <c r="B104" s="13"/>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
@@ -28257,7 +28130,7 @@
       <c r="G109" s="12"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B110" s="12"/>
@@ -28365,10 +28238,10 @@
       <c r="G117" s="12"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B118" s="14"/>
+      <c r="B118" s="13"/>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
@@ -28443,10 +28316,10 @@
       <c r="G123" s="12"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B124" s="14"/>
+      <c r="B124" s="13"/>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
@@ -28463,10 +28336,10 @@
       <c r="G125" s="12"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B126" s="14"/>
+      <c r="B126" s="13"/>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
@@ -28583,10 +28456,10 @@
       <c r="G135" s="12"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B136" s="14"/>
+      <c r="B136" s="13"/>
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
@@ -28641,7 +28514,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -29058,7 +28931,7 @@
       <c r="G174" s="12"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="14" t="s">
+      <c r="A175" s="13" t="s">
         <v>153</v>
       </c>
       <c r="B175" s="12"/>
@@ -29093,10 +28966,10 @@
       <c r="G177" s="12"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="14" t="s">
+      <c r="A178" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B178" s="14"/>
+      <c r="B178" s="13"/>
       <c r="C178" s="12"/>
       <c r="D178" s="12"/>
       <c r="E178" s="12"/>
@@ -29141,10 +29014,10 @@
       <c r="G181" s="12"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="14" t="s">
+      <c r="A182" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B182" s="14"/>
+      <c r="B182" s="13"/>
       <c r="C182" s="12"/>
       <c r="D182" s="12"/>
       <c r="E182" s="12"/>
@@ -29246,7 +29119,7 @@
       <c r="G190" s="12"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="14" t="s">
+      <c r="A191" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B191" s="12"/>
@@ -29355,7 +29228,7 @@
       <c r="G199" s="12"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="14" t="s">
+      <c r="A200" s="13" t="s">
         <v>172</v>
       </c>
       <c r="B200" s="12"/>
@@ -29397,11 +29270,11 @@
       <c r="G203" s="12"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="14" t="s">
+      <c r="A204" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B204" s="14"/>
-      <c r="C204" s="14"/>
+      <c r="B204" s="13"/>
+      <c r="C204" s="13"/>
       <c r="D204" s="12"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
@@ -29454,10 +29327,10 @@
       <c r="G208" s="12"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="14" t="s">
+      <c r="A209" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B209" s="14"/>
+      <c r="B209" s="13"/>
       <c r="C209" s="12"/>
       <c r="D209" s="12"/>
       <c r="E209" s="12"/>

--- a/files/Calvert_phyto.xlsx
+++ b/files/Calvert_phyto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin.belluz\Documents\R\microscopy_OBIS\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DE9DCB-F1FA-4EB4-B744-BAD42505454B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6DD59F-54AF-439B-BA05-3E43C963C49E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" activeTab="6" xr2:uid="{097FCDEB-8C97-4367-A565-6CEADFA41F06}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="DFO2_3" sheetId="8" r:id="rId8"/>
     <sheet name="DFO2_4" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="298">
   <si>
     <t>Bacillariophyta</t>
   </si>
@@ -987,6 +987,15 @@
   <si>
     <t>CPHY539</t>
   </si>
+  <si>
+    <t>CPHY534</t>
+  </si>
+  <si>
+    <t>CPHY537</t>
+  </si>
+  <si>
+    <t>CPHY540</t>
+  </si>
 </sst>
 </file>
 
@@ -19451,15 +19460,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670708D3-8086-459A-8CCF-F66DE9B4A94E}">
-  <dimension ref="A1:L221"/>
+  <dimension ref="A1:N221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>230</v>
       </c>
@@ -19481,16 +19490,28 @@
       <c r="J1" s="12" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>200</v>
       </c>
@@ -19505,9 +19526,12 @@
         <v>40</v>
       </c>
       <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -19520,9 +19544,12 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
@@ -19535,9 +19562,12 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
@@ -19552,9 +19582,12 @@
       <c r="J6" s="12">
         <v>3500</v>
       </c>
+      <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
@@ -19567,9 +19600,12 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
@@ -19582,9 +19618,12 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -19599,9 +19638,14 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
+      <c r="K9" s="12">
+        <v>1110</v>
+      </c>
       <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>201</v>
       </c>
@@ -19614,9 +19658,12 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
       <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -19633,9 +19680,14 @@
       <c r="J11" s="12">
         <v>666</v>
       </c>
+      <c r="K11" s="12">
+        <v>111</v>
+      </c>
       <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
@@ -19654,9 +19706,12 @@
       <c r="J12" s="12">
         <v>7881</v>
       </c>
+      <c r="K12" s="12"/>
       <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
@@ -19671,9 +19726,12 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
       <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
@@ -19686,9 +19744,12 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
@@ -19701,9 +19762,12 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
@@ -19716,9 +19780,12 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
@@ -19735,9 +19802,12 @@
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>15</v>
       </c>
@@ -19758,9 +19828,14 @@
       <c r="J18" s="12">
         <v>60334</v>
       </c>
+      <c r="K18" s="12">
+        <v>20200</v>
+      </c>
       <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -19773,9 +19848,12 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>17</v>
       </c>
@@ -19792,9 +19870,12 @@
       <c r="J20" s="12">
         <v>1110</v>
       </c>
+      <c r="K20" s="12"/>
       <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>18</v>
       </c>
@@ -19809,9 +19890,12 @@
       <c r="J21" s="12">
         <v>3108</v>
       </c>
+      <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>19</v>
       </c>
@@ -19824,9 +19908,12 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
@@ -19841,9 +19928,12 @@
       <c r="J23" s="12">
         <v>666</v>
       </c>
+      <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>21</v>
       </c>
@@ -19860,9 +19950,14 @@
       <c r="J24" s="12">
         <v>777</v>
       </c>
+      <c r="K24" s="12">
+        <v>444</v>
+      </c>
       <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
@@ -19875,9 +19970,12 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>23</v>
       </c>
@@ -19890,9 +19988,12 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
       <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>24</v>
       </c>
@@ -19909,9 +20010,12 @@
       <c r="J27" s="12">
         <v>1554</v>
       </c>
+      <c r="K27" s="12"/>
       <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>25</v>
       </c>
@@ -19928,9 +20032,14 @@
       <c r="J28" s="12">
         <v>2664</v>
       </c>
+      <c r="K28" s="12">
+        <v>2220</v>
+      </c>
       <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>26</v>
       </c>
@@ -19943,9 +20052,12 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
       <c r="L29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>27</v>
       </c>
@@ -19960,9 +20072,14 @@
       <c r="J30" s="12">
         <v>666</v>
       </c>
+      <c r="K30" s="12">
+        <v>1110</v>
+      </c>
       <c r="L30" s="12"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>28</v>
       </c>
@@ -19975,9 +20092,12 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
       <c r="L31" s="12"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>29</v>
       </c>
@@ -19996,9 +20116,12 @@
       <c r="J32" s="12">
         <v>2331</v>
       </c>
+      <c r="K32" s="12"/>
       <c r="L32" s="12"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>30</v>
       </c>
@@ -20017,9 +20140,16 @@
       <c r="J33" s="12">
         <v>1332</v>
       </c>
-      <c r="L33" s="12"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K33" s="12">
+        <v>555</v>
+      </c>
+      <c r="L33" s="12">
+        <v>40</v>
+      </c>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>31</v>
       </c>
@@ -20032,9 +20162,12 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
       <c r="L34" s="12"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>32</v>
       </c>
@@ -20049,9 +20182,12 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>33</v>
       </c>
@@ -20072,9 +20208,12 @@
       <c r="J36" s="12">
         <v>555</v>
       </c>
+      <c r="K36" s="12"/>
       <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>34</v>
       </c>
@@ -20093,9 +20232,14 @@
       <c r="J37" s="12">
         <v>111</v>
       </c>
-      <c r="L37" s="12"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K37" s="12"/>
+      <c r="L37" s="12">
+        <v>40</v>
+      </c>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>35</v>
       </c>
@@ -20118,9 +20262,14 @@
       <c r="J38" s="12">
         <v>14000</v>
       </c>
-      <c r="L38" s="12"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K38" s="12"/>
+      <c r="L38" s="12">
+        <v>3182</v>
+      </c>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>36</v>
       </c>
@@ -20135,9 +20284,12 @@
         <v>40</v>
       </c>
       <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
       <c r="L39" s="12"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>37</v>
       </c>
@@ -20150,9 +20302,12 @@
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
       <c r="L40" s="12"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>38</v>
       </c>
@@ -20167,9 +20322,12 @@
       <c r="J41" s="12">
         <v>111</v>
       </c>
+      <c r="K41" s="12"/>
       <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>39</v>
       </c>
@@ -20194,9 +20352,18 @@
       <c r="J42" s="12">
         <v>2220</v>
       </c>
-      <c r="L42" s="12"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K42" s="12">
+        <v>222</v>
+      </c>
+      <c r="L42" s="12">
+        <v>40</v>
+      </c>
+      <c r="M42" s="12">
+        <v>40</v>
+      </c>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>40</v>
       </c>
@@ -20217,9 +20384,16 @@
       <c r="J43" s="12">
         <v>333</v>
       </c>
+      <c r="K43" s="12">
+        <v>444</v>
+      </c>
       <c r="L43" s="12"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="12">
+        <v>80</v>
+      </c>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>41</v>
       </c>
@@ -20236,9 +20410,12 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
       <c r="L44" s="12"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>42</v>
       </c>
@@ -20257,9 +20434,12 @@
       <c r="J45" s="12">
         <v>111</v>
       </c>
+      <c r="K45" s="12"/>
       <c r="L45" s="12"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>43</v>
       </c>
@@ -20274,9 +20454,16 @@
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
-      <c r="L46" s="12"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K46" s="12">
+        <v>2331</v>
+      </c>
+      <c r="L46" s="12">
+        <v>160</v>
+      </c>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>202</v>
       </c>
@@ -20289,9 +20476,12 @@
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
       <c r="L47" s="12"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>44</v>
       </c>
@@ -20304,9 +20494,14 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
+      <c r="K48" s="12">
+        <v>555</v>
+      </c>
       <c r="L48" s="12"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>45</v>
       </c>
@@ -20319,9 +20514,16 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
+      <c r="K49" s="12">
+        <v>2220</v>
+      </c>
       <c r="L49" s="12"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="12">
+        <v>40</v>
+      </c>
+      <c r="N49" s="12"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>46</v>
       </c>
@@ -20334,9 +20536,12 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
       <c r="L50" s="12"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>47</v>
       </c>
@@ -20349,9 +20554,12 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
       <c r="L51" s="12"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>48</v>
       </c>
@@ -20368,9 +20576,12 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
       <c r="L52" s="12"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>203</v>
       </c>
@@ -20383,9 +20594,12 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
       <c r="L53" s="12"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>49</v>
       </c>
@@ -20398,9 +20612,12 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
       <c r="L54" s="12"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>50</v>
       </c>
@@ -20415,9 +20632,12 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
       <c r="L55" s="12"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>51</v>
       </c>
@@ -20430,9 +20650,12 @@
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
       <c r="L56" s="12"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>52</v>
       </c>
@@ -20445,9 +20668,12 @@
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
       <c r="L57" s="12"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>53</v>
       </c>
@@ -20460,9 +20686,12 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
       <c r="L58" s="12"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>54</v>
       </c>
@@ -20475,9 +20704,12 @@
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
       <c r="L59" s="12"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>55</v>
       </c>
@@ -20490,9 +20722,12 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
       <c r="L60" s="12"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>56</v>
       </c>
@@ -20507,9 +20742,12 @@
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
       <c r="L61" s="12"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>57</v>
       </c>
@@ -20526,9 +20764,12 @@
       <c r="J62" s="12">
         <v>111</v>
       </c>
+      <c r="K62" s="12"/>
       <c r="L62" s="12"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>58</v>
       </c>
@@ -20549,9 +20790,12 @@
         <v>640</v>
       </c>
       <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
       <c r="L63" s="12"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>59</v>
       </c>
@@ -20572,9 +20816,18 @@
       <c r="J64" s="12">
         <v>666</v>
       </c>
-      <c r="L64" s="12"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K64" s="12">
+        <v>222</v>
+      </c>
+      <c r="L64" s="12">
+        <v>160</v>
+      </c>
+      <c r="M64" s="12">
+        <v>160</v>
+      </c>
+      <c r="N64" s="12"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>60</v>
       </c>
@@ -20591,9 +20844,14 @@
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
+      <c r="K65" s="12">
+        <v>222</v>
+      </c>
       <c r="L65" s="12"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
         <v>61</v>
       </c>
@@ -20608,9 +20866,14 @@
         <v>40</v>
       </c>
       <c r="J66" s="12"/>
+      <c r="K66" s="12">
+        <v>222</v>
+      </c>
       <c r="L66" s="12"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>61</v>
       </c>
@@ -20625,9 +20888,12 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
       <c r="L67" s="12"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>62</v>
       </c>
@@ -20650,9 +20916,16 @@
       <c r="J68" s="12">
         <v>121360</v>
       </c>
-      <c r="L68" s="12"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K68" s="12">
+        <v>268000</v>
+      </c>
+      <c r="L68" s="12">
+        <v>2200</v>
+      </c>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>63</v>
       </c>
@@ -20677,9 +20950,18 @@
       <c r="J69" s="12">
         <v>162000</v>
       </c>
-      <c r="L69" s="12"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K69" s="12">
+        <v>118400</v>
+      </c>
+      <c r="L69" s="12">
+        <v>5002</v>
+      </c>
+      <c r="M69" s="12">
+        <v>280</v>
+      </c>
+      <c r="N69" s="12"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>204</v>
       </c>
@@ -20694,9 +20976,12 @@
         <v>80</v>
       </c>
       <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
       <c r="L70" s="12"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>64</v>
       </c>
@@ -20709,9 +20994,12 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
       <c r="L71" s="12"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>65</v>
       </c>
@@ -20726,9 +21014,12 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
       <c r="L72" s="12"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>66</v>
       </c>
@@ -20753,9 +21044,16 @@
       <c r="J73" s="12">
         <v>1332</v>
       </c>
-      <c r="L73" s="12"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K73" s="12">
+        <v>4662</v>
+      </c>
+      <c r="L73" s="12">
+        <v>80</v>
+      </c>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>67</v>
       </c>
@@ -20768,9 +21066,12 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
       <c r="L74" s="12"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>68</v>
       </c>
@@ -20789,9 +21090,14 @@
       <c r="J75" s="12">
         <v>37000</v>
       </c>
+      <c r="K75" s="12">
+        <v>3330</v>
+      </c>
       <c r="L75" s="12"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>69</v>
       </c>
@@ -20808,9 +21114,12 @@
       <c r="J76" s="12">
         <v>59200</v>
       </c>
+      <c r="K76" s="12"/>
       <c r="L76" s="12"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>70</v>
       </c>
@@ -20827,9 +21136,14 @@
       <c r="J77" s="12">
         <v>666</v>
       </c>
+      <c r="K77" s="12">
+        <v>1776</v>
+      </c>
       <c r="L77" s="12"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
         <v>71</v>
       </c>
@@ -20854,9 +21168,18 @@
       <c r="J78" s="12">
         <v>28600</v>
       </c>
-      <c r="L78" s="12"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K78" s="12">
+        <v>2997</v>
+      </c>
+      <c r="L78" s="12">
+        <v>200</v>
+      </c>
+      <c r="M78" s="12">
+        <v>80</v>
+      </c>
+      <c r="N78" s="12"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>72</v>
       </c>
@@ -20871,9 +21194,12 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
       <c r="L79" s="12"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>73</v>
       </c>
@@ -20888,9 +21214,16 @@
       </c>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
-      <c r="L80" s="12"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K80" s="12">
+        <v>777</v>
+      </c>
+      <c r="L80" s="12">
+        <v>80</v>
+      </c>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>74</v>
       </c>
@@ -20913,9 +21246,14 @@
       <c r="J81" s="12">
         <v>52500</v>
       </c>
+      <c r="K81" s="12"/>
       <c r="L81" s="12"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M81" s="12">
+        <v>1750</v>
+      </c>
+      <c r="N81" s="12"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
         <v>75</v>
       </c>
@@ -20940,9 +21278,18 @@
       <c r="J82" s="12">
         <v>1443</v>
       </c>
-      <c r="L82" s="12"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K82" s="12">
+        <v>333</v>
+      </c>
+      <c r="L82" s="12">
+        <v>80</v>
+      </c>
+      <c r="M82" s="12">
+        <v>200</v>
+      </c>
+      <c r="N82" s="12"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
         <v>76</v>
       </c>
@@ -20961,9 +21308,16 @@
       </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
-      <c r="L83" s="12"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K83" s="12">
+        <v>5000</v>
+      </c>
+      <c r="L83" s="12">
+        <v>3182</v>
+      </c>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
         <v>77</v>
       </c>
@@ -20976,9 +21330,12 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
       <c r="L84" s="12"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>78</v>
       </c>
@@ -21009,9 +21366,21 @@
         <f t="shared" si="0"/>
         <v>568908</v>
       </c>
-      <c r="L85" s="12"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K85" s="12">
+        <f t="shared" ref="K85:M85" si="1">SUM(K3:K84)</f>
+        <v>437463</v>
+      </c>
+      <c r="L85" s="12">
+        <f t="shared" si="1"/>
+        <v>14446</v>
+      </c>
+      <c r="M85" s="12">
+        <f t="shared" si="1"/>
+        <v>2630</v>
+      </c>
+      <c r="N85" s="12"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -21022,9 +21391,12 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
       <c r="L86" s="12"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>79</v>
       </c>
@@ -21037,9 +21409,12 @@
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
       <c r="L87" s="12"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
         <v>80</v>
       </c>
@@ -21052,9 +21427,12 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
       <c r="L88" s="12"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>81</v>
       </c>
@@ -21075,9 +21453,14 @@
       </c>
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
+      <c r="K89" s="12">
+        <v>5000</v>
+      </c>
       <c r="L89" s="12"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>82</v>
       </c>
@@ -21092,9 +21475,12 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
       <c r="L90" s="12"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
         <v>83</v>
       </c>
@@ -21111,9 +21497,16 @@
         <v>2917</v>
       </c>
       <c r="J91" s="12"/>
-      <c r="L91" s="12"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K91" s="12">
+        <v>5000</v>
+      </c>
+      <c r="L91" s="12">
+        <v>3182</v>
+      </c>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
         <v>84</v>
       </c>
@@ -21138,9 +21531,16 @@
       <c r="J92" s="12">
         <v>14000</v>
       </c>
-      <c r="L92" s="12"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K92" s="12">
+        <v>25000</v>
+      </c>
+      <c r="L92" s="12">
+        <v>12728</v>
+      </c>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
         <v>85</v>
       </c>
@@ -21153,9 +21553,12 @@
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
       <c r="L93" s="12"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
         <v>86</v>
       </c>
@@ -21168,9 +21571,12 @@
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
       <c r="L94" s="12"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
         <v>87</v>
       </c>
@@ -21195,9 +21601,18 @@
       <c r="J95" s="12">
         <v>42000</v>
       </c>
-      <c r="L95" s="12"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K95" s="12">
+        <v>185000</v>
+      </c>
+      <c r="L95" s="12">
+        <v>85914</v>
+      </c>
+      <c r="M95" s="12">
+        <v>14000</v>
+      </c>
+      <c r="N95" s="12"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -21208,9 +21623,12 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
       <c r="L96" s="12"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>88</v>
       </c>
@@ -21223,9 +21641,12 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
       <c r="L97" s="12"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
         <v>89</v>
       </c>
@@ -21238,9 +21659,12 @@
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
       <c r="L98" s="12"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
         <v>90</v>
       </c>
@@ -21255,9 +21679,12 @@
       <c r="J99" s="12">
         <v>10500</v>
       </c>
+      <c r="K99" s="12"/>
       <c r="L99" s="12"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
         <v>91</v>
       </c>
@@ -21276,9 +21703,14 @@
       <c r="J100" s="12">
         <v>14000</v>
       </c>
+      <c r="K100" s="12">
+        <v>5000</v>
+      </c>
       <c r="L100" s="12"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
         <v>92</v>
       </c>
@@ -21293,9 +21725,12 @@
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
       <c r="L101" s="12"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
         <v>87</v>
       </c>
@@ -21320,9 +21755,18 @@
       <c r="J102" s="12">
         <v>70000</v>
       </c>
-      <c r="L102" s="12"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K102" s="12">
+        <v>65000</v>
+      </c>
+      <c r="L102" s="12">
+        <v>38184</v>
+      </c>
+      <c r="M102" s="12">
+        <v>3500</v>
+      </c>
+      <c r="N102" s="12"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -21333,9 +21777,12 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
       <c r="L103" s="12"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>93</v>
       </c>
@@ -21348,9 +21795,12 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
       <c r="L104" s="12"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
         <v>94</v>
       </c>
@@ -21365,9 +21815,12 @@
       <c r="J105" s="12">
         <v>3500</v>
       </c>
+      <c r="K105" s="12"/>
       <c r="L105" s="12"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
         <v>205</v>
       </c>
@@ -21380,9 +21833,12 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
       <c r="L106" s="12"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
         <v>206</v>
       </c>
@@ -21397,9 +21853,12 @@
         <v>2917</v>
       </c>
       <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
       <c r="L107" s="12"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
         <v>87</v>
       </c>
@@ -21412,9 +21871,12 @@
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
       <c r="L108" s="12"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -21425,9 +21887,12 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
       <c r="L109" s="12"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>97</v>
       </c>
@@ -21440,9 +21905,12 @@
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
       <c r="L110" s="12"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
         <v>98</v>
       </c>
@@ -21457,9 +21925,12 @@
         <v>40</v>
       </c>
       <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
       <c r="L111" s="12"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="12" t="s">
         <v>99</v>
       </c>
@@ -21484,9 +21955,18 @@
       <c r="J112" s="12">
         <v>333</v>
       </c>
-      <c r="L112" s="12"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K112" s="12">
+        <v>1443</v>
+      </c>
+      <c r="L112" s="12">
+        <v>560</v>
+      </c>
+      <c r="M112" s="12">
+        <v>320</v>
+      </c>
+      <c r="N112" s="12"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
         <v>100</v>
       </c>
@@ -21511,9 +21991,18 @@
       <c r="J113" s="12">
         <v>888</v>
       </c>
-      <c r="L113" s="12"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K113" s="12">
+        <v>1776</v>
+      </c>
+      <c r="L113" s="12">
+        <v>800</v>
+      </c>
+      <c r="M113" s="12">
+        <v>200</v>
+      </c>
+      <c r="N113" s="12"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
         <v>101</v>
       </c>
@@ -21526,9 +22015,12 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
       <c r="L114" s="12"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
         <v>102</v>
       </c>
@@ -21553,9 +22045,18 @@
       <c r="J115" s="12">
         <v>1887</v>
       </c>
-      <c r="L115" s="12"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K115" s="12">
+        <v>2997</v>
+      </c>
+      <c r="L115" s="12">
+        <v>1960</v>
+      </c>
+      <c r="M115" s="12">
+        <v>520</v>
+      </c>
+      <c r="N115" s="12"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="12" t="s">
         <v>103</v>
       </c>
@@ -21572,9 +22073,16 @@
         <v>40</v>
       </c>
       <c r="J116" s="12"/>
-      <c r="L116" s="12"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K116" s="12">
+        <v>555</v>
+      </c>
+      <c r="L116" s="12">
+        <v>80</v>
+      </c>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -21585,9 +22093,12 @@
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
       <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
       <c r="L117" s="12"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
         <v>104</v>
       </c>
@@ -21600,9 +22111,12 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
       <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
       <c r="L118" s="12"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
         <v>105</v>
       </c>
@@ -21627,9 +22141,18 @@
       <c r="J119" s="12">
         <v>91000</v>
       </c>
-      <c r="L119" s="12"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K119" s="12">
+        <v>215000</v>
+      </c>
+      <c r="L119" s="12">
+        <v>95460</v>
+      </c>
+      <c r="M119" s="12">
+        <v>10500</v>
+      </c>
+      <c r="N119" s="12"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
         <v>106</v>
       </c>
@@ -21644,9 +22167,14 @@
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
       <c r="J120" s="12"/>
-      <c r="L120" s="12"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K120" s="12"/>
+      <c r="L120" s="12">
+        <v>3182</v>
+      </c>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="12" t="s">
         <v>107</v>
       </c>
@@ -21659,9 +22187,16 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="12"/>
-      <c r="L121" s="12"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K121" s="12">
+        <v>10000</v>
+      </c>
+      <c r="L121" s="12">
+        <v>3182</v>
+      </c>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="12" t="s">
         <v>108</v>
       </c>
@@ -21686,9 +22221,18 @@
       <c r="J122" s="12">
         <v>52500</v>
       </c>
-      <c r="L122" s="12"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K122" s="12">
+        <v>190000</v>
+      </c>
+      <c r="L122" s="12">
+        <v>66822</v>
+      </c>
+      <c r="M122" s="12">
+        <v>8750</v>
+      </c>
+      <c r="N122" s="12"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -21699,9 +22243,12 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
       <c r="L123" s="12"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="12" t="s">
         <v>109</v>
       </c>
@@ -21714,9 +22261,12 @@
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
       <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
       <c r="L124" s="12"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -21727,9 +22277,12 @@
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
       <c r="L125" s="12"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M125" s="12"/>
+      <c r="N125" s="12"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
         <v>110</v>
       </c>
@@ -21742,9 +22295,12 @@
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
       <c r="L126" s="12"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M126" s="12"/>
+      <c r="N126" s="12"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
         <v>111</v>
       </c>
@@ -21761,9 +22317,14 @@
       <c r="J127" s="12">
         <v>111</v>
       </c>
+      <c r="K127" s="12">
+        <v>111</v>
+      </c>
       <c r="L127" s="12"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
         <v>112</v>
       </c>
@@ -21776,9 +22337,14 @@
       <c r="H128" s="12"/>
       <c r="I128" s="12"/>
       <c r="J128" s="12"/>
+      <c r="K128" s="12">
+        <v>111</v>
+      </c>
       <c r="L128" s="12"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M128" s="12"/>
+      <c r="N128" s="12"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="12" t="s">
         <v>113</v>
       </c>
@@ -21791,9 +22357,12 @@
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
       <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
       <c r="L129" s="12"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
         <v>114</v>
       </c>
@@ -21816,9 +22385,18 @@
         <v>360</v>
       </c>
       <c r="J130" s="12"/>
-      <c r="L130" s="12"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K130" s="12">
+        <v>333</v>
+      </c>
+      <c r="L130" s="12">
+        <v>160</v>
+      </c>
+      <c r="M130" s="12">
+        <v>40</v>
+      </c>
+      <c r="N130" s="12"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
         <v>115</v>
       </c>
@@ -21833,9 +22411,16 @@
       </c>
       <c r="I131" s="12"/>
       <c r="J131" s="12"/>
-      <c r="L131" s="12"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K131" s="12">
+        <v>2775</v>
+      </c>
+      <c r="L131" s="12">
+        <v>440</v>
+      </c>
+      <c r="M131" s="12"/>
+      <c r="N131" s="12"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="12" t="s">
         <v>116</v>
       </c>
@@ -21852,9 +22437,12 @@
       <c r="J132" s="12">
         <v>3500</v>
       </c>
+      <c r="K132" s="12"/>
       <c r="L132" s="12"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M132" s="12"/>
+      <c r="N132" s="12"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="12" t="s">
         <v>117</v>
       </c>
@@ -21867,9 +22455,12 @@
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
       <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
       <c r="L133" s="12"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="12" t="s">
         <v>118</v>
       </c>
@@ -21882,9 +22473,12 @@
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
       <c r="L134" s="12"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M134" s="12"/>
+      <c r="N134" s="12"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -21895,9 +22489,12 @@
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
       <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
       <c r="L135" s="12"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
         <v>119</v>
       </c>
@@ -21910,9 +22507,12 @@
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
       <c r="L136" s="12"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
         <v>120</v>
       </c>
@@ -21925,9 +22525,12 @@
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
       <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
       <c r="L137" s="12"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M137" s="12"/>
+      <c r="N137" s="12"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
         <v>121</v>
       </c>
@@ -21940,9 +22543,12 @@
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
       <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
       <c r="L138" s="12"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M138" s="12"/>
+      <c r="N138" s="12"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="12" t="s">
         <v>122</v>
       </c>
@@ -21955,9 +22561,12 @@
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
       <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
       <c r="L139" s="12"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
         <v>123</v>
       </c>
@@ -21974,9 +22583,16 @@
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
       <c r="J140" s="12"/>
-      <c r="L140" s="12"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K140" s="12">
+        <v>111</v>
+      </c>
+      <c r="L140" s="12">
+        <v>200</v>
+      </c>
+      <c r="M140" s="12"/>
+      <c r="N140" s="12"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="12" t="s">
         <v>266</v>
       </c>
@@ -21991,9 +22607,12 @@
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
       <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
       <c r="L141" s="12"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M141" s="12"/>
+      <c r="N141" s="12"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
         <v>124</v>
       </c>
@@ -22006,9 +22625,12 @@
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
       <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
       <c r="L142" s="12"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>125</v>
       </c>
@@ -22021,9 +22643,12 @@
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
       <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
       <c r="L143" s="12"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
         <v>207</v>
       </c>
@@ -22036,9 +22661,12 @@
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
       <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
       <c r="L144" s="12"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M144" s="12"/>
+      <c r="N144" s="12"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
         <v>208</v>
       </c>
@@ -22051,9 +22679,12 @@
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
       <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
       <c r="L145" s="12"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
         <v>259</v>
       </c>
@@ -22066,9 +22697,14 @@
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
       <c r="J146" s="12"/>
+      <c r="K146" s="12">
+        <v>222</v>
+      </c>
       <c r="L146" s="12"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M146" s="12"/>
+      <c r="N146" s="12"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
         <v>127</v>
       </c>
@@ -22085,9 +22721,14 @@
       <c r="J147" s="12">
         <v>111</v>
       </c>
+      <c r="K147" s="12">
+        <v>222</v>
+      </c>
       <c r="L147" s="12"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M147" s="12"/>
+      <c r="N147" s="12"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
         <v>128</v>
       </c>
@@ -22100,9 +22741,12 @@
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
       <c r="J148" s="12"/>
+      <c r="K148" s="12"/>
       <c r="L148" s="12"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M148" s="12"/>
+      <c r="N148" s="12"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
         <v>129</v>
       </c>
@@ -22115,9 +22759,14 @@
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
       <c r="J149" s="12"/>
+      <c r="K149" s="12">
+        <v>111</v>
+      </c>
       <c r="L149" s="12"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M149" s="12"/>
+      <c r="N149" s="12"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="12" t="s">
         <v>130</v>
       </c>
@@ -22130,9 +22779,12 @@
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
       <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
       <c r="L150" s="12"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M150" s="12"/>
+      <c r="N150" s="12"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="12" t="s">
         <v>131</v>
       </c>
@@ -22145,9 +22797,12 @@
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
       <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
       <c r="L151" s="12"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="12" t="s">
         <v>132</v>
       </c>
@@ -22162,9 +22817,14 @@
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
       <c r="J152" s="12"/>
+      <c r="K152" s="12">
+        <v>333</v>
+      </c>
       <c r="L152" s="12"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="12" t="s">
         <v>133</v>
       </c>
@@ -22189,9 +22849,18 @@
       <c r="J153" s="12">
         <v>1332</v>
       </c>
-      <c r="L153" s="12"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K153" s="12">
+        <v>4551</v>
+      </c>
+      <c r="L153" s="12">
+        <v>480</v>
+      </c>
+      <c r="M153" s="12">
+        <v>280</v>
+      </c>
+      <c r="N153" s="12"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="12" t="s">
         <v>134</v>
       </c>
@@ -22216,9 +22885,18 @@
       <c r="J154" s="12">
         <v>1332</v>
       </c>
-      <c r="L154" s="12"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K154" s="12">
+        <v>666</v>
+      </c>
+      <c r="L154" s="12">
+        <v>200</v>
+      </c>
+      <c r="M154" s="12">
+        <v>80</v>
+      </c>
+      <c r="N154" s="12"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="12" t="s">
         <v>135</v>
       </c>
@@ -22231,9 +22909,12 @@
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
       <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
       <c r="L155" s="12"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="12" t="s">
         <v>136</v>
       </c>
@@ -22258,9 +22939,18 @@
       <c r="J156" s="12">
         <v>1665</v>
       </c>
-      <c r="L156" s="12"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K156" s="12">
+        <v>666</v>
+      </c>
+      <c r="L156" s="12">
+        <v>3182</v>
+      </c>
+      <c r="M156" s="12">
+        <v>5250</v>
+      </c>
+      <c r="N156" s="12"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="12" t="s">
         <v>137</v>
       </c>
@@ -22273,9 +22963,12 @@
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
       <c r="L157" s="12"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M157" s="12"/>
+      <c r="N157" s="12"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="12" t="s">
         <v>138</v>
       </c>
@@ -22288,9 +22981,12 @@
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
       <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
       <c r="L158" s="12"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M158" s="12"/>
+      <c r="N158" s="12"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
         <v>139</v>
       </c>
@@ -22303,9 +22999,14 @@
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
       <c r="J159" s="12"/>
+      <c r="K159" s="12">
+        <v>5217</v>
+      </c>
       <c r="L159" s="12"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M159" s="12"/>
+      <c r="N159" s="12"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="12" t="s">
         <v>140</v>
       </c>
@@ -22318,9 +23019,18 @@
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
       <c r="J160" s="12"/>
-      <c r="L160" s="12"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K160" s="12">
+        <v>222</v>
+      </c>
+      <c r="L160" s="12">
+        <v>400</v>
+      </c>
+      <c r="M160" s="12">
+        <v>40</v>
+      </c>
+      <c r="N160" s="12"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="12" t="s">
         <v>141</v>
       </c>
@@ -22333,9 +23043,12 @@
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
       <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
       <c r="L161" s="12"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M161" s="12"/>
+      <c r="N161" s="12"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="12" t="s">
         <v>142</v>
       </c>
@@ -22348,9 +23061,12 @@
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
       <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
       <c r="L162" s="12"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M162" s="12"/>
+      <c r="N162" s="12"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
         <v>143</v>
       </c>
@@ -22363,9 +23079,12 @@
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
       <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
       <c r="L163" s="12"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M163" s="12"/>
+      <c r="N163" s="12"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="12" t="s">
         <v>144</v>
       </c>
@@ -22378,9 +23097,12 @@
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
       <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
       <c r="L164" s="12"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
         <v>145</v>
       </c>
@@ -22393,9 +23115,12 @@
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
       <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
       <c r="L165" s="12"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="12" t="s">
         <v>146</v>
       </c>
@@ -22410,9 +23135,16 @@
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
       <c r="J166" s="12"/>
-      <c r="L166" s="12"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K166" s="12">
+        <v>222</v>
+      </c>
+      <c r="L166" s="12">
+        <v>40</v>
+      </c>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
         <v>147</v>
       </c>
@@ -22431,9 +23163,14 @@
         <v>40</v>
       </c>
       <c r="J167" s="12"/>
+      <c r="K167" s="12">
+        <v>444</v>
+      </c>
       <c r="L167" s="12"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M167" s="12"/>
+      <c r="N167" s="12"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="12" t="s">
         <v>148</v>
       </c>
@@ -22448,9 +23185,12 @@
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
       <c r="L168" s="12"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="12" t="s">
         <v>149</v>
       </c>
@@ -22469,9 +23209,14 @@
       <c r="J169" s="12">
         <v>111</v>
       </c>
+      <c r="K169" s="12">
+        <v>888</v>
+      </c>
       <c r="L169" s="12"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
         <v>150</v>
       </c>
@@ -22486,9 +23231,16 @@
         <v>80</v>
       </c>
       <c r="J170" s="12"/>
+      <c r="K170" s="12">
+        <v>444</v>
+      </c>
       <c r="L170" s="12"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M170" s="12">
+        <v>40</v>
+      </c>
+      <c r="N170" s="12"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
         <v>151</v>
       </c>
@@ -22501,9 +23253,16 @@
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
       <c r="J171" s="12"/>
-      <c r="L171" s="12"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K171" s="12">
+        <v>111</v>
+      </c>
+      <c r="L171" s="12">
+        <v>160</v>
+      </c>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
         <v>87</v>
       </c>
@@ -22528,9 +23287,18 @@
       <c r="J172" s="12">
         <v>333</v>
       </c>
-      <c r="L172" s="12"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K172" s="12">
+        <v>1998</v>
+      </c>
+      <c r="L172" s="12">
+        <v>560</v>
+      </c>
+      <c r="M172" s="12">
+        <v>80</v>
+      </c>
+      <c r="N172" s="12"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
         <v>152</v>
       </c>
@@ -22555,9 +23323,18 @@
       <c r="J173" s="12">
         <v>7000</v>
       </c>
-      <c r="L173" s="12"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K173" s="12">
+        <v>5000</v>
+      </c>
+      <c r="L173" s="12">
+        <v>3182</v>
+      </c>
+      <c r="M173" s="12">
+        <v>5250</v>
+      </c>
+      <c r="N173" s="12"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -22568,9 +23345,12 @@
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
       <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
       <c r="L174" s="12"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="13" t="s">
         <v>153</v>
       </c>
@@ -22583,9 +23363,12 @@
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
       <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
       <c r="L175" s="12"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
         <v>154</v>
       </c>
@@ -22606,9 +23389,16 @@
       <c r="J176" s="12">
         <v>111</v>
       </c>
-      <c r="L176" s="12"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K176" s="12">
+        <v>1554</v>
+      </c>
+      <c r="L176" s="12">
+        <v>40</v>
+      </c>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -22619,9 +23409,12 @@
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
       <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
       <c r="L177" s="12"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="13" t="s">
         <v>155</v>
       </c>
@@ -22634,9 +23427,12 @@
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
       <c r="J178" s="12"/>
+      <c r="K178" s="12"/>
       <c r="L178" s="12"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M178" s="12"/>
+      <c r="N178" s="12"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="12" t="s">
         <v>156</v>
       </c>
@@ -22649,9 +23445,12 @@
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
       <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
       <c r="L179" s="12"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M179" s="12"/>
+      <c r="N179" s="12"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="12" t="s">
         <v>87</v>
       </c>
@@ -22674,9 +23473,18 @@
       <c r="J180" s="12">
         <v>333</v>
       </c>
-      <c r="L180" s="12"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K180" s="12">
+        <v>333</v>
+      </c>
+      <c r="L180" s="12">
+        <v>200</v>
+      </c>
+      <c r="M180" s="12">
+        <v>120</v>
+      </c>
+      <c r="N180" s="12"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -22687,9 +23495,12 @@
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
       <c r="J181" s="12"/>
+      <c r="K181" s="12"/>
       <c r="L181" s="12"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M181" s="12"/>
+      <c r="N181" s="12"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="13" t="s">
         <v>157</v>
       </c>
@@ -22702,9 +23513,12 @@
       <c r="H182" s="12"/>
       <c r="I182" s="12"/>
       <c r="J182" s="12"/>
+      <c r="K182" s="12"/>
       <c r="L182" s="12"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M182" s="12"/>
+      <c r="N182" s="12"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
         <v>158</v>
       </c>
@@ -22717,9 +23531,12 @@
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
       <c r="J183" s="12"/>
+      <c r="K183" s="12"/>
       <c r="L183" s="12"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M183" s="12"/>
+      <c r="N183" s="12"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
         <v>159</v>
       </c>
@@ -22734,9 +23551,12 @@
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
       <c r="L184" s="12"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M184" s="12"/>
+      <c r="N184" s="12"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="12" t="s">
         <v>160</v>
       </c>
@@ -22749,9 +23569,12 @@
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
       <c r="J185" s="12"/>
+      <c r="K185" s="12"/>
       <c r="L185" s="12"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M185" s="12"/>
+      <c r="N185" s="12"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
         <v>161</v>
       </c>
@@ -22764,9 +23587,12 @@
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
       <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
       <c r="L186" s="12"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M186" s="12"/>
+      <c r="N186" s="12"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
         <v>162</v>
       </c>
@@ -22779,9 +23605,12 @@
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
       <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
       <c r="L187" s="12"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M187" s="12"/>
+      <c r="N187" s="12"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
         <v>163</v>
       </c>
@@ -22796,9 +23625,12 @@
       <c r="H188" s="12"/>
       <c r="I188" s="12"/>
       <c r="J188" s="12"/>
+      <c r="K188" s="12"/>
       <c r="L188" s="12"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M188" s="12"/>
+      <c r="N188" s="12"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
         <v>87</v>
       </c>
@@ -22811,9 +23643,14 @@
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
       <c r="J189" s="12"/>
-      <c r="L189" s="12"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K189" s="12"/>
+      <c r="L189" s="12">
+        <v>3182</v>
+      </c>
+      <c r="M189" s="12"/>
+      <c r="N189" s="12"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -22824,9 +23661,12 @@
       <c r="H190" s="12"/>
       <c r="I190" s="12"/>
       <c r="J190" s="12"/>
+      <c r="K190" s="12"/>
       <c r="L190" s="12"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M190" s="12"/>
+      <c r="N190" s="12"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="13" t="s">
         <v>164</v>
       </c>
@@ -22839,9 +23679,12 @@
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
       <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
       <c r="L191" s="12"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M191" s="12"/>
+      <c r="N191" s="12"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
         <v>165</v>
       </c>
@@ -22854,9 +23697,12 @@
       <c r="H192" s="12"/>
       <c r="I192" s="12"/>
       <c r="J192" s="12"/>
+      <c r="K192" s="12"/>
       <c r="L192" s="12"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M192" s="12"/>
+      <c r="N192" s="12"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
         <v>166</v>
       </c>
@@ -22871,9 +23717,14 @@
       <c r="J193" s="12">
         <v>111</v>
       </c>
+      <c r="K193" s="12"/>
       <c r="L193" s="12"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M193" s="12">
+        <v>40</v>
+      </c>
+      <c r="N193" s="12"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
         <v>167</v>
       </c>
@@ -22886,9 +23737,12 @@
       <c r="H194" s="12"/>
       <c r="I194" s="12"/>
       <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
       <c r="L194" s="12"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M194" s="12"/>
+      <c r="N194" s="12"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
         <v>168</v>
       </c>
@@ -22903,9 +23757,12 @@
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
+      <c r="K195" s="12"/>
       <c r="L195" s="12"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M195" s="12"/>
+      <c r="N195" s="12"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
         <v>169</v>
       </c>
@@ -22922,9 +23779,12 @@
       <c r="J196" s="12">
         <v>111</v>
       </c>
+      <c r="K196" s="12"/>
       <c r="L196" s="12"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M196" s="12"/>
+      <c r="N196" s="12"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="12" t="s">
         <v>170</v>
       </c>
@@ -22949,9 +23809,18 @@
       <c r="J197" s="12">
         <v>555</v>
       </c>
-      <c r="L197" s="12"/>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K197" s="12">
+        <v>999</v>
+      </c>
+      <c r="L197" s="12">
+        <v>120</v>
+      </c>
+      <c r="M197" s="12">
+        <v>160</v>
+      </c>
+      <c r="N197" s="12"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
         <v>171</v>
       </c>
@@ -22970,9 +23839,12 @@
       <c r="J198" s="12">
         <v>1110</v>
       </c>
+      <c r="K198" s="12"/>
       <c r="L198" s="12"/>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M198" s="12"/>
+      <c r="N198" s="12"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -22983,9 +23855,12 @@
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
       <c r="J199" s="12"/>
+      <c r="K199" s="12"/>
       <c r="L199" s="12"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M199" s="12"/>
+      <c r="N199" s="12"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
         <v>172</v>
       </c>
@@ -22998,9 +23873,12 @@
       <c r="H200" s="12"/>
       <c r="I200" s="12"/>
       <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
       <c r="L200" s="12"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M200" s="12"/>
+      <c r="N200" s="12"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" s="12" t="s">
         <v>173</v>
       </c>
@@ -23015,9 +23893,12 @@
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
       <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
       <c r="L201" s="12"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M201" s="12"/>
+      <c r="N201" s="12"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" s="12" t="s">
         <v>174</v>
       </c>
@@ -23030,9 +23911,14 @@
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
       <c r="J202" s="12"/>
+      <c r="K202" s="12"/>
       <c r="L202" s="12"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M202" s="12">
+        <v>40</v>
+      </c>
+      <c r="N202" s="12"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -23043,9 +23929,12 @@
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
+      <c r="K203" s="12"/>
       <c r="L203" s="12"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M203" s="12"/>
+      <c r="N203" s="12"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" s="12" t="s">
         <v>175</v>
       </c>
@@ -23058,9 +23947,12 @@
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
+      <c r="K204" s="12"/>
       <c r="L204" s="12"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M204" s="12"/>
+      <c r="N204" s="12"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="12" t="s">
         <v>176</v>
       </c>
@@ -23073,9 +23965,12 @@
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
       <c r="J205" s="12"/>
+      <c r="K205" s="12"/>
       <c r="L205" s="12"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M205" s="12"/>
+      <c r="N205" s="12"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="12" t="s">
         <v>177</v>
       </c>
@@ -23092,9 +23987,14 @@
       <c r="J206" s="12">
         <v>3500</v>
       </c>
+      <c r="K206" s="12"/>
       <c r="L206" s="12"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M206" s="12">
+        <v>3500</v>
+      </c>
+      <c r="N206" s="12"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" s="12" t="s">
         <v>177</v>
       </c>
@@ -23111,9 +24011,14 @@
       <c r="J207" s="12">
         <v>39888</v>
       </c>
+      <c r="K207" s="12">
+        <v>4329</v>
+      </c>
       <c r="L207" s="12"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M207" s="12"/>
+      <c r="N207" s="12"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -23124,9 +24029,12 @@
       <c r="H208" s="12"/>
       <c r="I208" s="12"/>
       <c r="J208" s="12"/>
+      <c r="K208" s="12"/>
       <c r="L208" s="12"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M208" s="12"/>
+      <c r="N208" s="12"/>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
         <v>179</v>
       </c>
@@ -23139,9 +24047,12 @@
       <c r="H209" s="12"/>
       <c r="I209" s="12"/>
       <c r="J209" s="12"/>
+      <c r="K209" s="12"/>
       <c r="L209" s="12"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M209" s="12"/>
+      <c r="N209" s="12"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="12" t="s">
         <v>180</v>
       </c>
@@ -23154,9 +24065,12 @@
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
       <c r="J210" s="12"/>
+      <c r="K210" s="12"/>
       <c r="L210" s="12"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M210" s="12"/>
+      <c r="N210" s="12"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -23167,9 +24081,12 @@
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
       <c r="J211" s="12"/>
+      <c r="K211" s="12"/>
       <c r="L211" s="12"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M211" s="12"/>
+      <c r="N211" s="12"/>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="s">
         <v>181</v>
       </c>
@@ -23194,9 +24111,18 @@
       <c r="J212" s="12">
         <v>343000</v>
       </c>
-      <c r="L212" s="12"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K212" s="12">
+        <v>270000</v>
+      </c>
+      <c r="L212" s="12">
+        <v>206830</v>
+      </c>
+      <c r="M212" s="12">
+        <v>75250</v>
+      </c>
+      <c r="N212" s="12"/>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -23207,9 +24133,12 @@
       <c r="H213" s="12"/>
       <c r="I213" s="12"/>
       <c r="J213" s="12"/>
+      <c r="K213" s="12"/>
       <c r="L213" s="12"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M213" s="12"/>
+      <c r="N213" s="12"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="12" t="s">
         <v>182</v>
       </c>
@@ -23222,9 +24151,12 @@
       <c r="H214" s="12"/>
       <c r="I214" s="12"/>
       <c r="J214" s="12"/>
+      <c r="K214" s="12"/>
       <c r="L214" s="12"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M214" s="12"/>
+      <c r="N214" s="12"/>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -23235,9 +24167,12 @@
       <c r="H215" s="12"/>
       <c r="I215" s="12"/>
       <c r="J215" s="12"/>
+      <c r="K215" s="12"/>
       <c r="L215" s="12"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M215" s="12"/>
+      <c r="N215" s="12"/>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="12" t="s">
         <v>183</v>
       </c>
@@ -23254,9 +24189,14 @@
       </c>
       <c r="I216" s="12"/>
       <c r="J216" s="12"/>
+      <c r="K216" s="12"/>
       <c r="L216" s="12"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M216" s="12">
+        <v>40</v>
+      </c>
+      <c r="N216" s="12"/>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -23267,9 +24207,9 @@
       <c r="H217" s="12"/>
       <c r="I217" s="12"/>
       <c r="J217" s="12"/>
-      <c r="L217" s="12"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N217" s="12"/>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="12" t="s">
         <v>184</v>
       </c>
@@ -23286,9 +24226,9 @@
       <c r="J218" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="L218" s="12"/>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N218" s="12"/>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -23302,13 +24242,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I220" s="12"/>
       <c r="J220" s="12" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I221" s="12"/>
       <c r="J221" s="12" t="s">
         <v>272</v>
